--- a/public/templates/配件确认单.xlsx
+++ b/public/templates/配件确认单.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10080"/>
@@ -13,30 +13,18 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$O:$Y</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet3!$A$1:$L$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet3!$A$1:$L$36</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="125">
   <si>
     <t xml:space="preserve">  确认单</t>
   </si>
   <si>
-    <t xml:space="preserve">            确认单</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        配件确认单</t>
-  </si>
-  <si>
-    <t>部门编号</t>
-  </si>
-  <si>
-    <t>日期：   年   月   日</t>
-  </si>
-  <si>
     <t>部门</t>
   </si>
   <si>
@@ -58,9 +46,6 @@
     <t>公司地址</t>
   </si>
   <si>
-    <t xml:space="preserve">      省     市     区</t>
-  </si>
-  <si>
     <t>法人代表</t>
   </si>
   <si>
@@ -82,73 +67,6 @@
     <t>是否买保险</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>买</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>不买</t>
-    </r>
-  </si>
-  <si>
     <t>收货人电话</t>
   </si>
   <si>
@@ -161,142 +79,10 @@
     <t>客户性质</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>签约</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>非签约</t>
-    </r>
-  </si>
-  <si>
     <t>货场电话</t>
   </si>
   <si>
     <t>销售合同</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Wingdings 2"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">             </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>□</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>无</t>
-    </r>
   </si>
   <si>
     <t>收货地址</t>
@@ -1120,18 +906,54 @@
       <t xml:space="preserve">                   </t>
     </r>
   </si>
+  <si>
+    <t>配件确认单</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>小计（折扣）</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司电话/传真</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>法人电话</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人电话</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否买保险</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>保额</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户性质</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售合同</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;#,##0"/>
-    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.00_);\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;#,##0;[Red]&quot;￥&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1418,6 +1240,55 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1433,7 +1304,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="57">
     <border>
       <left/>
       <right/>
@@ -2072,11 +1943,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -2084,11 +1970,52 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2104,7 +2031,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="285">
+  <cellXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2156,10 +2083,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2255,7 +2182,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2282,55 +2209,55 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="25" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="25" fillId="0" borderId="35" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="25" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="181" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="25" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="26" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
@@ -2378,59 +2305,563 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2438,452 +2869,80 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="31" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="179" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2897,68 +2956,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3015,7 +3017,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3082,7 +3084,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3247,7 +3249,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3412,7 +3414,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3844,7 +3846,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4009,7 +4011,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4341,7 +4343,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4740,7 +4742,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4809,7 +4811,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -5320,10 +5322,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:L18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5332,826 +5334,702 @@
     <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="6.625" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="6.375" customWidth="1"/>
     <col min="6" max="6" width="5.5" customWidth="1"/>
     <col min="7" max="7" width="5.125" customWidth="1"/>
-    <col min="8" max="8" width="4.75" customWidth="1"/>
+    <col min="8" max="8" width="5.875" customWidth="1"/>
     <col min="9" max="9" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="12" width="5.75" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+    <col min="11" max="11" width="5.25" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:12" ht="34.5" customHeight="1" thickBot="1">
+      <c r="A1" s="202"/>
+      <c r="B1" s="203"/>
+      <c r="C1" s="203"/>
+      <c r="D1" s="204" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="201"/>
+      <c r="L1" s="96"/>
+    </row>
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="205" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="215" t="s">
+      <c r="B2" s="206"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="212" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="214" t="s">
+      <c r="F2" s="213"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="213"/>
+      <c r="I2" s="212" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.100000000000001" customHeight="1">
-      <c r="A2" s="108" t="s">
+      <c r="J2" s="213"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="114"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A3" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="215"/>
-      <c r="J2" s="215"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="214"/>
-    </row>
-    <row r="3" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
+      <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="111"/>
-      <c r="G3" s="111"/>
-      <c r="H3" s="110" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="110"/>
+      <c r="E3" s="110"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="110"/>
+      <c r="H3" s="110"/>
+      <c r="I3" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="J3" s="112"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="114"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="210"/>
+      <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="114"/>
-      <c r="L3" s="115"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="206" t="s">
+      <c r="C4" s="193"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="196"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="198"/>
+      <c r="L4" s="199"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="210"/>
+      <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="117" t="s">
+      <c r="C5" s="115"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="125" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="126"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
+    </row>
+    <row r="6" spans="1:12" s="76" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A6" s="211"/>
+      <c r="B6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="207"/>
-      <c r="B5" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="122" t="s">
+      <c r="C6" s="118"/>
+      <c r="D6" s="119"/>
+      <c r="E6" s="119"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="127" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" s="128"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="124"/>
+    </row>
+    <row r="7" spans="1:12" s="76" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
+      <c r="A7" s="82"/>
+      <c r="B7" s="83"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="91"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="123"/>
-      <c r="E5" s="124"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="125"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="123"/>
-      <c r="L5" s="127"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="80" t="s">
+      <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="128"/>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="129"/>
-      <c r="H6" s="128"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="132"/>
-    </row>
-    <row r="7" spans="1:12" s="76" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="81" t="s">
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="182" t="s">
+        <v>121</v>
+      </c>
+      <c r="H8" s="183"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="186"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="175"/>
+      <c r="B9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="135"/>
-      <c r="H7" s="133"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="137"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="138"/>
-    </row>
-    <row r="8" spans="1:12" s="76" customFormat="1" ht="9.9499999999999993" customHeight="1">
-      <c r="A8" s="82"/>
-      <c r="B8" s="83"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="104"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="209" t="s">
+      <c r="C9" s="115"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="187" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" s="117"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="175"/>
+      <c r="B10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="117" t="s">
+      <c r="C10" s="115"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="187" t="s">
+        <v>123</v>
+      </c>
+      <c r="H10" s="117"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="175"/>
+      <c r="B11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="117"/>
-      <c r="H9" s="139" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="140"/>
-      <c r="J9" s="141"/>
-      <c r="K9" s="142"/>
-      <c r="L9" s="143"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="210"/>
-      <c r="B10" s="80" t="s">
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="182" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="183"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="191"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="175"/>
+      <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="128"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="129" t="s">
+      <c r="C12" s="308"/>
+      <c r="D12" s="308"/>
+      <c r="E12" s="308"/>
+      <c r="F12" s="308"/>
+      <c r="G12" s="308"/>
+      <c r="H12" s="308"/>
+      <c r="I12" s="161"/>
+      <c r="J12" s="308"/>
+      <c r="K12" s="308"/>
+      <c r="L12" s="309"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="176"/>
+      <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="129"/>
-      <c r="H10" s="144"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="147"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="210"/>
-      <c r="B11" s="80" t="s">
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="163"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="129" t="s">
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="177"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="170"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="177"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="170"/>
+    </row>
+    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="177"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
+    </row>
+    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="178"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="173"/>
+    </row>
+    <row r="19" spans="1:12" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="129"/>
-      <c r="H11" s="148" t="s">
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="155"/>
+      <c r="I19" s="157"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="155"/>
+    </row>
+    <row r="20" spans="1:12" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="151"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="210"/>
-      <c r="B12" s="80" t="s">
+      <c r="B20" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="129" t="s">
+      <c r="C20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="129"/>
-      <c r="H12" s="148" t="s">
+      <c r="D20" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="149"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="151"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="210"/>
-      <c r="B13" s="80" t="s">
+      <c r="E20" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="128"/>
-      <c r="L13" s="132"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="211"/>
-      <c r="B14" s="86" t="s">
+      <c r="F20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="152"/>
-      <c r="D14" s="152"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="152"/>
-      <c r="H14" s="152"/>
-      <c r="I14" s="152"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="152"/>
-      <c r="L14" s="153"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="212" t="s">
+      <c r="G20" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="154"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="156"/>
-      <c r="G15" s="156"/>
-      <c r="H15" s="156"/>
-      <c r="I15" s="156"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="156"/>
-      <c r="L15" s="157"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="212"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="160"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="212"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="160"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="212"/>
-      <c r="B18" s="158"/>
-      <c r="C18" s="159"/>
-      <c r="D18" s="159"/>
-      <c r="E18" s="159"/>
-      <c r="F18" s="159"/>
-      <c r="G18" s="159"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="159"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="159"/>
-      <c r="L18" s="160"/>
-    </row>
-    <row r="19" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="213"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="162"/>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
-      <c r="I19" s="162"/>
-      <c r="J19" s="162"/>
-      <c r="K19" s="162"/>
-      <c r="L19" s="163"/>
-    </row>
-    <row r="20" spans="1:12" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="164" t="s">
+      <c r="H20" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="164"/>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="164"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="164"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="164"/>
-    </row>
-    <row r="21" spans="1:12" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="29" t="s">
+      <c r="I20" s="90"/>
+      <c r="J20" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="87" t="s">
+      <c r="K20" s="159" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="88" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="H21" s="90" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="90"/>
-      <c r="J21" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21" s="168" t="s">
-        <v>42</v>
-      </c>
-      <c r="L21" s="169"/>
+      <c r="L20" s="160"/>
+    </row>
+    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="6">
+        <v>1</v>
+      </c>
+      <c r="B21" s="99"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="98"/>
+      <c r="I21" s="98"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="129"/>
+      <c r="L21" s="130"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="95"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="128"/>
-      <c r="L22" s="132"/>
+        <v>2</v>
+      </c>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="129"/>
+      <c r="L22" s="130"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6">
-        <v>2</v>
-      </c>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="96"/>
-      <c r="I23" s="96"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="128"/>
-      <c r="L23" s="132"/>
+        <v>3</v>
+      </c>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="107"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="129"/>
+      <c r="L23" s="130"/>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6">
-        <v>3</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="98"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="128"/>
-      <c r="L24" s="132"/>
+        <v>4</v>
+      </c>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="106"/>
+      <c r="K24" s="129"/>
+      <c r="L24" s="130"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6">
-        <v>4</v>
-      </c>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="96"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="128"/>
-      <c r="L25" s="132"/>
+        <v>5</v>
+      </c>
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="129"/>
+      <c r="L25" s="130"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
-        <v>5</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
       <c r="D26" s="99"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="100"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="128"/>
-      <c r="L26" s="132"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="106"/>
+      <c r="K26" s="129"/>
+      <c r="L26" s="130"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
-        <v>6</v>
-      </c>
-      <c r="B27" s="96"/>
-      <c r="C27" s="96"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="96"/>
-      <c r="F27" s="96"/>
-      <c r="G27" s="96"/>
-      <c r="H27" s="96"/>
-      <c r="I27" s="96"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="132"/>
+        <v>7</v>
+      </c>
+      <c r="B27" s="99"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="99"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="130"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="132"/>
+        <v>8</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="99"/>
+      <c r="D28" s="99"/>
+      <c r="E28" s="99"/>
+      <c r="F28" s="99"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="130"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
-        <v>8</v>
-      </c>
-      <c r="B29" s="96"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="96"/>
-      <c r="G29" s="96"/>
-      <c r="H29" s="96"/>
-      <c r="I29" s="96"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="132"/>
+        <v>9</v>
+      </c>
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="103"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="130"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
-        <v>9</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="132"/>
-    </row>
-    <row r="31" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="6">
         <v>10</v>
       </c>
-      <c r="B31" s="96"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="96"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="96"/>
-      <c r="H31" s="96"/>
-      <c r="I31" s="96"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="132"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="106"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="130"/>
+    </row>
+    <row r="31" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="134" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="135"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="138"/>
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="170" t="s">
-        <v>43</v>
-      </c>
-      <c r="B32" s="171"/>
-      <c r="C32" s="171"/>
-      <c r="D32" s="171"/>
-      <c r="E32" s="171"/>
-      <c r="F32" s="171"/>
-      <c r="G32" s="171"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="173"/>
-      <c r="L32" s="174"/>
+      <c r="A32" s="145" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="146"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="146"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="95"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="175" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="176"/>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="177"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="176"/>
-      <c r="L33" s="177"/>
+      <c r="A33" s="145" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="146"/>
+      <c r="C33" s="146"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="146"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="146"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="95"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="147"/>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="175" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="177"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="176"/>
-      <c r="L34" s="177"/>
-    </row>
-    <row r="35" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="178" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="179"/>
-      <c r="C35" s="179"/>
-      <c r="D35" s="179"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="179"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="182"/>
-      <c r="K35" s="183"/>
-      <c r="L35" s="184"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="186"/>
-      <c r="K36" s="186"/>
-      <c r="L36" s="187"/>
-    </row>
-    <row r="37" spans="1:12" s="15" customFormat="1" ht="15">
-      <c r="A37" s="188"/>
-      <c r="B37" s="189"/>
-      <c r="C37" s="189"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="189"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190"/>
-    </row>
-    <row r="38" spans="1:12" s="15" customFormat="1" ht="15">
-      <c r="A38" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="192"/>
-      <c r="C38" s="192"/>
-      <c r="D38" s="192"/>
-      <c r="E38" s="192"/>
-      <c r="F38" s="192"/>
-      <c r="G38" s="192"/>
-      <c r="H38" s="192"/>
-      <c r="I38" s="192"/>
-      <c r="J38" s="192"/>
-      <c r="K38" s="192"/>
-      <c r="L38" s="193"/>
-    </row>
-    <row r="39" spans="1:12" s="15" customFormat="1" ht="15">
-      <c r="A39" s="194" t="s">
-        <v>48</v>
-      </c>
-      <c r="B39" s="195"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="195"/>
-      <c r="E39" s="195"/>
-      <c r="F39" s="195"/>
-      <c r="G39" s="195"/>
-      <c r="H39" s="195"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="196"/>
-    </row>
-    <row r="40" spans="1:12" s="15" customFormat="1" ht="15">
-      <c r="A40" s="197"/>
-      <c r="B40" s="198"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="198"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
-      <c r="L40" s="199"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
-      <c r="K41" s="192"/>
-      <c r="L41" s="193"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42" s="200" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" s="201"/>
-      <c r="C42" s="201"/>
-      <c r="D42" s="201"/>
-      <c r="E42" s="201"/>
-      <c r="F42" s="201"/>
-      <c r="G42" s="201"/>
-      <c r="H42" s="201"/>
-      <c r="I42" s="201"/>
-      <c r="J42" s="201"/>
-      <c r="K42" s="201"/>
-      <c r="L42" s="202"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43" s="203"/>
-      <c r="B43" s="204"/>
-      <c r="C43" s="204"/>
-      <c r="D43" s="204"/>
-      <c r="E43" s="204"/>
-      <c r="F43" s="204"/>
-      <c r="G43" s="204"/>
-      <c r="H43" s="204"/>
-      <c r="I43" s="204"/>
-      <c r="J43" s="204"/>
-      <c r="K43" s="204"/>
-      <c r="L43" s="205"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44" s="191" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
-      <c r="D44" s="192"/>
-      <c r="E44" s="192"/>
-      <c r="F44" s="192"/>
-      <c r="G44" s="192"/>
-      <c r="H44" s="192"/>
-      <c r="I44" s="192"/>
-      <c r="J44" s="192"/>
-      <c r="K44" s="192"/>
-      <c r="L44" s="193"/>
+      <c r="A34" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="150"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="151"/>
+      <c r="J34" s="152"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="154"/>
+    </row>
+    <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A35" s="139" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="140"/>
+      <c r="C35" s="140"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="140"/>
+      <c r="F35" s="140"/>
+      <c r="G35" s="140"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="140"/>
+      <c r="J35" s="140"/>
+      <c r="K35" s="140"/>
+      <c r="L35" s="141"/>
+    </row>
+    <row r="36" spans="1:12" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A36" s="142" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="143"/>
+      <c r="C36" s="143"/>
+      <c r="D36" s="143"/>
+      <c r="E36" s="143"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="143"/>
+      <c r="J36" s="143"/>
+      <c r="K36" s="143"/>
+      <c r="L36" s="144"/>
+    </row>
+    <row r="37" spans="1:12" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A37" s="131" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="132"/>
+      <c r="C37" s="132"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="132"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="132"/>
+      <c r="L37" s="133"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="D1:K2"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A42:L42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A44:L44"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A15:A19"/>
+  <mergeCells count="63">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A35:L35"/>
     <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A39:L39"/>
-    <mergeCell ref="A40:L40"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="K32:L32"/>
     <mergeCell ref="A33:I33"/>
     <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
     <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="C14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6166,8 +6044,8 @@
   </sheetPr>
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6190,414 +6068,414 @@
         <v>0</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="D1" s="215" t="s">
+      <c r="D1" s="218" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="218"/>
+      <c r="F1" s="218"/>
+      <c r="G1" s="218"/>
+      <c r="H1" s="218"/>
+      <c r="I1" s="218"/>
+      <c r="J1" s="218"/>
+      <c r="K1" s="218"/>
+      <c r="L1" s="57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="276" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="276"/>
+      <c r="C2" s="276"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="58"/>
+    </row>
+    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="277" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="278"/>
+      <c r="C3" s="279" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="279"/>
+      <c r="E3" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="279" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="279"/>
+      <c r="H3" s="278" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="280"/>
+      <c r="J3" s="263" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="264"/>
+      <c r="L3" s="265"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="266" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="267" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="268"/>
+      <c r="J4" s="269" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" s="248"/>
+      <c r="L4" s="270"/>
+    </row>
+    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="210"/>
+      <c r="B5" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="271" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="215"/>
-      <c r="F1" s="215"/>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="215"/>
-      <c r="K1" s="215"/>
-      <c r="L1" s="57" t="s">
+      <c r="D5" s="271"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="271"/>
+      <c r="G5" s="271"/>
+      <c r="H5" s="271"/>
+      <c r="I5" s="273"/>
+      <c r="J5" s="274"/>
+      <c r="K5" s="271"/>
+      <c r="L5" s="275"/>
+    </row>
+    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="210"/>
+      <c r="B6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="189" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="D6" s="189"/>
+      <c r="E6" s="189"/>
+      <c r="F6" s="243" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="243"/>
+      <c r="H6" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="259"/>
-      <c r="E2" s="259"/>
-      <c r="F2" s="259"/>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
-      <c r="I2" s="259"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="259"/>
-      <c r="L2" s="58"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="109" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="217" t="s">
+      <c r="I6" s="239"/>
+      <c r="J6" s="240"/>
+      <c r="K6" s="189"/>
+      <c r="L6" s="220"/>
+    </row>
+    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="211"/>
+      <c r="B7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="258" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="217"/>
-      <c r="E3" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="217" t="s">
+      <c r="D7" s="258"/>
+      <c r="E7" s="258"/>
+      <c r="F7" s="259" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="259"/>
+      <c r="H7" s="258" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="217"/>
-      <c r="H3" s="110" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="218" t="s">
+      <c r="I7" s="260"/>
+      <c r="J7" s="261"/>
+      <c r="K7" s="258"/>
+      <c r="L7" s="262"/>
+    </row>
+    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="248" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="219"/>
-      <c r="L3" s="220"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="206" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="116" t="s">
+      <c r="D8" s="248"/>
+      <c r="E8" s="248"/>
+      <c r="F8" s="249" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="249"/>
+      <c r="H8" s="250" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="116"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="221" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="222"/>
-      <c r="J4" s="119" t="s">
+      <c r="I8" s="251"/>
+      <c r="J8" s="252"/>
+      <c r="K8" s="253"/>
+      <c r="L8" s="254"/>
+    </row>
+    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="175"/>
+      <c r="B9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>57</v>
       </c>
-      <c r="K4" s="120"/>
-      <c r="L4" s="121"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="207"/>
-      <c r="B5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="223" t="s">
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="243" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="243"/>
+      <c r="H9" s="255" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="223"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
-      <c r="H5" s="223"/>
-      <c r="I5" s="225"/>
-      <c r="J5" s="226"/>
-      <c r="K5" s="223"/>
-      <c r="L5" s="227"/>
-    </row>
-    <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="128" t="s">
+      <c r="I9" s="239"/>
+      <c r="J9" s="256"/>
+      <c r="K9" s="255"/>
+      <c r="L9" s="257"/>
+    </row>
+    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="175"/>
+      <c r="B10" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="189" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="128"/>
-      <c r="F6" s="228" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="228"/>
-      <c r="H6" s="128" t="s">
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="243" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="243"/>
+      <c r="H10" s="244" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="130"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="128"/>
-      <c r="L6" s="132"/>
-    </row>
-    <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="208"/>
-      <c r="B7" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="229" t="s">
+      <c r="I10" s="245"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="244"/>
+      <c r="L10" s="247"/>
+    </row>
+    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="216"/>
+      <c r="B11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="189">
+        <v>33333333</v>
+      </c>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="243" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="243"/>
+      <c r="H11" s="244" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="229"/>
-      <c r="E7" s="229"/>
-      <c r="F7" s="230" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="230"/>
-      <c r="H7" s="229" t="s">
+      <c r="I11" s="245"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="244"/>
+      <c r="L11" s="247"/>
+    </row>
+    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="216"/>
+      <c r="B12" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="231"/>
-      <c r="J7" s="232"/>
-      <c r="K7" s="229"/>
-      <c r="L7" s="233"/>
-    </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="209" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="120" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="117" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="117"/>
-      <c r="H8" s="234" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="140"/>
-      <c r="J8" s="141"/>
-      <c r="K8" s="142"/>
-      <c r="L8" s="143"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="210"/>
-      <c r="B9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="128" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="228" t="s">
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="239"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="220"/>
+    </row>
+    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="217"/>
+      <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="228"/>
-      <c r="H9" s="235" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="130"/>
-      <c r="J9" s="236"/>
-      <c r="K9" s="235"/>
-      <c r="L9" s="237"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="210"/>
-      <c r="B10" s="23" t="s">
+      <c r="C13" s="241"/>
+      <c r="D13" s="241"/>
+      <c r="E13" s="241"/>
+      <c r="F13" s="241"/>
+      <c r="G13" s="241"/>
+      <c r="H13" s="241"/>
+      <c r="I13" s="241"/>
+      <c r="J13" s="241"/>
+      <c r="K13" s="241"/>
+      <c r="L13" s="242"/>
+    </row>
+    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="128" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="128"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="228" t="s">
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
+    </row>
+    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="210"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="170"/>
+    </row>
+    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="210"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="170"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="210"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="211"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="173"/>
+    </row>
+    <row r="19" spans="1:14" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="231" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="228"/>
-      <c r="H10" s="148" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="149"/>
-      <c r="J10" s="150"/>
-      <c r="K10" s="148"/>
-      <c r="L10" s="151"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="257"/>
-      <c r="B11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="128">
-        <v>33333333</v>
-      </c>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="228" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="228"/>
-      <c r="H11" s="148" t="s">
-        <v>69</v>
-      </c>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="148"/>
-      <c r="L11" s="151"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="257"/>
-      <c r="B12" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="128" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="128"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="128"/>
-      <c r="L12" s="132"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="258"/>
-      <c r="B13" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="152"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="152"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="152"/>
-      <c r="L13" s="153"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="207" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="154"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="156"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="156"/>
-      <c r="L14" s="157"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="207"/>
-      <c r="B15" s="158"/>
-      <c r="C15" s="159"/>
-      <c r="D15" s="159"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="159"/>
-      <c r="G15" s="159"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="159"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="159"/>
-      <c r="L15" s="160"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="207"/>
-      <c r="B16" s="158"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="159"/>
-      <c r="L16" s="160"/>
-    </row>
-    <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="207"/>
-      <c r="B17" s="158"/>
-      <c r="C17" s="159"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="159"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="159"/>
-      <c r="L17" s="160"/>
-    </row>
-    <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="208"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="162"/>
-      <c r="D18" s="162"/>
-      <c r="E18" s="162"/>
-      <c r="F18" s="162"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="163"/>
-    </row>
-    <row r="19" spans="1:14" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="238" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="238"/>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="238"/>
-      <c r="G19" s="238"/>
-      <c r="H19" s="238"/>
-      <c r="I19" s="240"/>
-      <c r="J19" s="241"/>
-      <c r="K19" s="238"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="231"/>
+      <c r="D19" s="231"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="231"/>
+      <c r="G19" s="231"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="228"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="231"/>
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="I20" s="63"/>
       <c r="J20" s="64" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20" s="242" t="s">
-        <v>42</v>
-      </c>
-      <c r="L20" s="243"/>
+        <v>33</v>
+      </c>
+      <c r="K20" s="237" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="238"/>
     </row>
     <row r="21" spans="1:14" ht="27.95" customHeight="1">
       <c r="A21" s="6">
         <v>1</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E21" s="34" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H21" s="4">
         <v>1</v>
@@ -6608,48 +6486,48 @@
       <c r="J21" s="59">
         <v>1200</v>
       </c>
-      <c r="K21" s="128"/>
-      <c r="L21" s="132"/>
+      <c r="K21" s="189"/>
+      <c r="L21" s="220"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="245"/>
-      <c r="C22" s="245"/>
-      <c r="D22" s="245"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="245"/>
-      <c r="I22" s="246"/>
+      <c r="A22" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="222"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="222"/>
+      <c r="F22" s="222"/>
+      <c r="G22" s="222"/>
+      <c r="H22" s="222"/>
+      <c r="I22" s="223"/>
       <c r="J22" s="66">
         <v>1200</v>
       </c>
-      <c r="K22" s="128"/>
-      <c r="L22" s="132"/>
+      <c r="K22" s="189"/>
+      <c r="L22" s="220"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1">
       <c r="A23" s="6">
         <v>2</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>79</v>
-      </c>
       <c r="G23" s="36" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
@@ -6660,51 +6538,51 @@
       <c r="J23" s="59">
         <v>2950</v>
       </c>
-      <c r="K23" s="128"/>
-      <c r="L23" s="132"/>
+      <c r="K23" s="189"/>
+      <c r="L23" s="220"/>
       <c r="N23" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="245"/>
-      <c r="C24" s="245"/>
-      <c r="D24" s="245"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="245"/>
-      <c r="I24" s="246"/>
+      <c r="A24" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="222"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="222"/>
+      <c r="E24" s="222"/>
+      <c r="F24" s="222"/>
+      <c r="G24" s="222"/>
+      <c r="H24" s="222"/>
+      <c r="I24" s="223"/>
       <c r="J24" s="66">
         <v>2950</v>
       </c>
-      <c r="K24" s="128"/>
-      <c r="L24" s="132"/>
+      <c r="K24" s="189"/>
+      <c r="L24" s="220"/>
     </row>
     <row r="25" spans="1:14" ht="27" customHeight="1">
       <c r="A25" s="6">
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
@@ -6715,46 +6593,46 @@
       <c r="J25" s="59">
         <v>1375</v>
       </c>
-      <c r="K25" s="128"/>
-      <c r="L25" s="132"/>
+      <c r="K25" s="189"/>
+      <c r="L25" s="220"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="245"/>
-      <c r="C26" s="245"/>
-      <c r="D26" s="245"/>
-      <c r="E26" s="245"/>
-      <c r="F26" s="245"/>
-      <c r="G26" s="245"/>
-      <c r="H26" s="245"/>
-      <c r="I26" s="246"/>
+      <c r="A26" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="222"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="222"/>
+      <c r="E26" s="222"/>
+      <c r="F26" s="222"/>
+      <c r="G26" s="222"/>
+      <c r="H26" s="222"/>
+      <c r="I26" s="223"/>
       <c r="J26" s="66">
         <v>1375</v>
       </c>
-      <c r="K26" s="128"/>
-      <c r="L26" s="132"/>
+      <c r="K26" s="189"/>
+      <c r="L26" s="220"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="42">
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D27" s="43" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F27" s="7"/>
       <c r="G27" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
@@ -6765,48 +6643,48 @@
       <c r="J27" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K27" s="128"/>
-      <c r="L27" s="132"/>
+      <c r="K27" s="189"/>
+      <c r="L27" s="220"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="245"/>
-      <c r="C28" s="245"/>
-      <c r="D28" s="245"/>
-      <c r="E28" s="245"/>
-      <c r="F28" s="245"/>
-      <c r="G28" s="245"/>
-      <c r="H28" s="245"/>
-      <c r="I28" s="246"/>
+      <c r="A28" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="222"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="222"/>
+      <c r="E28" s="222"/>
+      <c r="F28" s="222"/>
+      <c r="G28" s="222"/>
+      <c r="H28" s="222"/>
+      <c r="I28" s="223"/>
       <c r="J28" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K28" s="128"/>
-      <c r="L28" s="132"/>
+      <c r="K28" s="189"/>
+      <c r="L28" s="220"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="42">
         <v>5</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D29" s="44" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E29" s="45" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F29" s="44" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G29" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
@@ -6817,46 +6695,46 @@
       <c r="J29" s="70">
         <v>2900</v>
       </c>
-      <c r="K29" s="128"/>
-      <c r="L29" s="132"/>
+      <c r="K29" s="189"/>
+      <c r="L29" s="220"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="245"/>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="245"/>
-      <c r="I30" s="246"/>
+      <c r="A30" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="222"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="222"/>
+      <c r="E30" s="222"/>
+      <c r="F30" s="222"/>
+      <c r="G30" s="222"/>
+      <c r="H30" s="222"/>
+      <c r="I30" s="223"/>
       <c r="J30" s="70">
         <v>2900</v>
       </c>
-      <c r="K30" s="247"/>
-      <c r="L30" s="248"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="224"/>
     </row>
     <row r="31" spans="1:14" ht="24">
       <c r="A31" s="6">
         <v>6</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
@@ -6867,28 +6745,28 @@
       <c r="J31" s="59">
         <v>7087.5</v>
       </c>
-      <c r="K31" s="128"/>
-      <c r="L31" s="132"/>
+      <c r="K31" s="189"/>
+      <c r="L31" s="220"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>7</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D32" s="44" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="E32" s="45" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="F32" s="47"/>
       <c r="G32" s="45" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H32" s="4">
         <v>1</v>
@@ -6899,30 +6777,30 @@
       <c r="J32" s="59">
         <v>2900</v>
       </c>
-      <c r="K32" s="128"/>
-      <c r="L32" s="132"/>
+      <c r="K32" s="189"/>
+      <c r="L32" s="220"/>
     </row>
     <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D33" s="48" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F33" s="48" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G33" s="50" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H33" s="4">
         <v>1</v>
@@ -6933,47 +6811,47 @@
       <c r="J33" s="59">
         <v>3510</v>
       </c>
-      <c r="K33" s="128"/>
-      <c r="L33" s="132"/>
+      <c r="K33" s="189"/>
+      <c r="L33" s="220"/>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="245"/>
-      <c r="C34" s="245"/>
-      <c r="D34" s="245"/>
-      <c r="E34" s="245"/>
-      <c r="F34" s="245"/>
-      <c r="G34" s="245"/>
-      <c r="H34" s="245"/>
-      <c r="I34" s="246"/>
+      <c r="A34" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="222"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="222"/>
+      <c r="E34" s="222"/>
+      <c r="F34" s="222"/>
+      <c r="G34" s="222"/>
+      <c r="H34" s="222"/>
+      <c r="I34" s="223"/>
       <c r="J34" s="66">
         <f>J31+J32+J33</f>
         <v>13497.5</v>
       </c>
-      <c r="K34" s="128"/>
-      <c r="L34" s="132"/>
+      <c r="K34" s="189"/>
+      <c r="L34" s="220"/>
     </row>
     <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>9</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
@@ -6984,46 +6862,46 @@
       <c r="J35" s="59">
         <v>96182</v>
       </c>
-      <c r="K35" s="128"/>
-      <c r="L35" s="132"/>
+      <c r="K35" s="189"/>
+      <c r="L35" s="220"/>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="244" t="s">
-        <v>43</v>
-      </c>
-      <c r="B36" s="245"/>
-      <c r="C36" s="245"/>
-      <c r="D36" s="245"/>
-      <c r="E36" s="245"/>
-      <c r="F36" s="245"/>
-      <c r="G36" s="245"/>
-      <c r="H36" s="245"/>
-      <c r="I36" s="246"/>
+      <c r="A36" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="222"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="222"/>
+      <c r="E36" s="222"/>
+      <c r="F36" s="222"/>
+      <c r="G36" s="222"/>
+      <c r="H36" s="222"/>
+      <c r="I36" s="223"/>
       <c r="J36" s="66">
         <v>96182</v>
       </c>
-      <c r="K36" s="128"/>
-      <c r="L36" s="132"/>
+      <c r="K36" s="189"/>
+      <c r="L36" s="220"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="6">
         <v>10</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D37" s="43" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E37" s="52" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F37" s="53"/>
       <c r="G37" s="4" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
@@ -7034,79 +6912,79 @@
       <c r="J37" s="59">
         <v>32727</v>
       </c>
-      <c r="K37" s="128"/>
-      <c r="L37" s="132"/>
+      <c r="K37" s="189"/>
+      <c r="L37" s="220"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="249" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="250"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="250"/>
-      <c r="H38" s="250"/>
-      <c r="I38" s="251"/>
+      <c r="A38" s="232" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="233"/>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="233"/>
+      <c r="G38" s="233"/>
+      <c r="H38" s="233"/>
+      <c r="I38" s="234"/>
       <c r="J38" s="72">
         <v>32727</v>
       </c>
-      <c r="K38" s="252"/>
-      <c r="L38" s="253"/>
+      <c r="K38" s="235"/>
+      <c r="L38" s="236"/>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="175" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="177"/>
+      <c r="A39" s="145" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" s="146"/>
+      <c r="C39" s="146"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="146"/>
+      <c r="F39" s="146"/>
+      <c r="G39" s="146"/>
+      <c r="H39" s="146"/>
+      <c r="I39" s="147"/>
       <c r="J39" s="73">
         <f>J21+J23+J25+J31+J32+J33+J35+J37</f>
         <v>147931.5</v>
       </c>
-      <c r="K39" s="176"/>
-      <c r="L39" s="177"/>
+      <c r="K39" s="146"/>
+      <c r="L39" s="147"/>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="175" t="s">
-        <v>107</v>
-      </c>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
-      <c r="E40" s="176"/>
-      <c r="F40" s="176"/>
-      <c r="G40" s="176"/>
-      <c r="H40" s="176"/>
-      <c r="I40" s="177"/>
+      <c r="A40" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="146"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="146"/>
+      <c r="E40" s="146"/>
+      <c r="F40" s="146"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="146"/>
+      <c r="I40" s="147"/>
       <c r="J40" s="73">
         <v>162724.65</v>
       </c>
-      <c r="K40" s="176"/>
-      <c r="L40" s="177"/>
+      <c r="K40" s="146"/>
+      <c r="L40" s="147"/>
     </row>
     <row r="41" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="178" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="179"/>
-      <c r="D41" s="179"/>
-      <c r="E41" s="180"/>
-      <c r="F41" s="179"/>
-      <c r="G41" s="179"/>
-      <c r="H41" s="179"/>
-      <c r="I41" s="181"/>
-      <c r="J41" s="182"/>
-      <c r="K41" s="183"/>
-      <c r="L41" s="184"/>
+      <c r="A41" s="148" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="149"/>
+      <c r="C41" s="149"/>
+      <c r="D41" s="149"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="151"/>
+      <c r="J41" s="152"/>
+      <c r="K41" s="153"/>
+      <c r="L41" s="154"/>
     </row>
     <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="8"/>
@@ -7123,19 +7001,19 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="254" t="s">
-        <v>108</v>
-      </c>
-      <c r="B43" s="255"/>
-      <c r="C43" s="255"/>
-      <c r="D43" s="255"/>
-      <c r="E43" s="239"/>
-      <c r="F43" s="255"/>
-      <c r="G43" s="255"/>
-      <c r="H43" s="255"/>
-      <c r="I43" s="240"/>
-      <c r="J43" s="241"/>
-      <c r="K43" s="255"/>
+      <c r="A43" s="225" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="226"/>
+      <c r="C43" s="226"/>
+      <c r="D43" s="226"/>
+      <c r="E43" s="227"/>
+      <c r="F43" s="226"/>
+      <c r="G43" s="226"/>
+      <c r="H43" s="226"/>
+      <c r="I43" s="228"/>
+      <c r="J43" s="229"/>
+      <c r="K43" s="226"/>
     </row>
     <row r="44" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="55"/>
@@ -7164,28 +7042,72 @@
       <c r="K45" s="56"/>
     </row>
     <row r="46" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="256" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="238"/>
-      <c r="C46" s="238"/>
-      <c r="D46" s="238"/>
-      <c r="E46" s="239"/>
-      <c r="F46" s="238"/>
-      <c r="G46" s="238"/>
-      <c r="H46" s="238"/>
-      <c r="I46" s="240"/>
-      <c r="J46" s="241"/>
-      <c r="K46" s="238"/>
+      <c r="A46" s="230" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="231"/>
+      <c r="C46" s="231"/>
+      <c r="D46" s="231"/>
+      <c r="E46" s="227"/>
+      <c r="F46" s="231"/>
+      <c r="G46" s="231"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="228"/>
+      <c r="J46" s="229"/>
+      <c r="K46" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="D1:K2"/>
-    <mergeCell ref="A40:I40"/>
-    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K28:L28"/>
     <mergeCell ref="A41:L41"/>
     <mergeCell ref="A43:K43"/>
     <mergeCell ref="A46:K46"/>
@@ -7194,6 +7116,12 @@
     <mergeCell ref="K38:L38"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="K39:L39"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="D1:K2"/>
+    <mergeCell ref="A40:I40"/>
+    <mergeCell ref="K40:L40"/>
     <mergeCell ref="K33:L33"/>
     <mergeCell ref="A34:I34"/>
     <mergeCell ref="K34:L34"/>
@@ -7204,56 +7132,6 @@
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.39305555555555599" footer="0.51180555555555596"/>
@@ -7284,712 +7162,712 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="294" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="11" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
+      <c r="A2" s="294"/>
+      <c r="B2" s="294"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="294"/>
+      <c r="E2" s="294"/>
+      <c r="F2" s="294"/>
+      <c r="G2" s="294"/>
+      <c r="H2" s="294"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294"/>
+      <c r="K2" s="294"/>
+      <c r="L2" s="294"/>
+      <c r="M2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A3" s="304" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="305"/>
+      <c r="C3" s="279"/>
+      <c r="D3" s="279"/>
+      <c r="E3" s="305" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="306"/>
+      <c r="G3" s="279"/>
+      <c r="H3" s="279"/>
+      <c r="I3" s="305" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="305"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="265"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.95" customHeight="1">
+      <c r="A4" s="307" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="307"/>
+      <c r="C4" s="307"/>
+      <c r="D4" s="307"/>
+      <c r="E4" s="307"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="307"/>
+      <c r="H4" s="307"/>
+      <c r="I4" s="307"/>
+      <c r="J4" s="307"/>
+      <c r="K4" s="307"/>
+      <c r="L4" s="307"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A5" s="301" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="297"/>
+      <c r="C5" s="266"/>
+      <c r="D5" s="266"/>
+      <c r="E5" s="266"/>
+      <c r="F5" s="266"/>
+      <c r="G5" s="266"/>
+      <c r="H5" s="266"/>
+      <c r="I5" s="297" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="297"/>
+      <c r="K5" s="248"/>
+      <c r="L5" s="248"/>
+      <c r="M5" s="270"/>
+    </row>
+    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A6" s="299" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="300"/>
+      <c r="C6" s="272" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="272"/>
+      <c r="H6" s="272"/>
+      <c r="I6" s="272"/>
+      <c r="J6" s="272"/>
+      <c r="K6" s="272"/>
+      <c r="L6" s="272"/>
+      <c r="M6" s="303"/>
+    </row>
+    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A7" s="299" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="300"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="300" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="300"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="220"/>
+      <c r="N7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A8" s="295" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="241"/>
+      <c r="C8" s="258"/>
+      <c r="D8" s="258"/>
+      <c r="E8" s="258"/>
+      <c r="F8" s="258"/>
+      <c r="G8" s="241" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="241"/>
+      <c r="I8" s="258"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="258"/>
+      <c r="M8" s="262"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.95" customHeight="1">
+      <c r="A9" s="296" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="296"/>
+      <c r="C9" s="296"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="296"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
+    </row>
+    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A10" s="301" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="297"/>
+      <c r="C10" s="248"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="297" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="297"/>
+      <c r="I10" s="253" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="253"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="253"/>
+      <c r="M10" s="254"/>
+    </row>
+    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A11" s="299" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="300"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="300" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" s="300"/>
+      <c r="I11" s="300"/>
+      <c r="J11" s="300"/>
+      <c r="K11" s="300"/>
+      <c r="L11" s="300"/>
+      <c r="M11" s="302"/>
+    </row>
+    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A12" s="299" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="300"/>
+      <c r="C12" s="189"/>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="300" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="300"/>
+      <c r="I12" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="284"/>
-      <c r="K1" s="284"/>
-      <c r="L1" s="284"/>
-      <c r="M1" s="11" t="s">
+      <c r="J12" s="244"/>
+      <c r="K12" s="244"/>
+      <c r="L12" s="244"/>
+      <c r="M12" s="247"/>
+    </row>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
+      <c r="A13" s="299" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="300"/>
+      <c r="C13" s="189"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="300" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="300"/>
+      <c r="I13" s="244" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="284"/>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="284"/>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="260" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="261"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="261" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="262"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="261" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="261"/>
-      <c r="K3" s="219"/>
-      <c r="L3" s="219"/>
-      <c r="M3" s="220"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="263" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="263"/>
-      <c r="C4" s="263"/>
-      <c r="D4" s="263"/>
-      <c r="E4" s="263"/>
-      <c r="F4" s="263"/>
-      <c r="G4" s="263"/>
-      <c r="H4" s="263"/>
-      <c r="I4" s="263"/>
-      <c r="J4" s="263"/>
-      <c r="K4" s="263"/>
-      <c r="L4" s="263"/>
-    </row>
-    <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="264" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="265"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="116"/>
-      <c r="G5" s="116"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="265" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="265"/>
-      <c r="K5" s="120"/>
-      <c r="L5" s="120"/>
-      <c r="M5" s="121"/>
-    </row>
-    <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="266" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="144"/>
-      <c r="C6" s="224" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="267"/>
-    </row>
-    <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="266" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="144"/>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="144" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="144"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="128"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="132"/>
-      <c r="N7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="268" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="152"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="152" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="152"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="229"/>
-      <c r="L8" s="229"/>
-      <c r="M8" s="233"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="269" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="269"/>
-      <c r="C9" s="269"/>
-      <c r="D9" s="269"/>
-      <c r="E9" s="269"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="269"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="269"/>
-      <c r="J9" s="269"/>
-      <c r="K9" s="269"/>
-      <c r="L9" s="269"/>
-    </row>
-    <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="264" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="265"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="265" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="265"/>
-      <c r="I10" s="142" t="s">
-        <v>116</v>
-      </c>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-      <c r="M10" s="143"/>
-    </row>
-    <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="266" t="s">
+      <c r="J13" s="244"/>
+      <c r="K13" s="244"/>
+      <c r="L13" s="244"/>
+      <c r="M13" s="247"/>
+    </row>
+    <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A14" s="299" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="144"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="144" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" s="144"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="144"/>
-      <c r="K11" s="144"/>
-      <c r="L11" s="144"/>
-      <c r="M11" s="147"/>
-    </row>
-    <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="266" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="144"/>
-      <c r="C12" s="128"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="144" t="s">
+      <c r="B14" s="300"/>
+      <c r="C14" s="189"/>
+      <c r="D14" s="189"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
+      <c r="G14" s="189"/>
+      <c r="H14" s="189"/>
+      <c r="I14" s="189"/>
+      <c r="J14" s="189"/>
+      <c r="K14" s="189"/>
+      <c r="L14" s="189"/>
+      <c r="M14" s="220"/>
+      <c r="N14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
+      <c r="A15" s="295" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="241"/>
+      <c r="C15" s="258"/>
+      <c r="D15" s="258"/>
+      <c r="E15" s="258"/>
+      <c r="F15" s="258"/>
+      <c r="G15" s="258"/>
+      <c r="H15" s="258"/>
+      <c r="I15" s="258"/>
+      <c r="J15" s="258"/>
+      <c r="K15" s="258"/>
+      <c r="L15" s="258"/>
+      <c r="M15" s="262"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" customHeight="1">
+      <c r="A16" s="296" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="144"/>
-      <c r="I12" s="148" t="s">
-        <v>118</v>
-      </c>
-      <c r="J12" s="148"/>
-      <c r="K12" s="148"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="151"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="266" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="144"/>
-      <c r="C13" s="128"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="144" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="144"/>
-      <c r="I13" s="148" t="s">
-        <v>119</v>
-      </c>
-      <c r="J13" s="148"/>
-      <c r="K13" s="148"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="151"/>
-    </row>
-    <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="266" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="144"/>
-      <c r="C14" s="128"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="128"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="128"/>
-      <c r="I14" s="128"/>
-      <c r="J14" s="128"/>
-      <c r="K14" s="128"/>
-      <c r="L14" s="128"/>
-      <c r="M14" s="132"/>
-      <c r="N14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="268" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="152"/>
-      <c r="C15" s="229"/>
-      <c r="D15" s="229"/>
-      <c r="E15" s="229"/>
-      <c r="F15" s="229"/>
-      <c r="G15" s="229"/>
-      <c r="H15" s="229"/>
-      <c r="I15" s="229"/>
-      <c r="J15" s="229"/>
-      <c r="K15" s="229"/>
-      <c r="L15" s="229"/>
-      <c r="M15" s="233"/>
-    </row>
-    <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="269" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="269"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="269"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="269"/>
+      <c r="B16" s="296"/>
+      <c r="C16" s="296"/>
+      <c r="D16" s="296"/>
+      <c r="E16" s="296"/>
+      <c r="F16" s="296"/>
+      <c r="G16" s="296"/>
+      <c r="H16" s="296"/>
+      <c r="I16" s="296"/>
+      <c r="J16" s="296"/>
+      <c r="K16" s="296"/>
+      <c r="L16" s="296"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="265" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="265"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="297" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="297"/>
       <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="265" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="265"/>
+        <v>30</v>
+      </c>
+      <c r="F17" s="297" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="297"/>
       <c r="H17" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L17" s="265" t="s">
-        <v>120</v>
-      </c>
-      <c r="M17" s="270"/>
+        <v>33</v>
+      </c>
+      <c r="L17" s="297" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="298"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
+      <c r="C18" s="281"/>
+      <c r="D18" s="281"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
+      <c r="F18" s="281"/>
+      <c r="G18" s="281"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="271"/>
-      <c r="M18" s="272"/>
+      <c r="L18" s="281"/>
+      <c r="M18" s="282"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
+      <c r="C19" s="281"/>
+      <c r="D19" s="281"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
+      <c r="F19" s="281"/>
+      <c r="G19" s="281"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="271"/>
-      <c r="M19" s="272"/>
+      <c r="L19" s="281"/>
+      <c r="M19" s="282"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="271"/>
-      <c r="D20" s="271"/>
+      <c r="C20" s="281"/>
+      <c r="D20" s="281"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="271"/>
-      <c r="G20" s="271"/>
+      <c r="F20" s="281"/>
+      <c r="G20" s="281"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="271"/>
-      <c r="M20" s="272"/>
+      <c r="L20" s="281"/>
+      <c r="M20" s="282"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="271"/>
-      <c r="D21" s="271"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="271"/>
-      <c r="G21" s="271"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="271"/>
-      <c r="M21" s="272"/>
+      <c r="L21" s="281"/>
+      <c r="M21" s="282"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="271"/>
-      <c r="D22" s="271"/>
+      <c r="C22" s="281"/>
+      <c r="D22" s="281"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="271"/>
-      <c r="G22" s="271"/>
+      <c r="F22" s="281"/>
+      <c r="G22" s="281"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="271"/>
-      <c r="M22" s="272"/>
+      <c r="L22" s="281"/>
+      <c r="M22" s="282"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="271"/>
-      <c r="D23" s="271"/>
+      <c r="C23" s="281"/>
+      <c r="D23" s="281"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="271"/>
-      <c r="G23" s="271"/>
+      <c r="F23" s="281"/>
+      <c r="G23" s="281"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="271"/>
-      <c r="M23" s="272"/>
+      <c r="L23" s="281"/>
+      <c r="M23" s="282"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="271"/>
-      <c r="D24" s="271"/>
+      <c r="C24" s="281"/>
+      <c r="D24" s="281"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="271"/>
-      <c r="G24" s="271"/>
+      <c r="F24" s="281"/>
+      <c r="G24" s="281"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="271"/>
-      <c r="M24" s="272"/>
+      <c r="L24" s="281"/>
+      <c r="M24" s="282"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="271"/>
-      <c r="D25" s="271"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="271"/>
-      <c r="G25" s="271"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="281"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="271"/>
-      <c r="M25" s="272"/>
+      <c r="L25" s="281"/>
+      <c r="M25" s="282"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>9</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="271"/>
-      <c r="D26" s="271"/>
+      <c r="C26" s="281"/>
+      <c r="D26" s="281"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="271"/>
-      <c r="G26" s="271"/>
+      <c r="F26" s="281"/>
+      <c r="G26" s="281"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="271"/>
-      <c r="M26" s="272"/>
+      <c r="L26" s="281"/>
+      <c r="M26" s="282"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="271"/>
-      <c r="D27" s="271"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="271"/>
-      <c r="G27" s="271"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="281"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="271"/>
-      <c r="M27" s="272"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="282"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>11</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="271"/>
-      <c r="D28" s="271"/>
+      <c r="C28" s="281"/>
+      <c r="D28" s="281"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="271"/>
-      <c r="G28" s="271"/>
+      <c r="F28" s="281"/>
+      <c r="G28" s="281"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="271"/>
-      <c r="M28" s="272"/>
+      <c r="L28" s="281"/>
+      <c r="M28" s="282"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="271"/>
-      <c r="D29" s="271"/>
+      <c r="C29" s="281"/>
+      <c r="D29" s="281"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="271"/>
-      <c r="G29" s="271"/>
+      <c r="F29" s="281"/>
+      <c r="G29" s="281"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="271"/>
-      <c r="M29" s="272"/>
+      <c r="L29" s="281"/>
+      <c r="M29" s="282"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="271"/>
-      <c r="D30" s="271"/>
+      <c r="C30" s="281"/>
+      <c r="D30" s="281"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="271"/>
-      <c r="G30" s="271"/>
+      <c r="F30" s="281"/>
+      <c r="G30" s="281"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="271"/>
-      <c r="M30" s="272"/>
+      <c r="L30" s="281"/>
+      <c r="M30" s="282"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
+      <c r="C31" s="281"/>
+      <c r="D31" s="281"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
+      <c r="F31" s="281"/>
+      <c r="G31" s="281"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="271"/>
-      <c r="M31" s="272"/>
+      <c r="L31" s="281"/>
+      <c r="M31" s="282"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>15</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
+      <c r="C32" s="281"/>
+      <c r="D32" s="281"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
+      <c r="F32" s="281"/>
+      <c r="G32" s="281"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="271"/>
-      <c r="M32" s="272"/>
+      <c r="L32" s="281"/>
+      <c r="M32" s="282"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
+      <c r="C33" s="281"/>
+      <c r="D33" s="281"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
+      <c r="F33" s="281"/>
+      <c r="G33" s="281"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="271"/>
-      <c r="M33" s="272"/>
+      <c r="L33" s="281"/>
+      <c r="M33" s="282"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
+      <c r="C34" s="281"/>
+      <c r="D34" s="281"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
+      <c r="F34" s="281"/>
+      <c r="G34" s="281"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="271"/>
-      <c r="M34" s="272"/>
+      <c r="L34" s="281"/>
+      <c r="M34" s="282"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>18</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
+      <c r="C35" s="281"/>
+      <c r="D35" s="281"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="271"/>
+      <c r="F35" s="281"/>
+      <c r="G35" s="281"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="271"/>
-      <c r="M35" s="272"/>
+      <c r="L35" s="281"/>
+      <c r="M35" s="282"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>19</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="271"/>
+      <c r="C36" s="281"/>
+      <c r="D36" s="281"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="271"/>
-      <c r="G36" s="271"/>
+      <c r="F36" s="281"/>
+      <c r="G36" s="281"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="271"/>
-      <c r="M36" s="272"/>
+      <c r="L36" s="281"/>
+      <c r="M36" s="282"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>20</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="271"/>
-      <c r="D37" s="271"/>
+      <c r="C37" s="281"/>
+      <c r="D37" s="281"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="271"/>
-      <c r="G37" s="271"/>
+      <c r="F37" s="281"/>
+      <c r="G37" s="281"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="271"/>
-      <c r="M37" s="272"/>
+      <c r="L37" s="281"/>
+      <c r="M37" s="282"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="273" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="274"/>
-      <c r="C38" s="274"/>
-      <c r="D38" s="275"/>
-      <c r="E38" s="276"/>
-      <c r="F38" s="162"/>
-      <c r="G38" s="162"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="162"/>
-      <c r="J38" s="162"/>
-      <c r="K38" s="162"/>
-      <c r="L38" s="162"/>
-      <c r="M38" s="163"/>
+      <c r="A38" s="283" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="284"/>
+      <c r="C38" s="284"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="286"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="M38" s="173"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="277" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="278"/>
-      <c r="C39" s="278"/>
-      <c r="D39" s="278"/>
-      <c r="E39" s="278"/>
-      <c r="F39" s="278"/>
-      <c r="G39" s="278"/>
-      <c r="H39" s="278"/>
-      <c r="I39" s="278"/>
-      <c r="J39" s="278"/>
-      <c r="K39" s="278"/>
-      <c r="L39" s="278"/>
-      <c r="M39" s="279"/>
+      <c r="A39" s="287" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="288"/>
+      <c r="C39" s="288"/>
+      <c r="D39" s="288"/>
+      <c r="E39" s="288"/>
+      <c r="F39" s="288"/>
+      <c r="G39" s="288"/>
+      <c r="H39" s="288"/>
+      <c r="I39" s="288"/>
+      <c r="J39" s="288"/>
+      <c r="K39" s="288"/>
+      <c r="L39" s="288"/>
+      <c r="M39" s="289"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -8022,20 +7900,20 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="280" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="281"/>
-      <c r="C42" s="281"/>
-      <c r="D42" s="281"/>
-      <c r="E42" s="281"/>
-      <c r="F42" s="281"/>
-      <c r="G42" s="281"/>
-      <c r="H42" s="281"/>
-      <c r="I42" s="281"/>
-      <c r="J42" s="281"/>
-      <c r="K42" s="281"/>
-      <c r="L42" s="281"/>
+      <c r="A42" s="290" t="s">
+        <v>114</v>
+      </c>
+      <c r="B42" s="291"/>
+      <c r="C42" s="291"/>
+      <c r="D42" s="291"/>
+      <c r="E42" s="291"/>
+      <c r="F42" s="291"/>
+      <c r="G42" s="291"/>
+      <c r="H42" s="291"/>
+      <c r="I42" s="291"/>
+      <c r="J42" s="291"/>
+      <c r="K42" s="291"/>
+      <c r="L42" s="291"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="9"/>
@@ -8066,23 +7944,111 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="282" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="283"/>
-      <c r="C45" s="283"/>
-      <c r="D45" s="283"/>
-      <c r="E45" s="283"/>
-      <c r="F45" s="283"/>
-      <c r="G45" s="283"/>
-      <c r="H45" s="283"/>
-      <c r="I45" s="283"/>
-      <c r="J45" s="283"/>
-      <c r="K45" s="283"/>
-      <c r="L45" s="283"/>
+      <c r="A45" s="292" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="293"/>
+      <c r="C45" s="293"/>
+      <c r="D45" s="293"/>
+      <c r="E45" s="293"/>
+      <c r="F45" s="293"/>
+      <c r="G45" s="293"/>
+      <c r="H45" s="293"/>
+      <c r="I45" s="293"/>
+      <c r="J45" s="293"/>
+      <c r="K45" s="293"/>
+      <c r="L45" s="293"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -8107,94 +8073,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/templates/配件确认单.xlsx
+++ b/public/templates/配件确认单.xlsx
@@ -2031,7 +2031,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2359,6 +2359,279 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2374,18 +2647,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2398,12 +2659,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2419,265 +2674,184 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2692,188 +2866,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2917,50 +2950,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3017,7 +3011,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3084,7 +3078,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3249,7 +3243,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3414,7 +3408,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3846,7 +3840,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4011,7 +4005,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4343,7 +4337,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4742,7 +4736,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4811,7 +4805,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -5324,8 +5318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:L17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25:L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5345,112 +5339,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="202"/>
-      <c r="B1" s="203"/>
-      <c r="C1" s="203"/>
-      <c r="D1" s="204" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="200"/>
-      <c r="K1" s="201"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="122"/>
       <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="206"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="212" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="213"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="213"/>
-      <c r="I2" s="212" t="s">
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="213"/>
-      <c r="K2" s="215"/>
-      <c r="L2" s="114"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="209" t="s">
+      <c r="A3" s="130" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="110"/>
-      <c r="F3" s="110"/>
-      <c r="G3" s="110"/>
-      <c r="H3" s="110"/>
-      <c r="I3" s="111" t="s">
+      <c r="C3" s="200"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="114"/>
+      <c r="J3" s="203"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="137"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="210"/>
+      <c r="A4" s="131"/>
       <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="193"/>
-      <c r="D4" s="194"/>
-      <c r="E4" s="195"/>
-      <c r="F4" s="194"/>
-      <c r="G4" s="194"/>
-      <c r="H4" s="194"/>
-      <c r="I4" s="196"/>
-      <c r="J4" s="197"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="199"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="210"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="115"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="117"/>
-      <c r="G5" s="125" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="139"/>
+      <c r="E5" s="139"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="210" t="s">
         <v>119</v>
       </c>
-      <c r="H5" s="126"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
+      <c r="H5" s="211"/>
+      <c r="I5" s="208"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
     </row>
     <row r="6" spans="1:12" s="76" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="211"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="118"/>
-      <c r="D6" s="119"/>
-      <c r="E6" s="119"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="127" t="s">
+      <c r="C6" s="205"/>
+      <c r="D6" s="206"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="207"/>
+      <c r="G6" s="212" t="s">
         <v>120</v>
       </c>
-      <c r="H6" s="128"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="124"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="208"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="209"/>
     </row>
     <row r="7" spans="1:12" s="76" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
@@ -5467,197 +5461,197 @@
       <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="167" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="182" t="s">
+      <c r="C8" s="172"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="173"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="H8" s="183"/>
-      <c r="I8" s="184"/>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
-      <c r="L8" s="186"/>
+      <c r="H8" s="142"/>
+      <c r="I8" s="175"/>
+      <c r="J8" s="176"/>
+      <c r="K8" s="176"/>
+      <c r="L8" s="177"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="175"/>
+      <c r="A9" s="168"/>
       <c r="B9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="115"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="116"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="187" t="s">
+      <c r="C9" s="138"/>
+      <c r="D9" s="139"/>
+      <c r="E9" s="139"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="117"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="175"/>
+      <c r="A10" s="168"/>
       <c r="B10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="115"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="187" t="s">
+      <c r="C10" s="138"/>
+      <c r="D10" s="139"/>
+      <c r="E10" s="139"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="109" t="s">
         <v>123</v>
       </c>
-      <c r="H10" s="117"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="175"/>
+      <c r="A11" s="168"/>
       <c r="B11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="182" t="s">
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="143" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="183"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="191"/>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
+      <c r="H11" s="142"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="145"/>
+      <c r="K11" s="145"/>
+      <c r="L11" s="145"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="175"/>
+      <c r="A12" s="168"/>
       <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="308"/>
-      <c r="D12" s="308"/>
-      <c r="E12" s="308"/>
-      <c r="F12" s="308"/>
-      <c r="G12" s="308"/>
-      <c r="H12" s="308"/>
-      <c r="I12" s="161"/>
-      <c r="J12" s="308"/>
-      <c r="K12" s="308"/>
-      <c r="L12" s="309"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="152"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="152"/>
+      <c r="H12" s="152"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="152"/>
+      <c r="K12" s="152"/>
+      <c r="L12" s="154"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="176"/>
+      <c r="A13" s="169"/>
       <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="163"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="155"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="155"/>
+      <c r="K13" s="155"/>
+      <c r="L13" s="156"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="170" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="177"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
+      <c r="A15" s="170"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
+      <c r="A16" s="170"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="163"/>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="177"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
+      <c r="A17" s="170"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="163"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="178"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="173"/>
+      <c r="A18" s="171"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="146" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="155"/>
-      <c r="I19" s="157"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="155"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="146"/>
+      <c r="G19" s="146"/>
+      <c r="H19" s="146"/>
+      <c r="I19" s="148"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="146"/>
     </row>
     <row r="20" spans="1:12" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -5688,10 +5682,10 @@
       <c r="J20" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="159" t="s">
+      <c r="K20" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="160"/>
+      <c r="L20" s="151"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6">
@@ -5706,8 +5700,8 @@
       <c r="H21" s="98"/>
       <c r="I21" s="98"/>
       <c r="J21" s="99"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="130"/>
+      <c r="K21" s="306"/>
+      <c r="L21" s="307"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6">
@@ -5722,8 +5716,8 @@
       <c r="H22" s="99"/>
       <c r="I22" s="99"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="130"/>
+      <c r="K22" s="306"/>
+      <c r="L22" s="307"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6">
@@ -5738,8 +5732,8 @@
       <c r="H23" s="99"/>
       <c r="I23" s="99"/>
       <c r="J23" s="99"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="130"/>
+      <c r="K23" s="306"/>
+      <c r="L23" s="307"/>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6">
@@ -5754,8 +5748,8 @@
       <c r="H24" s="99"/>
       <c r="I24" s="99"/>
       <c r="J24" s="106"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="130"/>
+      <c r="K24" s="306"/>
+      <c r="L24" s="307"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6">
@@ -5770,8 +5764,8 @@
       <c r="H25" s="99"/>
       <c r="I25" s="99"/>
       <c r="J25" s="99"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="130"/>
+      <c r="K25" s="306"/>
+      <c r="L25" s="307"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
@@ -5786,8 +5780,8 @@
       <c r="H26" s="99"/>
       <c r="I26" s="99"/>
       <c r="J26" s="106"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="130"/>
+      <c r="K26" s="306"/>
+      <c r="L26" s="307"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
@@ -5802,8 +5796,8 @@
       <c r="H27" s="99"/>
       <c r="I27" s="99"/>
       <c r="J27" s="99"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="130"/>
+      <c r="K27" s="306"/>
+      <c r="L27" s="307"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
@@ -5818,8 +5812,8 @@
       <c r="H28" s="99"/>
       <c r="I28" s="99"/>
       <c r="J28" s="106"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="130"/>
+      <c r="K28" s="306"/>
+      <c r="L28" s="307"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
@@ -5834,8 +5828,8 @@
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="99"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="130"/>
+      <c r="K29" s="306"/>
+      <c r="L29" s="307"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
@@ -5850,142 +5844,148 @@
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="106"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="130"/>
-    </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="134" t="s">
+      <c r="K30" s="306"/>
+      <c r="L30" s="307"/>
+    </row>
+    <row r="31" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A31" s="181" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="135"/>
-      <c r="D31" s="135"/>
-      <c r="E31" s="135"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="135"/>
-      <c r="H31" s="135"/>
-      <c r="I31" s="136"/>
+      <c r="B31" s="182"/>
+      <c r="C31" s="182"/>
+      <c r="D31" s="182"/>
+      <c r="E31" s="182"/>
+      <c r="F31" s="182"/>
+      <c r="G31" s="182"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="183"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="137"/>
-      <c r="L31" s="138"/>
-    </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="145" t="s">
+      <c r="K31" s="306"/>
+      <c r="L31" s="307"/>
+    </row>
+    <row r="32" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A32" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="147"/>
+      <c r="B32" s="191"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="192"/>
       <c r="J32" s="95"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="147"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="192"/>
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="145" t="s">
+      <c r="A33" s="190" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="146"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="146"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="146"/>
-      <c r="I33" s="147"/>
+      <c r="B33" s="191"/>
+      <c r="C33" s="191"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="191"/>
+      <c r="F33" s="191"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="192"/>
       <c r="J33" s="95"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="147"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="192"/>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="148" t="s">
+      <c r="A34" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="149"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="150"/>
-      <c r="F34" s="149"/>
-      <c r="G34" s="149"/>
-      <c r="H34" s="149"/>
-      <c r="I34" s="151"/>
-      <c r="J34" s="152"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="154"/>
+      <c r="B34" s="194"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="194"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="194"/>
+      <c r="G34" s="194"/>
+      <c r="H34" s="194"/>
+      <c r="I34" s="196"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="198"/>
+      <c r="L34" s="199"/>
     </row>
     <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A35" s="139" t="s">
+      <c r="A35" s="184" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="140"/>
-      <c r="F35" s="140"/>
-      <c r="G35" s="140"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="140"/>
-      <c r="J35" s="140"/>
-      <c r="K35" s="140"/>
-      <c r="L35" s="141"/>
+      <c r="B35" s="185"/>
+      <c r="C35" s="185"/>
+      <c r="D35" s="185"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="185"/>
+      <c r="I35" s="185"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="186"/>
     </row>
     <row r="36" spans="1:12" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A36" s="142" t="s">
+      <c r="A36" s="187" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="143"/>
-      <c r="C36" s="143"/>
-      <c r="D36" s="143"/>
-      <c r="E36" s="143"/>
-      <c r="F36" s="143"/>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="143"/>
-      <c r="J36" s="143"/>
-      <c r="K36" s="143"/>
-      <c r="L36" s="144"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
+      <c r="H36" s="188"/>
+      <c r="I36" s="188"/>
+      <c r="J36" s="188"/>
+      <c r="K36" s="188"/>
+      <c r="L36" s="189"/>
     </row>
     <row r="37" spans="1:12" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A37" s="131" t="s">
+      <c r="A37" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="132"/>
-      <c r="C37" s="132"/>
-      <c r="D37" s="132"/>
-      <c r="E37" s="132"/>
-      <c r="F37" s="132"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="132"/>
-      <c r="I37" s="132"/>
-      <c r="J37" s="132"/>
-      <c r="K37" s="132"/>
-      <c r="L37" s="133"/>
+      <c r="B37" s="179"/>
+      <c r="C37" s="179"/>
+      <c r="D37" s="179"/>
+      <c r="E37" s="179"/>
+      <c r="F37" s="179"/>
+      <c r="G37" s="179"/>
+      <c r="H37" s="179"/>
+      <c r="I37" s="179"/>
+      <c r="J37" s="179"/>
+      <c r="K37" s="179"/>
+      <c r="L37" s="180"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A34:L34"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
@@ -6002,34 +6002,28 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6068,358 +6062,358 @@
         <v>0</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="D1" s="218" t="s">
+      <c r="D1" s="276" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="218"/>
-      <c r="F1" s="218"/>
-      <c r="G1" s="218"/>
-      <c r="H1" s="218"/>
-      <c r="I1" s="218"/>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="276"/>
+      <c r="K1" s="276"/>
       <c r="L1" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="276" t="s">
+      <c r="A2" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="276"/>
-      <c r="C2" s="276"/>
-      <c r="D2" s="219"/>
-      <c r="E2" s="219"/>
-      <c r="F2" s="219"/>
-      <c r="G2" s="219"/>
-      <c r="H2" s="219"/>
-      <c r="I2" s="219"/>
-      <c r="J2" s="219"/>
-      <c r="K2" s="219"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
       <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="277" t="s">
+      <c r="A3" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="278"/>
-      <c r="C3" s="279" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="217"/>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="279" t="s">
+      <c r="F3" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="279"/>
-      <c r="H3" s="278" t="s">
+      <c r="G3" s="217"/>
+      <c r="H3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="280"/>
-      <c r="J3" s="263" t="s">
+      <c r="I3" s="218"/>
+      <c r="J3" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="264"/>
-      <c r="L3" s="265"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="221"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="209" t="s">
+      <c r="A4" s="130" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="266" t="s">
+      <c r="C4" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="267" t="s">
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="223" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="268"/>
-      <c r="J4" s="269" t="s">
+      <c r="I4" s="224"/>
+      <c r="J4" s="225" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="248"/>
-      <c r="L4" s="270"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="227"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="210"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="271" t="s">
+      <c r="C5" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="271"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="271"/>
-      <c r="G5" s="271"/>
-      <c r="H5" s="271"/>
-      <c r="I5" s="273"/>
-      <c r="J5" s="274"/>
-      <c r="K5" s="271"/>
-      <c r="L5" s="275"/>
+      <c r="D5" s="228"/>
+      <c r="E5" s="229"/>
+      <c r="F5" s="228"/>
+      <c r="G5" s="228"/>
+      <c r="H5" s="228"/>
+      <c r="I5" s="230"/>
+      <c r="J5" s="231"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="232"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="210"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="189"/>
-      <c r="E6" s="189"/>
-      <c r="F6" s="243" t="s">
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="233" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="243"/>
-      <c r="H6" s="189" t="s">
+      <c r="G6" s="233"/>
+      <c r="H6" s="141" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="239"/>
-      <c r="J6" s="240"/>
-      <c r="K6" s="189"/>
-      <c r="L6" s="220"/>
+      <c r="I6" s="234"/>
+      <c r="J6" s="235"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="236"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="211"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="237" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="258"/>
-      <c r="E7" s="258"/>
-      <c r="F7" s="259" t="s">
+      <c r="D7" s="237"/>
+      <c r="E7" s="237"/>
+      <c r="F7" s="238" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="259"/>
-      <c r="H7" s="258" t="s">
+      <c r="G7" s="238"/>
+      <c r="H7" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="260"/>
-      <c r="J7" s="261"/>
-      <c r="K7" s="258"/>
-      <c r="L7" s="262"/>
+      <c r="I7" s="239"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="237"/>
+      <c r="L7" s="241"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="167" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="248" t="s">
+      <c r="C8" s="226" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="248"/>
-      <c r="E8" s="248"/>
-      <c r="F8" s="249" t="s">
+      <c r="D8" s="226"/>
+      <c r="E8" s="226"/>
+      <c r="F8" s="242" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="249"/>
-      <c r="H8" s="250" t="s">
+      <c r="G8" s="242"/>
+      <c r="H8" s="243" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="251"/>
-      <c r="J8" s="252"/>
-      <c r="K8" s="253"/>
-      <c r="L8" s="254"/>
+      <c r="I8" s="244"/>
+      <c r="J8" s="245"/>
+      <c r="K8" s="246"/>
+      <c r="L8" s="247"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="175"/>
+      <c r="A9" s="168"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="189" t="s">
+      <c r="C9" s="141" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="189"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="243" t="s">
+      <c r="D9" s="141"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="243"/>
-      <c r="H9" s="255" t="s">
+      <c r="G9" s="233"/>
+      <c r="H9" s="248" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="239"/>
-      <c r="J9" s="256"/>
-      <c r="K9" s="255"/>
-      <c r="L9" s="257"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="249"/>
+      <c r="K9" s="248"/>
+      <c r="L9" s="250"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="175"/>
+      <c r="A10" s="168"/>
       <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="189" t="s">
+      <c r="C10" s="141" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="189"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="243" t="s">
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="233" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="243"/>
-      <c r="H10" s="244" t="s">
+      <c r="G10" s="233"/>
+      <c r="H10" s="251" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="245"/>
-      <c r="J10" s="246"/>
-      <c r="K10" s="244"/>
-      <c r="L10" s="247"/>
+      <c r="I10" s="252"/>
+      <c r="J10" s="253"/>
+      <c r="K10" s="251"/>
+      <c r="L10" s="254"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="216"/>
+      <c r="A11" s="274"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="189">
+      <c r="C11" s="141">
         <v>33333333</v>
       </c>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="243" t="s">
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="233" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="243"/>
-      <c r="H11" s="244" t="s">
+      <c r="G11" s="233"/>
+      <c r="H11" s="251" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="245"/>
-      <c r="J11" s="246"/>
-      <c r="K11" s="244"/>
-      <c r="L11" s="247"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="253"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="254"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="216"/>
+      <c r="A12" s="274"/>
       <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="189" t="s">
+      <c r="C12" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="189"/>
-      <c r="H12" s="189"/>
-      <c r="I12" s="239"/>
-      <c r="J12" s="240"/>
-      <c r="K12" s="189"/>
-      <c r="L12" s="220"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="234"/>
+      <c r="J12" s="235"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="236"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="217"/>
+      <c r="A13" s="275"/>
       <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="241"/>
-      <c r="D13" s="241"/>
-      <c r="E13" s="241"/>
-      <c r="F13" s="241"/>
-      <c r="G13" s="241"/>
-      <c r="H13" s="241"/>
-      <c r="I13" s="241"/>
-      <c r="J13" s="241"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="242"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="255"/>
+      <c r="F13" s="255"/>
+      <c r="G13" s="255"/>
+      <c r="H13" s="255"/>
+      <c r="I13" s="255"/>
+      <c r="J13" s="255"/>
+      <c r="K13" s="255"/>
+      <c r="L13" s="256"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="210" t="s">
+      <c r="A14" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="159"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="159"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="159"/>
+      <c r="L14" s="160"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="210"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="161"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="162"/>
+      <c r="E15" s="162"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="162"/>
+      <c r="K15" s="162"/>
+      <c r="L15" s="163"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="210"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="161"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="162"/>
+      <c r="I16" s="162"/>
+      <c r="J16" s="162"/>
+      <c r="K16" s="162"/>
+      <c r="L16" s="163"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="210"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="161"/>
+      <c r="C17" s="162"/>
+      <c r="D17" s="162"/>
+      <c r="E17" s="162"/>
+      <c r="F17" s="162"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="162"/>
+      <c r="I17" s="162"/>
+      <c r="J17" s="162"/>
+      <c r="K17" s="162"/>
+      <c r="L17" s="163"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="211"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="173"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
+      <c r="L18" s="166"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="231" t="s">
+      <c r="A19" s="257" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="231"/>
-      <c r="C19" s="231"/>
-      <c r="D19" s="231"/>
-      <c r="E19" s="227"/>
-      <c r="F19" s="231"/>
-      <c r="G19" s="231"/>
-      <c r="H19" s="231"/>
-      <c r="I19" s="228"/>
-      <c r="J19" s="229"/>
-      <c r="K19" s="231"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="257"/>
+      <c r="D19" s="257"/>
+      <c r="E19" s="258"/>
+      <c r="F19" s="257"/>
+      <c r="G19" s="257"/>
+      <c r="H19" s="257"/>
+      <c r="I19" s="259"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="257"/>
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -6450,10 +6444,10 @@
       <c r="J20" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="237" t="s">
+      <c r="K20" s="261" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="238"/>
+      <c r="L20" s="262"/>
     </row>
     <row r="21" spans="1:14" ht="27.95" customHeight="1">
       <c r="A21" s="6">
@@ -6486,26 +6480,26 @@
       <c r="J21" s="59">
         <v>1200</v>
       </c>
-      <c r="K21" s="189"/>
-      <c r="L21" s="220"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="236"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="221" t="s">
+      <c r="A22" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="222"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="222"/>
-      <c r="F22" s="222"/>
-      <c r="G22" s="222"/>
-      <c r="H22" s="222"/>
-      <c r="I22" s="223"/>
+      <c r="B22" s="264"/>
+      <c r="C22" s="264"/>
+      <c r="D22" s="264"/>
+      <c r="E22" s="264"/>
+      <c r="F22" s="264"/>
+      <c r="G22" s="264"/>
+      <c r="H22" s="264"/>
+      <c r="I22" s="265"/>
       <c r="J22" s="66">
         <v>1200</v>
       </c>
-      <c r="K22" s="189"/>
-      <c r="L22" s="220"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="236"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1">
       <c r="A23" s="6">
@@ -6538,29 +6532,29 @@
       <c r="J23" s="59">
         <v>2950</v>
       </c>
-      <c r="K23" s="189"/>
-      <c r="L23" s="220"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="236"/>
       <c r="N23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="221" t="s">
+      <c r="A24" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="222"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="222"/>
-      <c r="E24" s="222"/>
-      <c r="F24" s="222"/>
-      <c r="G24" s="222"/>
-      <c r="H24" s="222"/>
-      <c r="I24" s="223"/>
+      <c r="B24" s="264"/>
+      <c r="C24" s="264"/>
+      <c r="D24" s="264"/>
+      <c r="E24" s="264"/>
+      <c r="F24" s="264"/>
+      <c r="G24" s="264"/>
+      <c r="H24" s="264"/>
+      <c r="I24" s="265"/>
       <c r="J24" s="66">
         <v>2950</v>
       </c>
-      <c r="K24" s="189"/>
-      <c r="L24" s="220"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="236"/>
     </row>
     <row r="25" spans="1:14" ht="27" customHeight="1">
       <c r="A25" s="6">
@@ -6593,26 +6587,26 @@
       <c r="J25" s="59">
         <v>1375</v>
       </c>
-      <c r="K25" s="189"/>
-      <c r="L25" s="220"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="236"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="221" t="s">
+      <c r="A26" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="222"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="222"/>
-      <c r="E26" s="222"/>
-      <c r="F26" s="222"/>
-      <c r="G26" s="222"/>
-      <c r="H26" s="222"/>
-      <c r="I26" s="223"/>
+      <c r="B26" s="264"/>
+      <c r="C26" s="264"/>
+      <c r="D26" s="264"/>
+      <c r="E26" s="264"/>
+      <c r="F26" s="264"/>
+      <c r="G26" s="264"/>
+      <c r="H26" s="264"/>
+      <c r="I26" s="265"/>
       <c r="J26" s="66">
         <v>1375</v>
       </c>
-      <c r="K26" s="189"/>
-      <c r="L26" s="220"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="236"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="42">
@@ -6643,26 +6637,26 @@
       <c r="J27" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K27" s="189"/>
-      <c r="L27" s="220"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="236"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="221" t="s">
+      <c r="A28" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="222"/>
-      <c r="C28" s="222"/>
-      <c r="D28" s="222"/>
-      <c r="E28" s="222"/>
-      <c r="F28" s="222"/>
-      <c r="G28" s="222"/>
-      <c r="H28" s="222"/>
-      <c r="I28" s="223"/>
+      <c r="B28" s="264"/>
+      <c r="C28" s="264"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="264"/>
+      <c r="F28" s="264"/>
+      <c r="G28" s="264"/>
+      <c r="H28" s="264"/>
+      <c r="I28" s="265"/>
       <c r="J28" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K28" s="189"/>
-      <c r="L28" s="220"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="236"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="42">
@@ -6695,26 +6689,26 @@
       <c r="J29" s="70">
         <v>2900</v>
       </c>
-      <c r="K29" s="189"/>
-      <c r="L29" s="220"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="236"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="221" t="s">
+      <c r="A30" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="222"/>
-      <c r="C30" s="222"/>
-      <c r="D30" s="222"/>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222"/>
-      <c r="G30" s="222"/>
-      <c r="H30" s="222"/>
-      <c r="I30" s="223"/>
+      <c r="B30" s="264"/>
+      <c r="C30" s="264"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="264"/>
+      <c r="F30" s="264"/>
+      <c r="G30" s="264"/>
+      <c r="H30" s="264"/>
+      <c r="I30" s="265"/>
       <c r="J30" s="70">
         <v>2900</v>
       </c>
-      <c r="K30" s="115"/>
-      <c r="L30" s="224"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="278"/>
     </row>
     <row r="31" spans="1:14" ht="24">
       <c r="A31" s="6">
@@ -6745,8 +6739,8 @@
       <c r="J31" s="59">
         <v>7087.5</v>
       </c>
-      <c r="K31" s="189"/>
-      <c r="L31" s="220"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="236"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
@@ -6777,8 +6771,8 @@
       <c r="J32" s="59">
         <v>2900</v>
       </c>
-      <c r="K32" s="189"/>
-      <c r="L32" s="220"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="236"/>
     </row>
     <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
@@ -6811,27 +6805,27 @@
       <c r="J33" s="59">
         <v>3510</v>
       </c>
-      <c r="K33" s="189"/>
-      <c r="L33" s="220"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="236"/>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="221" t="s">
+      <c r="A34" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="222"/>
-      <c r="C34" s="222"/>
-      <c r="D34" s="222"/>
-      <c r="E34" s="222"/>
-      <c r="F34" s="222"/>
-      <c r="G34" s="222"/>
-      <c r="H34" s="222"/>
-      <c r="I34" s="223"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="264"/>
+      <c r="I34" s="265"/>
       <c r="J34" s="66">
         <f>J31+J32+J33</f>
         <v>13497.5</v>
       </c>
-      <c r="K34" s="189"/>
-      <c r="L34" s="220"/>
+      <c r="K34" s="141"/>
+      <c r="L34" s="236"/>
     </row>
     <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
@@ -6862,26 +6856,26 @@
       <c r="J35" s="59">
         <v>96182</v>
       </c>
-      <c r="K35" s="189"/>
-      <c r="L35" s="220"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="236"/>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="221" t="s">
+      <c r="A36" s="263" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="222"/>
-      <c r="C36" s="222"/>
-      <c r="D36" s="222"/>
-      <c r="E36" s="222"/>
-      <c r="F36" s="222"/>
-      <c r="G36" s="222"/>
-      <c r="H36" s="222"/>
-      <c r="I36" s="223"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="264"/>
+      <c r="I36" s="265"/>
       <c r="J36" s="66">
         <v>96182</v>
       </c>
-      <c r="K36" s="189"/>
-      <c r="L36" s="220"/>
+      <c r="K36" s="141"/>
+      <c r="L36" s="236"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="6">
@@ -6912,79 +6906,79 @@
       <c r="J37" s="59">
         <v>32727</v>
       </c>
-      <c r="K37" s="189"/>
-      <c r="L37" s="220"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="236"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="232" t="s">
+      <c r="A38" s="269" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="233"/>
-      <c r="C38" s="233"/>
-      <c r="D38" s="233"/>
-      <c r="E38" s="233"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="233"/>
-      <c r="H38" s="233"/>
-      <c r="I38" s="234"/>
+      <c r="B38" s="270"/>
+      <c r="C38" s="270"/>
+      <c r="D38" s="270"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="270"/>
+      <c r="G38" s="270"/>
+      <c r="H38" s="270"/>
+      <c r="I38" s="271"/>
       <c r="J38" s="72">
         <v>32727</v>
       </c>
-      <c r="K38" s="235"/>
-      <c r="L38" s="236"/>
+      <c r="K38" s="272"/>
+      <c r="L38" s="273"/>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="145" t="s">
+      <c r="A39" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="146"/>
-      <c r="C39" s="146"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="146"/>
-      <c r="F39" s="146"/>
-      <c r="G39" s="146"/>
-      <c r="H39" s="146"/>
-      <c r="I39" s="147"/>
+      <c r="B39" s="191"/>
+      <c r="C39" s="191"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
+      <c r="G39" s="191"/>
+      <c r="H39" s="191"/>
+      <c r="I39" s="192"/>
       <c r="J39" s="73">
         <f>J21+J23+J25+J31+J32+J33+J35+J37</f>
         <v>147931.5</v>
       </c>
-      <c r="K39" s="146"/>
-      <c r="L39" s="147"/>
+      <c r="K39" s="191"/>
+      <c r="L39" s="192"/>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="145" t="s">
+      <c r="A40" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="146"/>
-      <c r="F40" s="146"/>
-      <c r="G40" s="146"/>
-      <c r="H40" s="146"/>
-      <c r="I40" s="147"/>
+      <c r="B40" s="191"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="192"/>
       <c r="J40" s="73">
         <v>162724.65</v>
       </c>
-      <c r="K40" s="146"/>
-      <c r="L40" s="147"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="192"/>
     </row>
     <row r="41" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="148" t="s">
+      <c r="A41" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="149"/>
-      <c r="C41" s="149"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="150"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="154"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="196"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="198"/>
+      <c r="L41" s="199"/>
     </row>
     <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="8"/>
@@ -7001,19 +6995,19 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="225" t="s">
+      <c r="A43" s="266" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="226"/>
-      <c r="C43" s="226"/>
-      <c r="D43" s="226"/>
-      <c r="E43" s="227"/>
-      <c r="F43" s="226"/>
-      <c r="G43" s="226"/>
-      <c r="H43" s="226"/>
-      <c r="I43" s="228"/>
-      <c r="J43" s="229"/>
-      <c r="K43" s="226"/>
+      <c r="B43" s="267"/>
+      <c r="C43" s="267"/>
+      <c r="D43" s="267"/>
+      <c r="E43" s="258"/>
+      <c r="F43" s="267"/>
+      <c r="G43" s="267"/>
+      <c r="H43" s="267"/>
+      <c r="I43" s="259"/>
+      <c r="J43" s="260"/>
+      <c r="K43" s="267"/>
     </row>
     <row r="44" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="55"/>
@@ -7042,80 +7036,22 @@
       <c r="K45" s="56"/>
     </row>
     <row r="46" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="230" t="s">
+      <c r="A46" s="268" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="231"/>
-      <c r="C46" s="231"/>
-      <c r="D46" s="231"/>
-      <c r="E46" s="227"/>
-      <c r="F46" s="231"/>
-      <c r="G46" s="231"/>
-      <c r="H46" s="231"/>
-      <c r="I46" s="228"/>
-      <c r="J46" s="229"/>
-      <c r="K46" s="231"/>
+      <c r="B46" s="257"/>
+      <c r="C46" s="257"/>
+      <c r="D46" s="257"/>
+      <c r="E46" s="258"/>
+      <c r="F46" s="257"/>
+      <c r="G46" s="257"/>
+      <c r="H46" s="257"/>
+      <c r="I46" s="259"/>
+      <c r="J46" s="260"/>
+      <c r="K46" s="257"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="K39:L39"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A18"/>
@@ -7132,6 +7068,64 @@
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.39305555555555599" footer="0.51180555555555596"/>
@@ -7162,305 +7156,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="305" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
       <c r="M1" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="294"/>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="294"/>
-      <c r="H2" s="294"/>
-      <c r="I2" s="294"/>
-      <c r="J2" s="294"/>
-      <c r="K2" s="294"/>
-      <c r="L2" s="294"/>
+      <c r="A2" s="305"/>
+      <c r="B2" s="305"/>
+      <c r="C2" s="305"/>
+      <c r="D2" s="305"/>
+      <c r="E2" s="305"/>
+      <c r="F2" s="305"/>
+      <c r="G2" s="305"/>
+      <c r="H2" s="305"/>
+      <c r="I2" s="305"/>
+      <c r="J2" s="305"/>
+      <c r="K2" s="305"/>
+      <c r="L2" s="305"/>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="304" t="s">
+      <c r="A3" s="279" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="305"/>
-      <c r="C3" s="279"/>
-      <c r="D3" s="279"/>
-      <c r="E3" s="305" t="s">
+      <c r="B3" s="280"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="217"/>
+      <c r="E3" s="280" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="306"/>
-      <c r="G3" s="279"/>
-      <c r="H3" s="279"/>
-      <c r="I3" s="305" t="s">
+      <c r="F3" s="281"/>
+      <c r="G3" s="217"/>
+      <c r="H3" s="217"/>
+      <c r="I3" s="280" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="305"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="265"/>
+      <c r="J3" s="280"/>
+      <c r="K3" s="220"/>
+      <c r="L3" s="220"/>
+      <c r="M3" s="221"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="307" t="s">
+      <c r="A4" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="307"/>
-      <c r="C4" s="307"/>
-      <c r="D4" s="307"/>
-      <c r="E4" s="307"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="307"/>
-      <c r="H4" s="307"/>
-      <c r="I4" s="307"/>
-      <c r="J4" s="307"/>
-      <c r="K4" s="307"/>
-      <c r="L4" s="307"/>
+      <c r="B4" s="282"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="301" t="s">
+      <c r="A5" s="283" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="297"/>
-      <c r="C5" s="266"/>
-      <c r="D5" s="266"/>
-      <c r="E5" s="266"/>
-      <c r="F5" s="266"/>
-      <c r="G5" s="266"/>
-      <c r="H5" s="266"/>
-      <c r="I5" s="297" t="s">
+      <c r="B5" s="284"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="284" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="297"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="248"/>
-      <c r="M5" s="270"/>
+      <c r="J5" s="284"/>
+      <c r="K5" s="226"/>
+      <c r="L5" s="226"/>
+      <c r="M5" s="227"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="299" t="s">
+      <c r="A6" s="285" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="300"/>
-      <c r="C6" s="272" t="s">
+      <c r="B6" s="286"/>
+      <c r="C6" s="229" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272"/>
-      <c r="G6" s="272"/>
-      <c r="H6" s="272"/>
-      <c r="I6" s="272"/>
-      <c r="J6" s="272"/>
-      <c r="K6" s="272"/>
-      <c r="L6" s="272"/>
-      <c r="M6" s="303"/>
+      <c r="D6" s="229"/>
+      <c r="E6" s="229"/>
+      <c r="F6" s="229"/>
+      <c r="G6" s="229"/>
+      <c r="H6" s="229"/>
+      <c r="I6" s="229"/>
+      <c r="J6" s="229"/>
+      <c r="K6" s="229"/>
+      <c r="L6" s="229"/>
+      <c r="M6" s="287"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="299" t="s">
+      <c r="A7" s="285" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="300"/>
-      <c r="C7" s="189"/>
-      <c r="D7" s="189"/>
-      <c r="E7" s="189"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="300" t="s">
+      <c r="B7" s="286"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="286" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="300"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="189"/>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="220"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="236"/>
       <c r="N7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="295" t="s">
+      <c r="A8" s="288" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="241"/>
-      <c r="C8" s="258"/>
-      <c r="D8" s="258"/>
-      <c r="E8" s="258"/>
-      <c r="F8" s="258"/>
-      <c r="G8" s="241" t="s">
+      <c r="B8" s="255"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="237"/>
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="241"/>
-      <c r="I8" s="258"/>
-      <c r="J8" s="258"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="258"/>
-      <c r="M8" s="262"/>
+      <c r="H8" s="255"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="241"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="296" t="s">
+      <c r="A9" s="289" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="296"/>
-      <c r="C9" s="296"/>
-      <c r="D9" s="296"/>
-      <c r="E9" s="296"/>
-      <c r="F9" s="296"/>
-      <c r="G9" s="296"/>
-      <c r="H9" s="296"/>
-      <c r="I9" s="296"/>
-      <c r="J9" s="296"/>
-      <c r="K9" s="296"/>
-      <c r="L9" s="296"/>
+      <c r="B9" s="289"/>
+      <c r="C9" s="289"/>
+      <c r="D9" s="289"/>
+      <c r="E9" s="289"/>
+      <c r="F9" s="289"/>
+      <c r="G9" s="289"/>
+      <c r="H9" s="289"/>
+      <c r="I9" s="289"/>
+      <c r="J9" s="289"/>
+      <c r="K9" s="289"/>
+      <c r="L9" s="289"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="301" t="s">
+      <c r="A10" s="283" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="297"/>
-      <c r="C10" s="248"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="248"/>
-      <c r="F10" s="248"/>
-      <c r="G10" s="297" t="s">
+      <c r="B10" s="284"/>
+      <c r="C10" s="226"/>
+      <c r="D10" s="226"/>
+      <c r="E10" s="226"/>
+      <c r="F10" s="226"/>
+      <c r="G10" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="297"/>
-      <c r="I10" s="253" t="s">
+      <c r="H10" s="284"/>
+      <c r="I10" s="246" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="253"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="253"/>
-      <c r="M10" s="254"/>
+      <c r="J10" s="246"/>
+      <c r="K10" s="246"/>
+      <c r="L10" s="246"/>
+      <c r="M10" s="247"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="299" t="s">
+      <c r="A11" s="285" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="300"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="300" t="s">
+      <c r="B11" s="286"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="286" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="300"/>
-      <c r="I11" s="300"/>
-      <c r="J11" s="300"/>
-      <c r="K11" s="300"/>
-      <c r="L11" s="300"/>
-      <c r="M11" s="302"/>
+      <c r="H11" s="286"/>
+      <c r="I11" s="286"/>
+      <c r="J11" s="286"/>
+      <c r="K11" s="286"/>
+      <c r="L11" s="286"/>
+      <c r="M11" s="290"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="299" t="s">
+      <c r="A12" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="300"/>
-      <c r="C12" s="189"/>
-      <c r="D12" s="189"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="189"/>
-      <c r="G12" s="300" t="s">
+      <c r="B12" s="286"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="286" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="300"/>
-      <c r="I12" s="244" t="s">
+      <c r="H12" s="286"/>
+      <c r="I12" s="251" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="244"/>
-      <c r="K12" s="244"/>
-      <c r="L12" s="244"/>
-      <c r="M12" s="247"/>
+      <c r="J12" s="251"/>
+      <c r="K12" s="251"/>
+      <c r="L12" s="251"/>
+      <c r="M12" s="254"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="299" t="s">
+      <c r="A13" s="285" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="300"/>
-      <c r="C13" s="189"/>
-      <c r="D13" s="189"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="189"/>
-      <c r="G13" s="300" t="s">
+      <c r="B13" s="286"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="286" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="300"/>
-      <c r="I13" s="244" t="s">
+      <c r="H13" s="286"/>
+      <c r="I13" s="251" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="244"/>
-      <c r="K13" s="244"/>
-      <c r="L13" s="244"/>
-      <c r="M13" s="247"/>
+      <c r="J13" s="251"/>
+      <c r="K13" s="251"/>
+      <c r="L13" s="251"/>
+      <c r="M13" s="254"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="299" t="s">
+      <c r="A14" s="285" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="300"/>
-      <c r="C14" s="189"/>
-      <c r="D14" s="189"/>
-      <c r="E14" s="189"/>
-      <c r="F14" s="189"/>
-      <c r="G14" s="189"/>
-      <c r="H14" s="189"/>
-      <c r="I14" s="189"/>
-      <c r="J14" s="189"/>
-      <c r="K14" s="189"/>
-      <c r="L14" s="189"/>
-      <c r="M14" s="220"/>
+      <c r="B14" s="286"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="236"/>
       <c r="N14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="295" t="s">
+      <c r="A15" s="288" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="241"/>
-      <c r="C15" s="258"/>
-      <c r="D15" s="258"/>
-      <c r="E15" s="258"/>
-      <c r="F15" s="258"/>
-      <c r="G15" s="258"/>
-      <c r="H15" s="258"/>
-      <c r="I15" s="258"/>
-      <c r="J15" s="258"/>
-      <c r="K15" s="258"/>
-      <c r="L15" s="258"/>
-      <c r="M15" s="262"/>
+      <c r="B15" s="255"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="237"/>
+      <c r="E15" s="237"/>
+      <c r="F15" s="237"/>
+      <c r="G15" s="237"/>
+      <c r="H15" s="237"/>
+      <c r="I15" s="237"/>
+      <c r="J15" s="237"/>
+      <c r="K15" s="237"/>
+      <c r="L15" s="237"/>
+      <c r="M15" s="241"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="296" t="s">
+      <c r="A16" s="289" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="296"/>
-      <c r="C16" s="296"/>
-      <c r="D16" s="296"/>
-      <c r="E16" s="296"/>
-      <c r="F16" s="296"/>
-      <c r="G16" s="296"/>
-      <c r="H16" s="296"/>
-      <c r="I16" s="296"/>
-      <c r="J16" s="296"/>
-      <c r="K16" s="296"/>
-      <c r="L16" s="296"/>
+      <c r="B16" s="289"/>
+      <c r="C16" s="289"/>
+      <c r="D16" s="289"/>
+      <c r="E16" s="289"/>
+      <c r="F16" s="289"/>
+      <c r="G16" s="289"/>
+      <c r="H16" s="289"/>
+      <c r="I16" s="289"/>
+      <c r="J16" s="289"/>
+      <c r="K16" s="289"/>
+      <c r="L16" s="289"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -7469,17 +7463,17 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="297" t="s">
+      <c r="C17" s="284" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="297"/>
+      <c r="D17" s="284"/>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="297" t="s">
+      <c r="F17" s="284" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="297"/>
+      <c r="G17" s="284"/>
       <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
@@ -7490,384 +7484,384 @@
       <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="297" t="s">
+      <c r="L17" s="284" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="298"/>
+      <c r="M17" s="291"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="281"/>
-      <c r="D18" s="281"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="281"/>
-      <c r="G18" s="281"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="281"/>
-      <c r="M18" s="282"/>
+      <c r="L18" s="292"/>
+      <c r="M18" s="293"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="281"/>
-      <c r="D19" s="281"/>
+      <c r="C19" s="292"/>
+      <c r="D19" s="292"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="281"/>
-      <c r="G19" s="281"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="292"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="281"/>
-      <c r="M19" s="282"/>
+      <c r="L19" s="292"/>
+      <c r="M19" s="293"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="281"/>
-      <c r="D20" s="281"/>
+      <c r="C20" s="292"/>
+      <c r="D20" s="292"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="281"/>
-      <c r="G20" s="281"/>
+      <c r="F20" s="292"/>
+      <c r="G20" s="292"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="281"/>
-      <c r="M20" s="282"/>
+      <c r="L20" s="292"/>
+      <c r="M20" s="293"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
+      <c r="C21" s="292"/>
+      <c r="D21" s="292"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
+      <c r="F21" s="292"/>
+      <c r="G21" s="292"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="281"/>
-      <c r="M21" s="282"/>
+      <c r="L21" s="292"/>
+      <c r="M21" s="293"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="281"/>
-      <c r="D22" s="281"/>
+      <c r="C22" s="292"/>
+      <c r="D22" s="292"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="281"/>
-      <c r="G22" s="281"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="281"/>
-      <c r="M22" s="282"/>
+      <c r="L22" s="292"/>
+      <c r="M22" s="293"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="281"/>
-      <c r="D23" s="281"/>
+      <c r="C23" s="292"/>
+      <c r="D23" s="292"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="281"/>
-      <c r="G23" s="281"/>
+      <c r="F23" s="292"/>
+      <c r="G23" s="292"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="281"/>
-      <c r="M23" s="282"/>
+      <c r="L23" s="292"/>
+      <c r="M23" s="293"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="281"/>
-      <c r="D24" s="281"/>
+      <c r="C24" s="292"/>
+      <c r="D24" s="292"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="281"/>
-      <c r="G24" s="281"/>
+      <c r="F24" s="292"/>
+      <c r="G24" s="292"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="281"/>
-      <c r="M24" s="282"/>
+      <c r="L24" s="292"/>
+      <c r="M24" s="293"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="281"/>
-      <c r="D25" s="281"/>
+      <c r="C25" s="292"/>
+      <c r="D25" s="292"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="281"/>
-      <c r="G25" s="281"/>
+      <c r="F25" s="292"/>
+      <c r="G25" s="292"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="281"/>
-      <c r="M25" s="282"/>
+      <c r="L25" s="292"/>
+      <c r="M25" s="293"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>9</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="281"/>
-      <c r="D26" s="281"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="292"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="281"/>
-      <c r="G26" s="281"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="292"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="281"/>
-      <c r="M26" s="282"/>
+      <c r="L26" s="292"/>
+      <c r="M26" s="293"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="281"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="282"/>
+      <c r="L27" s="292"/>
+      <c r="M27" s="293"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>11</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="281"/>
-      <c r="D28" s="281"/>
+      <c r="C28" s="292"/>
+      <c r="D28" s="292"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="281"/>
-      <c r="G28" s="281"/>
+      <c r="F28" s="292"/>
+      <c r="G28" s="292"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="281"/>
-      <c r="M28" s="282"/>
+      <c r="L28" s="292"/>
+      <c r="M28" s="293"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="281"/>
-      <c r="D29" s="281"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="281"/>
-      <c r="G29" s="281"/>
+      <c r="F29" s="292"/>
+      <c r="G29" s="292"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="281"/>
-      <c r="M29" s="282"/>
+      <c r="L29" s="292"/>
+      <c r="M29" s="293"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="281"/>
-      <c r="D30" s="281"/>
+      <c r="C30" s="292"/>
+      <c r="D30" s="292"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="281"/>
-      <c r="G30" s="281"/>
+      <c r="F30" s="292"/>
+      <c r="G30" s="292"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="281"/>
-      <c r="M30" s="282"/>
+      <c r="L30" s="292"/>
+      <c r="M30" s="293"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="281"/>
-      <c r="D31" s="281"/>
+      <c r="C31" s="292"/>
+      <c r="D31" s="292"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="281"/>
-      <c r="G31" s="281"/>
+      <c r="F31" s="292"/>
+      <c r="G31" s="292"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="281"/>
-      <c r="M31" s="282"/>
+      <c r="L31" s="292"/>
+      <c r="M31" s="293"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>15</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="281"/>
-      <c r="D32" s="281"/>
+      <c r="C32" s="292"/>
+      <c r="D32" s="292"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="281"/>
-      <c r="G32" s="281"/>
+      <c r="F32" s="292"/>
+      <c r="G32" s="292"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="281"/>
-      <c r="M32" s="282"/>
+      <c r="L32" s="292"/>
+      <c r="M32" s="293"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="281"/>
-      <c r="D33" s="281"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="281"/>
-      <c r="G33" s="281"/>
+      <c r="F33" s="292"/>
+      <c r="G33" s="292"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="281"/>
-      <c r="M33" s="282"/>
+      <c r="L33" s="292"/>
+      <c r="M33" s="293"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="281"/>
-      <c r="D34" s="281"/>
+      <c r="C34" s="292"/>
+      <c r="D34" s="292"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="281"/>
-      <c r="G34" s="281"/>
+      <c r="F34" s="292"/>
+      <c r="G34" s="292"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="281"/>
-      <c r="M34" s="282"/>
+      <c r="L34" s="292"/>
+      <c r="M34" s="293"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>18</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="281"/>
-      <c r="D35" s="281"/>
+      <c r="C35" s="292"/>
+      <c r="D35" s="292"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="281"/>
-      <c r="G35" s="281"/>
+      <c r="F35" s="292"/>
+      <c r="G35" s="292"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="281"/>
-      <c r="M35" s="282"/>
+      <c r="L35" s="292"/>
+      <c r="M35" s="293"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>19</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="281"/>
-      <c r="D36" s="281"/>
+      <c r="C36" s="292"/>
+      <c r="D36" s="292"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="281"/>
-      <c r="G36" s="281"/>
+      <c r="F36" s="292"/>
+      <c r="G36" s="292"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="281"/>
-      <c r="M36" s="282"/>
+      <c r="L36" s="292"/>
+      <c r="M36" s="293"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>20</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="281"/>
-      <c r="D37" s="281"/>
+      <c r="C37" s="292"/>
+      <c r="D37" s="292"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="281"/>
-      <c r="G37" s="281"/>
+      <c r="F37" s="292"/>
+      <c r="G37" s="292"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="281"/>
-      <c r="M37" s="282"/>
+      <c r="L37" s="292"/>
+      <c r="M37" s="293"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="283" t="s">
+      <c r="A38" s="294" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="284"/>
-      <c r="C38" s="284"/>
-      <c r="D38" s="285"/>
-      <c r="E38" s="286"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="173"/>
+      <c r="B38" s="295"/>
+      <c r="C38" s="295"/>
+      <c r="D38" s="296"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="165"/>
+      <c r="K38" s="165"/>
+      <c r="L38" s="165"/>
+      <c r="M38" s="166"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="287" t="s">
+      <c r="A39" s="298" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="288"/>
-      <c r="C39" s="288"/>
-      <c r="D39" s="288"/>
-      <c r="E39" s="288"/>
-      <c r="F39" s="288"/>
-      <c r="G39" s="288"/>
-      <c r="H39" s="288"/>
-      <c r="I39" s="288"/>
-      <c r="J39" s="288"/>
-      <c r="K39" s="288"/>
-      <c r="L39" s="288"/>
-      <c r="M39" s="289"/>
+      <c r="B39" s="299"/>
+      <c r="C39" s="299"/>
+      <c r="D39" s="299"/>
+      <c r="E39" s="299"/>
+      <c r="F39" s="299"/>
+      <c r="G39" s="299"/>
+      <c r="H39" s="299"/>
+      <c r="I39" s="299"/>
+      <c r="J39" s="299"/>
+      <c r="K39" s="299"/>
+      <c r="L39" s="299"/>
+      <c r="M39" s="300"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -7900,20 +7894,20 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="290" t="s">
+      <c r="A42" s="301" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="291"/>
-      <c r="C42" s="291"/>
-      <c r="D42" s="291"/>
-      <c r="E42" s="291"/>
-      <c r="F42" s="291"/>
-      <c r="G42" s="291"/>
-      <c r="H42" s="291"/>
-      <c r="I42" s="291"/>
-      <c r="J42" s="291"/>
-      <c r="K42" s="291"/>
-      <c r="L42" s="291"/>
+      <c r="B42" s="302"/>
+      <c r="C42" s="302"/>
+      <c r="D42" s="302"/>
+      <c r="E42" s="302"/>
+      <c r="F42" s="302"/>
+      <c r="G42" s="302"/>
+      <c r="H42" s="302"/>
+      <c r="I42" s="302"/>
+      <c r="J42" s="302"/>
+      <c r="K42" s="302"/>
+      <c r="L42" s="302"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="9"/>
@@ -7944,111 +7938,23 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="292" t="s">
+      <c r="A45" s="303" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="293"/>
-      <c r="C45" s="293"/>
-      <c r="D45" s="293"/>
-      <c r="E45" s="293"/>
-      <c r="F45" s="293"/>
-      <c r="G45" s="293"/>
-      <c r="H45" s="293"/>
-      <c r="I45" s="293"/>
-      <c r="J45" s="293"/>
-      <c r="K45" s="293"/>
-      <c r="L45" s="293"/>
+      <c r="B45" s="304"/>
+      <c r="C45" s="304"/>
+      <c r="D45" s="304"/>
+      <c r="E45" s="304"/>
+      <c r="F45" s="304"/>
+      <c r="G45" s="304"/>
+      <c r="H45" s="304"/>
+      <c r="I45" s="304"/>
+      <c r="J45" s="304"/>
+      <c r="K45" s="304"/>
+      <c r="L45" s="304"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -8073,6 +7979,94 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/templates/配件确认单.xlsx
+++ b/public/templates/配件确认单.xlsx
@@ -907,10 +907,6 @@
     </r>
   </si>
   <si>
-    <t>配件确认单</t>
-    <phoneticPr fontId="38" type="noConversion"/>
-  </si>
-  <si>
     <t>小计（折扣）</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
@@ -940,6 +936,10 @@
   </si>
   <si>
     <t>销售合同</t>
+    <phoneticPr fontId="38" type="noConversion"/>
+  </si>
+  <si>
+    <t>配件确认单</t>
     <phoneticPr fontId="38" type="noConversion"/>
   </si>
 </sst>
@@ -953,7 +953,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="44">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1241,15 +1241,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2323,57 +2314,276 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2407,9 +2617,6 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2446,233 +2653,200 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2689,184 +2863,73 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2881,80 +2944,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3011,7 +3002,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3078,7 +3069,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3243,7 +3234,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3408,7 +3399,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3840,7 +3831,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4005,7 +3996,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4337,7 +4328,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4736,7 +4727,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4805,7 +4796,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -5318,8 +5309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5339,112 +5330,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="123"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="122"/>
+      <c r="A1" s="196"/>
+      <c r="B1" s="197"/>
+      <c r="C1" s="197"/>
+      <c r="D1" s="307" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="195"/>
       <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="133" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="201"/>
+      <c r="E2" s="205" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="133" t="s">
+      <c r="F2" s="206"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="206"/>
+      <c r="I2" s="205" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="J2" s="206"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="209"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="202" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="200"/>
-      <c r="D3" s="201"/>
-      <c r="E3" s="201"/>
-      <c r="F3" s="201"/>
-      <c r="G3" s="201"/>
-      <c r="H3" s="201"/>
-      <c r="I3" s="202" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="203"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="137"/>
+      <c r="C3" s="210"/>
+      <c r="D3" s="211"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="212" t="s">
+        <v>117</v>
+      </c>
+      <c r="J3" s="213"/>
+      <c r="K3" s="214"/>
+      <c r="L3" s="209"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="131"/>
+      <c r="A4" s="203"/>
       <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
+      <c r="F4" s="188"/>
+      <c r="G4" s="188"/>
+      <c r="H4" s="188"/>
+      <c r="I4" s="190"/>
+      <c r="J4" s="191"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="193"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="139"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="210" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="211"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="111"/>
+      <c r="G5" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="H5" s="120"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
     </row>
     <row r="6" spans="1:12" s="76" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="132"/>
+      <c r="A6" s="204"/>
       <c r="B6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="206"/>
-      <c r="E6" s="206"/>
-      <c r="F6" s="207"/>
-      <c r="G6" s="212" t="s">
-        <v>120</v>
-      </c>
-      <c r="H6" s="213"/>
-      <c r="I6" s="208"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="209"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="121" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" s="122"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:12" s="76" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
@@ -5461,197 +5452,197 @@
       <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="168" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="172"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="173"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="143" t="s">
-        <v>121</v>
-      </c>
-      <c r="H8" s="142"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="176"/>
-      <c r="K8" s="176"/>
-      <c r="L8" s="177"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="176" t="s">
+        <v>120</v>
+      </c>
+      <c r="H8" s="177"/>
+      <c r="I8" s="178"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="179"/>
+      <c r="L8" s="180"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="168"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="138"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="113"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="181" t="s">
+        <v>121</v>
+      </c>
+      <c r="H9" s="111"/>
+      <c r="I9" s="186"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="168"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="138"/>
-      <c r="D10" s="139"/>
-      <c r="E10" s="139"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="109" t="s">
-        <v>123</v>
-      </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="181" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="111"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="117"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="168"/>
+      <c r="A11" s="169"/>
       <c r="B11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="143" t="s">
-        <v>124</v>
-      </c>
-      <c r="H11" s="142"/>
-      <c r="I11" s="144"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="176" t="s">
+        <v>123</v>
+      </c>
+      <c r="H11" s="177"/>
+      <c r="I11" s="184"/>
+      <c r="J11" s="185"/>
+      <c r="K11" s="185"/>
+      <c r="L11" s="185"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="168"/>
+      <c r="A12" s="169"/>
       <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="152"/>
-      <c r="D12" s="152"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="152"/>
-      <c r="H12" s="152"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="152"/>
-      <c r="L12" s="154"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="153"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="155"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="169"/>
+      <c r="A13" s="170"/>
       <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
+      <c r="L13" s="157"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="170" t="s">
+      <c r="A14" s="171" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="160"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="161"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="170"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
+      <c r="A15" s="171"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="164"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="170"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="163"/>
+      <c r="A16" s="171"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="170"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="163"/>
+      <c r="A17" s="171"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="164"/>
     </row>
     <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="171"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="166"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="167"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="147" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="146"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="146"/>
+      <c r="B19" s="147"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="147"/>
     </row>
     <row r="20" spans="1:12" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -5682,10 +5673,10 @@
       <c r="J20" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="150" t="s">
+      <c r="K20" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="151"/>
+      <c r="L20" s="152"/>
     </row>
     <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="6">
@@ -5700,8 +5691,8 @@
       <c r="H21" s="98"/>
       <c r="I21" s="98"/>
       <c r="J21" s="99"/>
-      <c r="K21" s="306"/>
-      <c r="L21" s="307"/>
+      <c r="K21" s="123"/>
+      <c r="L21" s="124"/>
     </row>
     <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6">
@@ -5716,8 +5707,8 @@
       <c r="H22" s="99"/>
       <c r="I22" s="99"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="306"/>
-      <c r="L22" s="307"/>
+      <c r="K22" s="123"/>
+      <c r="L22" s="124"/>
     </row>
     <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="6">
@@ -5732,8 +5723,8 @@
       <c r="H23" s="99"/>
       <c r="I23" s="99"/>
       <c r="J23" s="99"/>
-      <c r="K23" s="306"/>
-      <c r="L23" s="307"/>
+      <c r="K23" s="123"/>
+      <c r="L23" s="124"/>
     </row>
     <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6">
@@ -5748,8 +5739,8 @@
       <c r="H24" s="99"/>
       <c r="I24" s="99"/>
       <c r="J24" s="106"/>
-      <c r="K24" s="306"/>
-      <c r="L24" s="307"/>
+      <c r="K24" s="123"/>
+      <c r="L24" s="124"/>
     </row>
     <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6">
@@ -5764,8 +5755,8 @@
       <c r="H25" s="99"/>
       <c r="I25" s="99"/>
       <c r="J25" s="99"/>
-      <c r="K25" s="306"/>
-      <c r="L25" s="307"/>
+      <c r="K25" s="123"/>
+      <c r="L25" s="124"/>
     </row>
     <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="6">
@@ -5780,8 +5771,8 @@
       <c r="H26" s="99"/>
       <c r="I26" s="99"/>
       <c r="J26" s="106"/>
-      <c r="K26" s="306"/>
-      <c r="L26" s="307"/>
+      <c r="K26" s="123"/>
+      <c r="L26" s="124"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
@@ -5796,8 +5787,8 @@
       <c r="H27" s="99"/>
       <c r="I27" s="99"/>
       <c r="J27" s="99"/>
-      <c r="K27" s="306"/>
-      <c r="L27" s="307"/>
+      <c r="K27" s="123"/>
+      <c r="L27" s="124"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
@@ -5812,8 +5803,8 @@
       <c r="H28" s="99"/>
       <c r="I28" s="99"/>
       <c r="J28" s="106"/>
-      <c r="K28" s="306"/>
-      <c r="L28" s="307"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="124"/>
     </row>
     <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6">
@@ -5828,8 +5819,8 @@
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="99"/>
-      <c r="K29" s="306"/>
-      <c r="L29" s="307"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="124"/>
     </row>
     <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6">
@@ -5844,148 +5835,145 @@
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="106"/>
-      <c r="K30" s="306"/>
-      <c r="L30" s="307"/>
+      <c r="K30" s="123"/>
+      <c r="L30" s="124"/>
     </row>
     <row r="31" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A31" s="181" t="s">
-        <v>117</v>
-      </c>
-      <c r="B31" s="182"/>
-      <c r="C31" s="182"/>
-      <c r="D31" s="182"/>
-      <c r="E31" s="182"/>
-      <c r="F31" s="182"/>
-      <c r="G31" s="182"/>
-      <c r="H31" s="182"/>
-      <c r="I31" s="183"/>
+      <c r="A31" s="128" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="129"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="306"/>
-      <c r="L31" s="307"/>
+      <c r="K31" s="123"/>
+      <c r="L31" s="124"/>
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="137" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="191"/>
-      <c r="F32" s="191"/>
-      <c r="G32" s="191"/>
-      <c r="H32" s="191"/>
-      <c r="I32" s="192"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
+      <c r="D32" s="138"/>
+      <c r="E32" s="138"/>
+      <c r="F32" s="138"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="138"/>
+      <c r="I32" s="139"/>
       <c r="J32" s="95"/>
-      <c r="K32" s="191"/>
-      <c r="L32" s="192"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="139"/>
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="190" t="s">
+      <c r="A33" s="137" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="191"/>
-      <c r="F33" s="191"/>
-      <c r="G33" s="191"/>
-      <c r="H33" s="191"/>
-      <c r="I33" s="192"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
+      <c r="E33" s="138"/>
+      <c r="F33" s="138"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="139"/>
       <c r="J33" s="95"/>
-      <c r="K33" s="191"/>
-      <c r="L33" s="192"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="139"/>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="193" t="s">
+      <c r="A34" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="194"/>
-      <c r="C34" s="194"/>
-      <c r="D34" s="194"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="194"/>
-      <c r="G34" s="194"/>
-      <c r="H34" s="194"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="198"/>
-      <c r="L34" s="199"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="141"/>
+      <c r="D34" s="141"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="141"/>
+      <c r="I34" s="143"/>
+      <c r="J34" s="144"/>
+      <c r="K34" s="145"/>
+      <c r="L34" s="146"/>
     </row>
     <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="131" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="185"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
-      <c r="H35" s="185"/>
-      <c r="I35" s="185"/>
-      <c r="J35" s="185"/>
-      <c r="K35" s="185"/>
-      <c r="L35" s="186"/>
+      <c r="B35" s="132"/>
+      <c r="C35" s="132"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="132"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="132"/>
+      <c r="L35" s="133"/>
     </row>
     <row r="36" spans="1:12" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A36" s="187" t="s">
+      <c r="A36" s="134" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="188"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
-      <c r="L36" s="189"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="135"/>
+      <c r="F36" s="135"/>
+      <c r="G36" s="135"/>
+      <c r="H36" s="135"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="135"/>
+      <c r="L36" s="136"/>
     </row>
     <row r="37" spans="1:12" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A37" s="178" t="s">
+      <c r="A37" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="179"/>
-      <c r="C37" s="179"/>
-      <c r="D37" s="179"/>
-      <c r="E37" s="179"/>
-      <c r="F37" s="179"/>
-      <c r="G37" s="179"/>
-      <c r="H37" s="179"/>
-      <c r="I37" s="179"/>
-      <c r="J37" s="179"/>
-      <c r="K37" s="179"/>
-      <c r="L37" s="180"/>
+      <c r="B37" s="126"/>
+      <c r="C37" s="126"/>
+      <c r="D37" s="126"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="126"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="126"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="126"/>
+      <c r="L37" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
@@ -6002,28 +5990,31 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6062,358 +6053,358 @@
         <v>0</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="D1" s="276" t="s">
+      <c r="D1" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="276"/>
-      <c r="K1" s="276"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217"/>
       <c r="L1" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="275" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
+      <c r="B2" s="275"/>
+      <c r="C2" s="275"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="218"/>
+      <c r="F2" s="218"/>
+      <c r="G2" s="218"/>
+      <c r="H2" s="218"/>
+      <c r="I2" s="218"/>
+      <c r="J2" s="218"/>
+      <c r="K2" s="218"/>
       <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="215" t="s">
+      <c r="A3" s="276" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="216"/>
-      <c r="C3" s="217" t="s">
+      <c r="B3" s="277"/>
+      <c r="C3" s="278" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="217"/>
+      <c r="D3" s="278"/>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="217" t="s">
+      <c r="F3" s="278" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="217"/>
-      <c r="H3" s="216" t="s">
+      <c r="G3" s="278"/>
+      <c r="H3" s="277" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="218"/>
-      <c r="J3" s="219" t="s">
+      <c r="I3" s="279"/>
+      <c r="J3" s="262" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="220"/>
-      <c r="L3" s="221"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="264"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="202" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="222" t="s">
+      <c r="C4" s="265" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
-      <c r="H4" s="223" t="s">
+      <c r="D4" s="265"/>
+      <c r="E4" s="265"/>
+      <c r="F4" s="265"/>
+      <c r="G4" s="265"/>
+      <c r="H4" s="266" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="224"/>
-      <c r="J4" s="225" t="s">
+      <c r="I4" s="267"/>
+      <c r="J4" s="268" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="226"/>
-      <c r="L4" s="227"/>
+      <c r="K4" s="247"/>
+      <c r="L4" s="269"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="203"/>
       <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="228" t="s">
+      <c r="C5" s="270" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="228"/>
-      <c r="E5" s="229"/>
-      <c r="F5" s="228"/>
-      <c r="G5" s="228"/>
-      <c r="H5" s="228"/>
-      <c r="I5" s="230"/>
-      <c r="J5" s="231"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="232"/>
+      <c r="D5" s="270"/>
+      <c r="E5" s="271"/>
+      <c r="F5" s="270"/>
+      <c r="G5" s="270"/>
+      <c r="H5" s="270"/>
+      <c r="I5" s="272"/>
+      <c r="J5" s="273"/>
+      <c r="K5" s="270"/>
+      <c r="L5" s="274"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="131"/>
+      <c r="A6" s="203"/>
       <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="141" t="s">
+      <c r="C6" s="183" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="233" t="s">
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="242" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="233"/>
-      <c r="H6" s="141" t="s">
+      <c r="G6" s="242"/>
+      <c r="H6" s="183" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="234"/>
-      <c r="J6" s="235"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="236"/>
+      <c r="I6" s="238"/>
+      <c r="J6" s="239"/>
+      <c r="K6" s="183"/>
+      <c r="L6" s="219"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="132"/>
+      <c r="A7" s="204"/>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="237" t="s">
+      <c r="C7" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="237"/>
-      <c r="E7" s="237"/>
-      <c r="F7" s="238" t="s">
+      <c r="D7" s="257"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="258" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="238"/>
-      <c r="H7" s="237" t="s">
+      <c r="G7" s="258"/>
+      <c r="H7" s="257" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="239"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="237"/>
-      <c r="L7" s="241"/>
+      <c r="I7" s="259"/>
+      <c r="J7" s="260"/>
+      <c r="K7" s="257"/>
+      <c r="L7" s="261"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="168" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="226" t="s">
+      <c r="C8" s="247" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="226"/>
-      <c r="E8" s="226"/>
-      <c r="F8" s="242" t="s">
+      <c r="D8" s="247"/>
+      <c r="E8" s="247"/>
+      <c r="F8" s="248" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="242"/>
-      <c r="H8" s="243" t="s">
+      <c r="G8" s="248"/>
+      <c r="H8" s="249" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="244"/>
-      <c r="J8" s="245"/>
-      <c r="K8" s="246"/>
-      <c r="L8" s="247"/>
+      <c r="I8" s="250"/>
+      <c r="J8" s="251"/>
+      <c r="K8" s="252"/>
+      <c r="L8" s="253"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="168"/>
+      <c r="A9" s="169"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="141" t="s">
+      <c r="C9" s="183" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="141"/>
-      <c r="E9" s="141"/>
-      <c r="F9" s="233" t="s">
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="242" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="233"/>
-      <c r="H9" s="248" t="s">
+      <c r="G9" s="242"/>
+      <c r="H9" s="254" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="234"/>
-      <c r="J9" s="249"/>
-      <c r="K9" s="248"/>
-      <c r="L9" s="250"/>
+      <c r="I9" s="238"/>
+      <c r="J9" s="255"/>
+      <c r="K9" s="254"/>
+      <c r="L9" s="256"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="168"/>
+      <c r="A10" s="169"/>
       <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="141" t="s">
+      <c r="C10" s="183" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="233" t="s">
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="242" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="233"/>
-      <c r="H10" s="251" t="s">
+      <c r="G10" s="242"/>
+      <c r="H10" s="243" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="252"/>
-      <c r="J10" s="253"/>
-      <c r="K10" s="251"/>
-      <c r="L10" s="254"/>
+      <c r="I10" s="244"/>
+      <c r="J10" s="245"/>
+      <c r="K10" s="243"/>
+      <c r="L10" s="246"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="274"/>
+      <c r="A11" s="215"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="141">
+      <c r="C11" s="183">
         <v>33333333</v>
       </c>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="233" t="s">
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="242" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="233"/>
-      <c r="H11" s="251" t="s">
+      <c r="G11" s="242"/>
+      <c r="H11" s="243" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="252"/>
-      <c r="J11" s="253"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="254"/>
+      <c r="I11" s="244"/>
+      <c r="J11" s="245"/>
+      <c r="K11" s="243"/>
+      <c r="L11" s="246"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="274"/>
+      <c r="A12" s="215"/>
       <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="141" t="s">
+      <c r="C12" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="141"/>
-      <c r="I12" s="234"/>
-      <c r="J12" s="235"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="236"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="183"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="238"/>
+      <c r="J12" s="239"/>
+      <c r="K12" s="183"/>
+      <c r="L12" s="219"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="275"/>
+      <c r="A13" s="216"/>
       <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="255"/>
-      <c r="D13" s="255"/>
-      <c r="E13" s="255"/>
-      <c r="F13" s="255"/>
-      <c r="G13" s="255"/>
-      <c r="H13" s="255"/>
-      <c r="I13" s="255"/>
-      <c r="J13" s="255"/>
-      <c r="K13" s="255"/>
-      <c r="L13" s="256"/>
+      <c r="C13" s="240"/>
+      <c r="D13" s="240"/>
+      <c r="E13" s="240"/>
+      <c r="F13" s="240"/>
+      <c r="G13" s="240"/>
+      <c r="H13" s="240"/>
+      <c r="I13" s="240"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="241"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="159"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="159"/>
-      <c r="G14" s="159"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="159"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="159"/>
-      <c r="L14" s="160"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="159"/>
+      <c r="D14" s="160"/>
+      <c r="E14" s="160"/>
+      <c r="F14" s="160"/>
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="161"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="131"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="162"/>
-      <c r="D15" s="162"/>
-      <c r="E15" s="162"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="162"/>
-      <c r="J15" s="162"/>
-      <c r="K15" s="162"/>
-      <c r="L15" s="163"/>
+      <c r="A15" s="203"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163"/>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="164"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
-      <c r="I16" s="162"/>
-      <c r="J16" s="162"/>
-      <c r="K16" s="162"/>
-      <c r="L16" s="163"/>
+      <c r="A16" s="203"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="163"/>
+      <c r="E16" s="163"/>
+      <c r="F16" s="163"/>
+      <c r="G16" s="163"/>
+      <c r="H16" s="163"/>
+      <c r="I16" s="163"/>
+      <c r="J16" s="163"/>
+      <c r="K16" s="163"/>
+      <c r="L16" s="164"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="131"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="162"/>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
-      <c r="I17" s="162"/>
-      <c r="J17" s="162"/>
-      <c r="K17" s="162"/>
-      <c r="L17" s="163"/>
+      <c r="A17" s="203"/>
+      <c r="B17" s="162"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="164"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="164"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="166"/>
+      <c r="A18" s="204"/>
+      <c r="B18" s="165"/>
+      <c r="C18" s="166"/>
+      <c r="D18" s="166"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="167"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="257" t="s">
+      <c r="A19" s="230" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="257"/>
-      <c r="C19" s="257"/>
-      <c r="D19" s="257"/>
-      <c r="E19" s="258"/>
-      <c r="F19" s="257"/>
-      <c r="G19" s="257"/>
-      <c r="H19" s="257"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="260"/>
-      <c r="K19" s="257"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="230"/>
+      <c r="D19" s="230"/>
+      <c r="E19" s="226"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="230"/>
+      <c r="H19" s="230"/>
+      <c r="I19" s="227"/>
+      <c r="J19" s="228"/>
+      <c r="K19" s="230"/>
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -6444,10 +6435,10 @@
       <c r="J20" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="261" t="s">
+      <c r="K20" s="236" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="262"/>
+      <c r="L20" s="237"/>
     </row>
     <row r="21" spans="1:14" ht="27.95" customHeight="1">
       <c r="A21" s="6">
@@ -6480,26 +6471,26 @@
       <c r="J21" s="59">
         <v>1200</v>
       </c>
-      <c r="K21" s="141"/>
-      <c r="L21" s="236"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="219"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="263" t="s">
+      <c r="A22" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="264"/>
-      <c r="C22" s="264"/>
-      <c r="D22" s="264"/>
-      <c r="E22" s="264"/>
-      <c r="F22" s="264"/>
-      <c r="G22" s="264"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="265"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="222"/>
       <c r="J22" s="66">
         <v>1200</v>
       </c>
-      <c r="K22" s="141"/>
-      <c r="L22" s="236"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="219"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1">
       <c r="A23" s="6">
@@ -6532,29 +6523,29 @@
       <c r="J23" s="59">
         <v>2950</v>
       </c>
-      <c r="K23" s="141"/>
-      <c r="L23" s="236"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="219"/>
       <c r="N23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="263" t="s">
+      <c r="A24" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="264"/>
-      <c r="C24" s="264"/>
-      <c r="D24" s="264"/>
-      <c r="E24" s="264"/>
-      <c r="F24" s="264"/>
-      <c r="G24" s="264"/>
-      <c r="H24" s="264"/>
-      <c r="I24" s="265"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="221"/>
+      <c r="D24" s="221"/>
+      <c r="E24" s="221"/>
+      <c r="F24" s="221"/>
+      <c r="G24" s="221"/>
+      <c r="H24" s="221"/>
+      <c r="I24" s="222"/>
       <c r="J24" s="66">
         <v>2950</v>
       </c>
-      <c r="K24" s="141"/>
-      <c r="L24" s="236"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="219"/>
     </row>
     <row r="25" spans="1:14" ht="27" customHeight="1">
       <c r="A25" s="6">
@@ -6587,26 +6578,26 @@
       <c r="J25" s="59">
         <v>1375</v>
       </c>
-      <c r="K25" s="141"/>
-      <c r="L25" s="236"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="219"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="263" t="s">
+      <c r="A26" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="264"/>
-      <c r="C26" s="264"/>
-      <c r="D26" s="264"/>
-      <c r="E26" s="264"/>
-      <c r="F26" s="264"/>
-      <c r="G26" s="264"/>
-      <c r="H26" s="264"/>
-      <c r="I26" s="265"/>
+      <c r="B26" s="221"/>
+      <c r="C26" s="221"/>
+      <c r="D26" s="221"/>
+      <c r="E26" s="221"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="221"/>
+      <c r="H26" s="221"/>
+      <c r="I26" s="222"/>
       <c r="J26" s="66">
         <v>1375</v>
       </c>
-      <c r="K26" s="141"/>
-      <c r="L26" s="236"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="219"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="42">
@@ -6637,26 +6628,26 @@
       <c r="J27" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K27" s="141"/>
-      <c r="L27" s="236"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="219"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="263" t="s">
+      <c r="A28" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="264"/>
-      <c r="C28" s="264"/>
-      <c r="D28" s="264"/>
-      <c r="E28" s="264"/>
-      <c r="F28" s="264"/>
-      <c r="G28" s="264"/>
-      <c r="H28" s="264"/>
-      <c r="I28" s="265"/>
+      <c r="B28" s="221"/>
+      <c r="C28" s="221"/>
+      <c r="D28" s="221"/>
+      <c r="E28" s="221"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="221"/>
+      <c r="H28" s="221"/>
+      <c r="I28" s="222"/>
       <c r="J28" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K28" s="141"/>
-      <c r="L28" s="236"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="219"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="42">
@@ -6689,26 +6680,26 @@
       <c r="J29" s="70">
         <v>2900</v>
       </c>
-      <c r="K29" s="141"/>
-      <c r="L29" s="236"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="219"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="263" t="s">
+      <c r="A30" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="264"/>
-      <c r="C30" s="264"/>
-      <c r="D30" s="264"/>
-      <c r="E30" s="264"/>
-      <c r="F30" s="264"/>
-      <c r="G30" s="264"/>
-      <c r="H30" s="264"/>
-      <c r="I30" s="265"/>
+      <c r="B30" s="221"/>
+      <c r="C30" s="221"/>
+      <c r="D30" s="221"/>
+      <c r="E30" s="221"/>
+      <c r="F30" s="221"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
+      <c r="I30" s="222"/>
       <c r="J30" s="70">
         <v>2900</v>
       </c>
-      <c r="K30" s="138"/>
-      <c r="L30" s="278"/>
+      <c r="K30" s="109"/>
+      <c r="L30" s="223"/>
     </row>
     <row r="31" spans="1:14" ht="24">
       <c r="A31" s="6">
@@ -6739,8 +6730,8 @@
       <c r="J31" s="59">
         <v>7087.5</v>
       </c>
-      <c r="K31" s="141"/>
-      <c r="L31" s="236"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="219"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
@@ -6771,8 +6762,8 @@
       <c r="J32" s="59">
         <v>2900</v>
       </c>
-      <c r="K32" s="141"/>
-      <c r="L32" s="236"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="219"/>
     </row>
     <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
@@ -6805,27 +6796,27 @@
       <c r="J33" s="59">
         <v>3510</v>
       </c>
-      <c r="K33" s="141"/>
-      <c r="L33" s="236"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="219"/>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="263" t="s">
+      <c r="A34" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="264"/>
-      <c r="I34" s="265"/>
+      <c r="B34" s="221"/>
+      <c r="C34" s="221"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
+      <c r="G34" s="221"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="222"/>
       <c r="J34" s="66">
         <f>J31+J32+J33</f>
         <v>13497.5</v>
       </c>
-      <c r="K34" s="141"/>
-      <c r="L34" s="236"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="219"/>
     </row>
     <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
@@ -6856,26 +6847,26 @@
       <c r="J35" s="59">
         <v>96182</v>
       </c>
-      <c r="K35" s="141"/>
-      <c r="L35" s="236"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="219"/>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="263" t="s">
+      <c r="A36" s="220" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="264"/>
-      <c r="I36" s="265"/>
+      <c r="B36" s="221"/>
+      <c r="C36" s="221"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="221"/>
+      <c r="I36" s="222"/>
       <c r="J36" s="66">
         <v>96182</v>
       </c>
-      <c r="K36" s="141"/>
-      <c r="L36" s="236"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="219"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="6">
@@ -6906,79 +6897,79 @@
       <c r="J37" s="59">
         <v>32727</v>
       </c>
-      <c r="K37" s="141"/>
-      <c r="L37" s="236"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="219"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="269" t="s">
+      <c r="A38" s="231" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="270"/>
-      <c r="C38" s="270"/>
-      <c r="D38" s="270"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="270"/>
-      <c r="G38" s="270"/>
-      <c r="H38" s="270"/>
-      <c r="I38" s="271"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="232"/>
+      <c r="D38" s="232"/>
+      <c r="E38" s="232"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="232"/>
+      <c r="H38" s="232"/>
+      <c r="I38" s="233"/>
       <c r="J38" s="72">
         <v>32727</v>
       </c>
-      <c r="K38" s="272"/>
-      <c r="L38" s="273"/>
+      <c r="K38" s="234"/>
+      <c r="L38" s="235"/>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="190" t="s">
+      <c r="A39" s="137" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="191"/>
-      <c r="C39" s="191"/>
-      <c r="D39" s="191"/>
-      <c r="E39" s="191"/>
-      <c r="F39" s="191"/>
-      <c r="G39" s="191"/>
-      <c r="H39" s="191"/>
-      <c r="I39" s="192"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
+      <c r="E39" s="138"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="138"/>
+      <c r="I39" s="139"/>
       <c r="J39" s="73">
         <f>J21+J23+J25+J31+J32+J33+J35+J37</f>
         <v>147931.5</v>
       </c>
-      <c r="K39" s="191"/>
-      <c r="L39" s="192"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="139"/>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="190" t="s">
+      <c r="A40" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="191"/>
-      <c r="C40" s="191"/>
-      <c r="D40" s="191"/>
-      <c r="E40" s="191"/>
-      <c r="F40" s="191"/>
-      <c r="G40" s="191"/>
-      <c r="H40" s="191"/>
-      <c r="I40" s="192"/>
+      <c r="B40" s="138"/>
+      <c r="C40" s="138"/>
+      <c r="D40" s="138"/>
+      <c r="E40" s="138"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="138"/>
+      <c r="H40" s="138"/>
+      <c r="I40" s="139"/>
       <c r="J40" s="73">
         <v>162724.65</v>
       </c>
-      <c r="K40" s="191"/>
-      <c r="L40" s="192"/>
+      <c r="K40" s="138"/>
+      <c r="L40" s="139"/>
     </row>
     <row r="41" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="193" t="s">
+      <c r="A41" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="194"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="198"/>
-      <c r="L41" s="199"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="143"/>
+      <c r="J41" s="144"/>
+      <c r="K41" s="145"/>
+      <c r="L41" s="146"/>
     </row>
     <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="8"/>
@@ -6995,19 +6986,19 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="266" t="s">
+      <c r="A43" s="224" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="267"/>
-      <c r="C43" s="267"/>
-      <c r="D43" s="267"/>
-      <c r="E43" s="258"/>
-      <c r="F43" s="267"/>
-      <c r="G43" s="267"/>
-      <c r="H43" s="267"/>
-      <c r="I43" s="259"/>
-      <c r="J43" s="260"/>
-      <c r="K43" s="267"/>
+      <c r="B43" s="225"/>
+      <c r="C43" s="225"/>
+      <c r="D43" s="225"/>
+      <c r="E43" s="226"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="225"/>
+      <c r="H43" s="225"/>
+      <c r="I43" s="227"/>
+      <c r="J43" s="228"/>
+      <c r="K43" s="225"/>
     </row>
     <row r="44" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="55"/>
@@ -7036,22 +7027,80 @@
       <c r="K45" s="56"/>
     </row>
     <row r="46" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="268" t="s">
+      <c r="A46" s="229" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="257"/>
-      <c r="C46" s="257"/>
-      <c r="D46" s="257"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="257"/>
-      <c r="G46" s="257"/>
-      <c r="H46" s="257"/>
-      <c r="I46" s="259"/>
-      <c r="J46" s="260"/>
-      <c r="K46" s="257"/>
+      <c r="B46" s="230"/>
+      <c r="C46" s="230"/>
+      <c r="D46" s="230"/>
+      <c r="E46" s="226"/>
+      <c r="F46" s="230"/>
+      <c r="G46" s="230"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="227"/>
+      <c r="J46" s="228"/>
+      <c r="K46" s="230"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A18"/>
@@ -7068,64 +7117,6 @@
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.39305555555555599" footer="0.51180555555555596"/>
@@ -7156,305 +7147,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="293" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
       <c r="M1" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="305"/>
-      <c r="B2" s="305"/>
-      <c r="C2" s="305"/>
-      <c r="D2" s="305"/>
-      <c r="E2" s="305"/>
-      <c r="F2" s="305"/>
-      <c r="G2" s="305"/>
-      <c r="H2" s="305"/>
-      <c r="I2" s="305"/>
-      <c r="J2" s="305"/>
-      <c r="K2" s="305"/>
-      <c r="L2" s="305"/>
+      <c r="A2" s="293"/>
+      <c r="B2" s="293"/>
+      <c r="C2" s="293"/>
+      <c r="D2" s="293"/>
+      <c r="E2" s="293"/>
+      <c r="F2" s="293"/>
+      <c r="G2" s="293"/>
+      <c r="H2" s="293"/>
+      <c r="I2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="280"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="280" t="s">
+      <c r="B3" s="304"/>
+      <c r="C3" s="278"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="304" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="281"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="280" t="s">
+      <c r="F3" s="305"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="304" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="280"/>
-      <c r="K3" s="220"/>
-      <c r="L3" s="220"/>
-      <c r="M3" s="221"/>
+      <c r="J3" s="304"/>
+      <c r="K3" s="263"/>
+      <c r="L3" s="263"/>
+      <c r="M3" s="264"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="306" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="306"/>
+      <c r="G4" s="306"/>
+      <c r="H4" s="306"/>
+      <c r="I4" s="306"/>
+      <c r="J4" s="306"/>
+      <c r="K4" s="306"/>
+      <c r="L4" s="306"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="300" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="284" t="s">
+      <c r="B5" s="296"/>
+      <c r="C5" s="265"/>
+      <c r="D5" s="265"/>
+      <c r="E5" s="265"/>
+      <c r="F5" s="265"/>
+      <c r="G5" s="265"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="296" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="284"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="227"/>
+      <c r="J5" s="296"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="269"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="285" t="s">
+      <c r="A6" s="298" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="286"/>
-      <c r="C6" s="229" t="s">
+      <c r="B6" s="299"/>
+      <c r="C6" s="271" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="229"/>
-      <c r="E6" s="229"/>
-      <c r="F6" s="229"/>
-      <c r="G6" s="229"/>
-      <c r="H6" s="229"/>
-      <c r="I6" s="229"/>
-      <c r="J6" s="229"/>
-      <c r="K6" s="229"/>
-      <c r="L6" s="229"/>
-      <c r="M6" s="287"/>
+      <c r="D6" s="271"/>
+      <c r="E6" s="271"/>
+      <c r="F6" s="271"/>
+      <c r="G6" s="271"/>
+      <c r="H6" s="271"/>
+      <c r="I6" s="271"/>
+      <c r="J6" s="271"/>
+      <c r="K6" s="271"/>
+      <c r="L6" s="271"/>
+      <c r="M6" s="302"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="285" t="s">
+      <c r="A7" s="298" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="286"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="286" t="s">
+      <c r="B7" s="299"/>
+      <c r="C7" s="183"/>
+      <c r="D7" s="183"/>
+      <c r="E7" s="183"/>
+      <c r="F7" s="183"/>
+      <c r="G7" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="286"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
-      <c r="M7" s="236"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="183"/>
+      <c r="J7" s="183"/>
+      <c r="K7" s="183"/>
+      <c r="L7" s="183"/>
+      <c r="M7" s="219"/>
       <c r="N7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="288" t="s">
+      <c r="A8" s="294" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="255"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="237"/>
-      <c r="E8" s="237"/>
-      <c r="F8" s="237"/>
-      <c r="G8" s="255" t="s">
+      <c r="B8" s="240"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="257"/>
+      <c r="E8" s="257"/>
+      <c r="F8" s="257"/>
+      <c r="G8" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="255"/>
-      <c r="I8" s="237"/>
-      <c r="J8" s="237"/>
-      <c r="K8" s="237"/>
-      <c r="L8" s="237"/>
-      <c r="M8" s="241"/>
+      <c r="H8" s="240"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="257"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="261"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="289" t="s">
+      <c r="A9" s="295" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="289"/>
-      <c r="C9" s="289"/>
-      <c r="D9" s="289"/>
-      <c r="E9" s="289"/>
-      <c r="F9" s="289"/>
-      <c r="G9" s="289"/>
-      <c r="H9" s="289"/>
-      <c r="I9" s="289"/>
-      <c r="J9" s="289"/>
-      <c r="K9" s="289"/>
-      <c r="L9" s="289"/>
+      <c r="B9" s="295"/>
+      <c r="C9" s="295"/>
+      <c r="D9" s="295"/>
+      <c r="E9" s="295"/>
+      <c r="F9" s="295"/>
+      <c r="G9" s="295"/>
+      <c r="H9" s="295"/>
+      <c r="I9" s="295"/>
+      <c r="J9" s="295"/>
+      <c r="K9" s="295"/>
+      <c r="L9" s="295"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="283" t="s">
+      <c r="A10" s="300" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="284"/>
-      <c r="C10" s="226"/>
-      <c r="D10" s="226"/>
-      <c r="E10" s="226"/>
-      <c r="F10" s="226"/>
-      <c r="G10" s="284" t="s">
+      <c r="B10" s="296"/>
+      <c r="C10" s="247"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="247"/>
+      <c r="F10" s="247"/>
+      <c r="G10" s="296" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="284"/>
-      <c r="I10" s="246" t="s">
+      <c r="H10" s="296"/>
+      <c r="I10" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="246"/>
-      <c r="K10" s="246"/>
-      <c r="L10" s="246"/>
-      <c r="M10" s="247"/>
+      <c r="J10" s="252"/>
+      <c r="K10" s="252"/>
+      <c r="L10" s="252"/>
+      <c r="M10" s="253"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="285" t="s">
+      <c r="A11" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="286"/>
-      <c r="C11" s="141"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="141"/>
-      <c r="F11" s="141"/>
-      <c r="G11" s="286" t="s">
+      <c r="B11" s="299"/>
+      <c r="C11" s="183"/>
+      <c r="D11" s="183"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="183"/>
+      <c r="G11" s="299" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="286"/>
-      <c r="I11" s="286"/>
-      <c r="J11" s="286"/>
-      <c r="K11" s="286"/>
-      <c r="L11" s="286"/>
-      <c r="M11" s="290"/>
+      <c r="H11" s="299"/>
+      <c r="I11" s="299"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="299"/>
+      <c r="L11" s="299"/>
+      <c r="M11" s="301"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="285" t="s">
+      <c r="A12" s="298" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="286"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="141"/>
-      <c r="F12" s="141"/>
-      <c r="G12" s="286" t="s">
+      <c r="B12" s="299"/>
+      <c r="C12" s="183"/>
+      <c r="D12" s="183"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="183"/>
+      <c r="G12" s="299" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="286"/>
-      <c r="I12" s="251" t="s">
+      <c r="H12" s="299"/>
+      <c r="I12" s="243" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="251"/>
-      <c r="K12" s="251"/>
-      <c r="L12" s="251"/>
-      <c r="M12" s="254"/>
+      <c r="J12" s="243"/>
+      <c r="K12" s="243"/>
+      <c r="L12" s="243"/>
+      <c r="M12" s="246"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="285" t="s">
+      <c r="A13" s="298" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="286"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="286" t="s">
+      <c r="B13" s="299"/>
+      <c r="C13" s="183"/>
+      <c r="D13" s="183"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="183"/>
+      <c r="G13" s="299" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="286"/>
-      <c r="I13" s="251" t="s">
+      <c r="H13" s="299"/>
+      <c r="I13" s="243" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="251"/>
-      <c r="K13" s="251"/>
-      <c r="L13" s="251"/>
-      <c r="M13" s="254"/>
+      <c r="J13" s="243"/>
+      <c r="K13" s="243"/>
+      <c r="L13" s="243"/>
+      <c r="M13" s="246"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="285" t="s">
+      <c r="A14" s="298" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="286"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="141"/>
-      <c r="F14" s="141"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="141"/>
-      <c r="I14" s="141"/>
-      <c r="J14" s="141"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="236"/>
+      <c r="B14" s="299"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="183"/>
+      <c r="E14" s="183"/>
+      <c r="F14" s="183"/>
+      <c r="G14" s="183"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="183"/>
+      <c r="J14" s="183"/>
+      <c r="K14" s="183"/>
+      <c r="L14" s="183"/>
+      <c r="M14" s="219"/>
       <c r="N14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="288" t="s">
+      <c r="A15" s="294" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="255"/>
-      <c r="C15" s="237"/>
-      <c r="D15" s="237"/>
-      <c r="E15" s="237"/>
-      <c r="F15" s="237"/>
-      <c r="G15" s="237"/>
-      <c r="H15" s="237"/>
-      <c r="I15" s="237"/>
-      <c r="J15" s="237"/>
-      <c r="K15" s="237"/>
-      <c r="L15" s="237"/>
-      <c r="M15" s="241"/>
+      <c r="B15" s="240"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="257"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="257"/>
+      <c r="L15" s="257"/>
+      <c r="M15" s="261"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="289" t="s">
+      <c r="A16" s="295" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="289"/>
-      <c r="C16" s="289"/>
-      <c r="D16" s="289"/>
-      <c r="E16" s="289"/>
-      <c r="F16" s="289"/>
-      <c r="G16" s="289"/>
-      <c r="H16" s="289"/>
-      <c r="I16" s="289"/>
-      <c r="J16" s="289"/>
-      <c r="K16" s="289"/>
-      <c r="L16" s="289"/>
+      <c r="B16" s="295"/>
+      <c r="C16" s="295"/>
+      <c r="D16" s="295"/>
+      <c r="E16" s="295"/>
+      <c r="F16" s="295"/>
+      <c r="G16" s="295"/>
+      <c r="H16" s="295"/>
+      <c r="I16" s="295"/>
+      <c r="J16" s="295"/>
+      <c r="K16" s="295"/>
+      <c r="L16" s="295"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -7463,17 +7454,17 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="296" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="284"/>
+      <c r="D17" s="296"/>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="284" t="s">
+      <c r="F17" s="296" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="284"/>
+      <c r="G17" s="296"/>
       <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
@@ -7484,384 +7475,384 @@
       <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="284" t="s">
+      <c r="L17" s="296" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="291"/>
+      <c r="M17" s="297"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
+      <c r="C18" s="280"/>
+      <c r="D18" s="280"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="292"/>
-      <c r="M18" s="293"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="281"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="292"/>
-      <c r="D19" s="292"/>
+      <c r="C19" s="280"/>
+      <c r="D19" s="280"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="292"/>
-      <c r="G19" s="292"/>
+      <c r="F19" s="280"/>
+      <c r="G19" s="280"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="292"/>
-      <c r="M19" s="293"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="281"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="292"/>
-      <c r="D20" s="292"/>
+      <c r="C20" s="280"/>
+      <c r="D20" s="280"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="292"/>
-      <c r="G20" s="292"/>
+      <c r="F20" s="280"/>
+      <c r="G20" s="280"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="292"/>
-      <c r="M20" s="293"/>
+      <c r="L20" s="280"/>
+      <c r="M20" s="281"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="292"/>
-      <c r="D21" s="292"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="280"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="292"/>
-      <c r="G21" s="292"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="292"/>
-      <c r="M21" s="293"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="281"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="292"/>
-      <c r="D22" s="292"/>
+      <c r="C22" s="280"/>
+      <c r="D22" s="280"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="292"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="292"/>
-      <c r="M22" s="293"/>
+      <c r="L22" s="280"/>
+      <c r="M22" s="281"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="292"/>
-      <c r="D23" s="292"/>
+      <c r="C23" s="280"/>
+      <c r="D23" s="280"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="292"/>
-      <c r="G23" s="292"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="280"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="292"/>
-      <c r="M23" s="293"/>
+      <c r="L23" s="280"/>
+      <c r="M23" s="281"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="292"/>
-      <c r="D24" s="292"/>
+      <c r="C24" s="280"/>
+      <c r="D24" s="280"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="292"/>
-      <c r="G24" s="292"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="292"/>
-      <c r="M24" s="293"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="281"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="292"/>
-      <c r="D25" s="292"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="280"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="292"/>
-      <c r="G25" s="292"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="292"/>
-      <c r="M25" s="293"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="281"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>9</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="292"/>
-      <c r="D26" s="292"/>
+      <c r="C26" s="280"/>
+      <c r="D26" s="280"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="292"/>
-      <c r="G26" s="292"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="280"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="292"/>
-      <c r="M26" s="293"/>
+      <c r="L26" s="280"/>
+      <c r="M26" s="281"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="292"/>
-      <c r="D27" s="292"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="280"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="292"/>
-      <c r="G27" s="292"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="280"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="292"/>
-      <c r="M27" s="293"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="281"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>11</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="292"/>
-      <c r="D28" s="292"/>
+      <c r="C28" s="280"/>
+      <c r="D28" s="280"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="292"/>
-      <c r="G28" s="292"/>
+      <c r="F28" s="280"/>
+      <c r="G28" s="280"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="292"/>
-      <c r="M28" s="293"/>
+      <c r="L28" s="280"/>
+      <c r="M28" s="281"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="292"/>
-      <c r="D29" s="292"/>
+      <c r="C29" s="280"/>
+      <c r="D29" s="280"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="292"/>
-      <c r="G29" s="292"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="292"/>
-      <c r="M29" s="293"/>
+      <c r="L29" s="280"/>
+      <c r="M29" s="281"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="292"/>
-      <c r="D30" s="292"/>
+      <c r="C30" s="280"/>
+      <c r="D30" s="280"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="292"/>
-      <c r="G30" s="292"/>
+      <c r="F30" s="280"/>
+      <c r="G30" s="280"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="292"/>
-      <c r="M30" s="293"/>
+      <c r="L30" s="280"/>
+      <c r="M30" s="281"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="292"/>
-      <c r="D31" s="292"/>
+      <c r="C31" s="280"/>
+      <c r="D31" s="280"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="292"/>
-      <c r="G31" s="292"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="292"/>
-      <c r="M31" s="293"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="281"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>15</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="292"/>
-      <c r="D32" s="292"/>
+      <c r="C32" s="280"/>
+      <c r="D32" s="280"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="292"/>
-      <c r="G32" s="292"/>
+      <c r="F32" s="280"/>
+      <c r="G32" s="280"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="292"/>
-      <c r="M32" s="293"/>
+      <c r="L32" s="280"/>
+      <c r="M32" s="281"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="292"/>
+      <c r="C33" s="280"/>
+      <c r="D33" s="280"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="292"/>
-      <c r="G33" s="292"/>
+      <c r="F33" s="280"/>
+      <c r="G33" s="280"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="292"/>
-      <c r="M33" s="293"/>
+      <c r="L33" s="280"/>
+      <c r="M33" s="281"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="292"/>
-      <c r="D34" s="292"/>
+      <c r="C34" s="280"/>
+      <c r="D34" s="280"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="292"/>
-      <c r="G34" s="292"/>
+      <c r="F34" s="280"/>
+      <c r="G34" s="280"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="292"/>
-      <c r="M34" s="293"/>
+      <c r="L34" s="280"/>
+      <c r="M34" s="281"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>18</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="292"/>
+      <c r="C35" s="280"/>
+      <c r="D35" s="280"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="292"/>
-      <c r="G35" s="292"/>
+      <c r="F35" s="280"/>
+      <c r="G35" s="280"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="292"/>
-      <c r="M35" s="293"/>
+      <c r="L35" s="280"/>
+      <c r="M35" s="281"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>19</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="292"/>
+      <c r="C36" s="280"/>
+      <c r="D36" s="280"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="292"/>
-      <c r="G36" s="292"/>
+      <c r="F36" s="280"/>
+      <c r="G36" s="280"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="292"/>
-      <c r="M36" s="293"/>
+      <c r="L36" s="280"/>
+      <c r="M36" s="281"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>20</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="292"/>
+      <c r="C37" s="280"/>
+      <c r="D37" s="280"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="292"/>
-      <c r="G37" s="292"/>
+      <c r="F37" s="280"/>
+      <c r="G37" s="280"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="292"/>
-      <c r="M37" s="293"/>
+      <c r="L37" s="280"/>
+      <c r="M37" s="281"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="294" t="s">
+      <c r="A38" s="282" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="295"/>
-      <c r="C38" s="295"/>
-      <c r="D38" s="296"/>
-      <c r="E38" s="297"/>
-      <c r="F38" s="165"/>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="165"/>
-      <c r="K38" s="165"/>
-      <c r="L38" s="165"/>
-      <c r="M38" s="166"/>
+      <c r="B38" s="283"/>
+      <c r="C38" s="283"/>
+      <c r="D38" s="284"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="166"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="166"/>
+      <c r="K38" s="166"/>
+      <c r="L38" s="166"/>
+      <c r="M38" s="167"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="298" t="s">
+      <c r="A39" s="286" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="299"/>
-      <c r="C39" s="299"/>
-      <c r="D39" s="299"/>
-      <c r="E39" s="299"/>
-      <c r="F39" s="299"/>
-      <c r="G39" s="299"/>
-      <c r="H39" s="299"/>
-      <c r="I39" s="299"/>
-      <c r="J39" s="299"/>
-      <c r="K39" s="299"/>
-      <c r="L39" s="299"/>
-      <c r="M39" s="300"/>
+      <c r="B39" s="287"/>
+      <c r="C39" s="287"/>
+      <c r="D39" s="287"/>
+      <c r="E39" s="287"/>
+      <c r="F39" s="287"/>
+      <c r="G39" s="287"/>
+      <c r="H39" s="287"/>
+      <c r="I39" s="287"/>
+      <c r="J39" s="287"/>
+      <c r="K39" s="287"/>
+      <c r="L39" s="287"/>
+      <c r="M39" s="288"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -7894,20 +7885,20 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="301" t="s">
+      <c r="A42" s="289" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="302"/>
-      <c r="C42" s="302"/>
-      <c r="D42" s="302"/>
-      <c r="E42" s="302"/>
-      <c r="F42" s="302"/>
-      <c r="G42" s="302"/>
-      <c r="H42" s="302"/>
-      <c r="I42" s="302"/>
-      <c r="J42" s="302"/>
-      <c r="K42" s="302"/>
-      <c r="L42" s="302"/>
+      <c r="B42" s="290"/>
+      <c r="C42" s="290"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
+      <c r="H42" s="290"/>
+      <c r="I42" s="290"/>
+      <c r="J42" s="290"/>
+      <c r="K42" s="290"/>
+      <c r="L42" s="290"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="9"/>
@@ -7938,23 +7929,111 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="303" t="s">
+      <c r="A45" s="291" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="304"/>
-      <c r="C45" s="304"/>
-      <c r="D45" s="304"/>
-      <c r="E45" s="304"/>
-      <c r="F45" s="304"/>
-      <c r="G45" s="304"/>
-      <c r="H45" s="304"/>
-      <c r="I45" s="304"/>
-      <c r="J45" s="304"/>
-      <c r="K45" s="304"/>
-      <c r="L45" s="304"/>
+      <c r="B45" s="292"/>
+      <c r="C45" s="292"/>
+      <c r="D45" s="292"/>
+      <c r="E45" s="292"/>
+      <c r="F45" s="292"/>
+      <c r="G45" s="292"/>
+      <c r="H45" s="292"/>
+      <c r="I45" s="292"/>
+      <c r="J45" s="292"/>
+      <c r="K45" s="292"/>
+      <c r="L45" s="292"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -7979,94 +8058,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/templates/配件确认单.xlsx
+++ b/public/templates/配件确认单.xlsx
@@ -2022,7 +2022,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="308">
+  <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2350,14 +2350,299 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2371,12 +2656,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2392,280 +2671,184 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2680,188 +2863,47 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2905,47 +2947,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3002,7 +3011,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3069,7 +3078,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3234,7 +3243,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3399,7 +3408,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3831,7 +3840,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3996,7 +4005,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4328,7 +4337,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4727,7 +4736,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4796,7 +4805,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -5310,7 +5319,7 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:I1"/>
+      <selection activeCell="C6" sqref="C6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5330,112 +5339,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="196"/>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="307" t="s">
+      <c r="A1" s="123"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="125" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="195"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="122"/>
       <c r="L1" s="96"/>
     </row>
-    <row r="2" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A2" s="198" t="s">
+    <row r="2" spans="1:12" s="15" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A2" s="126" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="205" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="133" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="206"/>
-      <c r="I2" s="205" t="s">
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="206"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="209"/>
-    </row>
-    <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A3" s="202" t="s">
+      <c r="J2" s="134"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="137"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A3" s="308" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="210"/>
-      <c r="D3" s="211"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="212" t="s">
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="140" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="213"/>
-      <c r="K3" s="214"/>
-      <c r="L3" s="209"/>
-    </row>
-    <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="203"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="137"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A4" s="309"/>
       <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="187"/>
-      <c r="D4" s="188"/>
-      <c r="E4" s="189"/>
-      <c r="F4" s="188"/>
-      <c r="G4" s="188"/>
-      <c r="H4" s="188"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="191"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="193"/>
-    </row>
-    <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="203"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="120"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A5" s="309"/>
       <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="119" t="s">
+      <c r="C5" s="143"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="212" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="120"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="117"/>
-    </row>
-    <row r="6" spans="1:12" s="76" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A6" s="204"/>
+      <c r="H5" s="213"/>
+      <c r="I5" s="210"/>
+      <c r="J5" s="112"/>
+      <c r="K5" s="112"/>
+      <c r="L5" s="113"/>
+    </row>
+    <row r="6" spans="1:12" s="76" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
+      <c r="A6" s="310"/>
       <c r="B6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="121" t="s">
+      <c r="C6" s="207"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="214" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="122"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="118"/>
+      <c r="H6" s="215"/>
+      <c r="I6" s="210"/>
+      <c r="J6" s="112"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="211"/>
     </row>
     <row r="7" spans="1:12" s="76" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
@@ -5451,198 +5460,198 @@
       <c r="K7" s="84"/>
       <c r="L7" s="84"/>
     </row>
-    <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="168" t="s">
+    <row r="8" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A8" s="174" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="173"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="176" t="s">
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="181"/>
+      <c r="G8" s="148" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="177"/>
-      <c r="I8" s="178"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="179"/>
-      <c r="L8" s="180"/>
-    </row>
-    <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="169"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="182"/>
+      <c r="J8" s="183"/>
+      <c r="K8" s="183"/>
+      <c r="L8" s="184"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A9" s="175"/>
       <c r="B9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="109"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="181" t="s">
+      <c r="C9" s="143"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="109" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="111"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
-    </row>
-    <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="169"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="113"/>
+    </row>
+    <row r="10" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A10" s="175"/>
       <c r="B10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="109"/>
-      <c r="D10" s="110"/>
-      <c r="E10" s="110"/>
-      <c r="F10" s="111"/>
-      <c r="G10" s="181" t="s">
+      <c r="C10" s="143"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="109" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
-    </row>
-    <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="169"/>
+      <c r="H10" s="110"/>
+      <c r="I10" s="145"/>
+      <c r="J10" s="112"/>
+      <c r="K10" s="112"/>
+      <c r="L10" s="113"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A11" s="175"/>
       <c r="B11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="177"/>
-      <c r="G11" s="176" t="s">
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="148" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="177"/>
-      <c r="I11" s="184"/>
-      <c r="J11" s="185"/>
-      <c r="K11" s="185"/>
-      <c r="L11" s="185"/>
-    </row>
-    <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="169"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="150"/>
+      <c r="L11" s="150"/>
+    </row>
+    <row r="12" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A12" s="175"/>
       <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="153"/>
-      <c r="K12" s="153"/>
-      <c r="L12" s="155"/>
-    </row>
-    <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="170"/>
+      <c r="C12" s="159"/>
+      <c r="D12" s="159"/>
+      <c r="E12" s="159"/>
+      <c r="F12" s="159"/>
+      <c r="G12" s="159"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="159"/>
+      <c r="L12" s="161"/>
+    </row>
+    <row r="13" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A13" s="176"/>
       <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
-      <c r="L13" s="157"/>
-    </row>
-    <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="171" t="s">
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+      <c r="L13" s="163"/>
+    </row>
+    <row r="14" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A14" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
-    </row>
-    <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="171"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="164"/>
-    </row>
-    <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="171"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="164"/>
-    </row>
-    <row r="17" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="171"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="164"/>
-    </row>
-    <row r="18" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="172"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="167"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A15" s="177"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="170"/>
+    </row>
+    <row r="16" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A16" s="177"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="170"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A17" s="177"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1">
+      <c r="A18" s="178"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="173"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="147" t="s">
+      <c r="A19" s="151" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="147"/>
-      <c r="C19" s="147"/>
-      <c r="D19" s="147"/>
-      <c r="E19" s="148"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="147"/>
-      <c r="H19" s="147"/>
-      <c r="I19" s="149"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="147"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="151"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="151"/>
+      <c r="G19" s="151"/>
+      <c r="H19" s="151"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="154"/>
+      <c r="K19" s="151"/>
     </row>
     <row r="20" spans="1:12" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -5673,12 +5682,12 @@
       <c r="J20" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="151" t="s">
+      <c r="K20" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="152"/>
-    </row>
-    <row r="21" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="L20" s="156"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1">
       <c r="A21" s="6">
         <v>1</v>
       </c>
@@ -5691,10 +5700,10 @@
       <c r="H21" s="98"/>
       <c r="I21" s="98"/>
       <c r="J21" s="99"/>
-      <c r="K21" s="123"/>
-      <c r="L21" s="124"/>
-    </row>
-    <row r="22" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K21" s="157"/>
+      <c r="L21" s="158"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1">
       <c r="A22" s="6">
         <v>2</v>
       </c>
@@ -5707,10 +5716,10 @@
       <c r="H22" s="99"/>
       <c r="I22" s="99"/>
       <c r="J22" s="106"/>
-      <c r="K22" s="123"/>
-      <c r="L22" s="124"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K22" s="157"/>
+      <c r="L22" s="158"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1">
       <c r="A23" s="6">
         <v>3</v>
       </c>
@@ -5723,10 +5732,10 @@
       <c r="H23" s="99"/>
       <c r="I23" s="99"/>
       <c r="J23" s="99"/>
-      <c r="K23" s="123"/>
-      <c r="L23" s="124"/>
-    </row>
-    <row r="24" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K23" s="157"/>
+      <c r="L23" s="158"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.95" customHeight="1">
       <c r="A24" s="6">
         <v>4</v>
       </c>
@@ -5739,10 +5748,10 @@
       <c r="H24" s="99"/>
       <c r="I24" s="99"/>
       <c r="J24" s="106"/>
-      <c r="K24" s="123"/>
-      <c r="L24" s="124"/>
-    </row>
-    <row r="25" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K24" s="157"/>
+      <c r="L24" s="158"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.95" customHeight="1">
       <c r="A25" s="6">
         <v>5</v>
       </c>
@@ -5755,10 +5764,10 @@
       <c r="H25" s="99"/>
       <c r="I25" s="99"/>
       <c r="J25" s="99"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="124"/>
-    </row>
-    <row r="26" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K25" s="157"/>
+      <c r="L25" s="158"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.95" customHeight="1">
       <c r="A26" s="6">
         <v>6</v>
       </c>
@@ -5771,10 +5780,10 @@
       <c r="H26" s="99"/>
       <c r="I26" s="99"/>
       <c r="J26" s="106"/>
-      <c r="K26" s="123"/>
-      <c r="L26" s="124"/>
-    </row>
-    <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K26" s="157"/>
+      <c r="L26" s="158"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.95" customHeight="1">
       <c r="A27" s="6">
         <v>7</v>
       </c>
@@ -5787,10 +5796,10 @@
       <c r="H27" s="99"/>
       <c r="I27" s="99"/>
       <c r="J27" s="99"/>
-      <c r="K27" s="123"/>
-      <c r="L27" s="124"/>
-    </row>
-    <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K27" s="157"/>
+      <c r="L27" s="158"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.95" customHeight="1">
       <c r="A28" s="6">
         <v>8</v>
       </c>
@@ -5803,10 +5812,10 @@
       <c r="H28" s="99"/>
       <c r="I28" s="99"/>
       <c r="J28" s="106"/>
-      <c r="K28" s="123"/>
-      <c r="L28" s="124"/>
-    </row>
-    <row r="29" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K28" s="157"/>
+      <c r="L28" s="158"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.95" customHeight="1">
       <c r="A29" s="6">
         <v>9</v>
       </c>
@@ -5819,10 +5828,10 @@
       <c r="H29" s="99"/>
       <c r="I29" s="99"/>
       <c r="J29" s="99"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="124"/>
-    </row>
-    <row r="30" spans="1:12" ht="20.100000000000001" customHeight="1">
+      <c r="K29" s="157"/>
+      <c r="L29" s="158"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.95" customHeight="1">
       <c r="A30" s="6">
         <v>10</v>
       </c>
@@ -5835,123 +5844,170 @@
       <c r="H30" s="99"/>
       <c r="I30" s="99"/>
       <c r="J30" s="106"/>
-      <c r="K30" s="123"/>
-      <c r="L30" s="124"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
     </row>
     <row r="31" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A31" s="128" t="s">
+      <c r="A31" s="188" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
+      <c r="B31" s="189"/>
+      <c r="C31" s="189"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
+      <c r="I31" s="190"/>
       <c r="J31" s="94"/>
-      <c r="K31" s="123"/>
-      <c r="L31" s="124"/>
+      <c r="K31" s="157"/>
+      <c r="L31" s="158"/>
     </row>
     <row r="32" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A32" s="137" t="s">
+      <c r="A32" s="197" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="139"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="198"/>
+      <c r="H32" s="198"/>
+      <c r="I32" s="199"/>
       <c r="J32" s="95"/>
-      <c r="K32" s="138"/>
-      <c r="L32" s="139"/>
+      <c r="K32" s="198"/>
+      <c r="L32" s="199"/>
     </row>
     <row r="33" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="137" t="s">
+      <c r="A33" s="197" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138"/>
-      <c r="D33" s="138"/>
-      <c r="E33" s="138"/>
-      <c r="F33" s="138"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="139"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="198"/>
+      <c r="H33" s="198"/>
+      <c r="I33" s="199"/>
       <c r="J33" s="95"/>
-      <c r="K33" s="138"/>
-      <c r="L33" s="139"/>
+      <c r="K33" s="198"/>
+      <c r="L33" s="199"/>
     </row>
     <row r="34" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="140" t="s">
+      <c r="A34" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="141"/>
-      <c r="C34" s="141"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="141"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="141"/>
-      <c r="I34" s="143"/>
-      <c r="J34" s="144"/>
-      <c r="K34" s="145"/>
-      <c r="L34" s="146"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="202"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="205"/>
+      <c r="L34" s="206"/>
     </row>
     <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A35" s="131" t="s">
+      <c r="A35" s="191" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="132"/>
-      <c r="C35" s="132"/>
-      <c r="D35" s="132"/>
-      <c r="E35" s="132"/>
-      <c r="F35" s="132"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="132"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="132"/>
-      <c r="K35" s="132"/>
-      <c r="L35" s="133"/>
+      <c r="B35" s="192"/>
+      <c r="C35" s="192"/>
+      <c r="D35" s="192"/>
+      <c r="E35" s="192"/>
+      <c r="F35" s="192"/>
+      <c r="G35" s="192"/>
+      <c r="H35" s="192"/>
+      <c r="I35" s="192"/>
+      <c r="J35" s="192"/>
+      <c r="K35" s="192"/>
+      <c r="L35" s="193"/>
     </row>
     <row r="36" spans="1:12" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A36" s="134" t="s">
+      <c r="A36" s="194" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
-      <c r="D36" s="135"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="135"/>
-      <c r="G36" s="135"/>
-      <c r="H36" s="135"/>
-      <c r="I36" s="135"/>
-      <c r="J36" s="135"/>
-      <c r="K36" s="135"/>
-      <c r="L36" s="136"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="196"/>
     </row>
     <row r="37" spans="1:12" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A37" s="125" t="s">
+      <c r="A37" s="185" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="126"/>
-      <c r="C37" s="126"/>
-      <c r="D37" s="126"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="126"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="126"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="126"/>
-      <c r="L37" s="127"/>
+      <c r="B37" s="186"/>
+      <c r="C37" s="186"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="186"/>
+      <c r="J37" s="186"/>
+      <c r="K37" s="186"/>
+      <c r="L37" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="63">
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A36:L36"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="C4:L4"/>
@@ -5968,53 +6024,6 @@
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6053,358 +6062,358 @@
         <v>0</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="D1" s="217" t="s">
+      <c r="D1" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
+      <c r="E1" s="278"/>
+      <c r="F1" s="278"/>
+      <c r="G1" s="278"/>
+      <c r="H1" s="278"/>
+      <c r="I1" s="278"/>
+      <c r="J1" s="278"/>
+      <c r="K1" s="278"/>
       <c r="L1" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="275" t="s">
+      <c r="A2" s="216" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="275"/>
-      <c r="C2" s="275"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="218"/>
-      <c r="F2" s="218"/>
-      <c r="G2" s="218"/>
-      <c r="H2" s="218"/>
-      <c r="I2" s="218"/>
-      <c r="J2" s="218"/>
-      <c r="K2" s="218"/>
+      <c r="B2" s="216"/>
+      <c r="C2" s="216"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="279"/>
+      <c r="K2" s="279"/>
       <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="276" t="s">
+      <c r="A3" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="277"/>
-      <c r="C3" s="278" t="s">
+      <c r="B3" s="218"/>
+      <c r="C3" s="219" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="219"/>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="278" t="s">
+      <c r="F3" s="219" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="278"/>
-      <c r="H3" s="277" t="s">
+      <c r="G3" s="219"/>
+      <c r="H3" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="279"/>
-      <c r="J3" s="262" t="s">
+      <c r="I3" s="220"/>
+      <c r="J3" s="221" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="263"/>
-      <c r="L3" s="264"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="223"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="202" t="s">
+      <c r="A4" s="130" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="224" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
-      <c r="F4" s="265"/>
-      <c r="G4" s="265"/>
-      <c r="H4" s="266" t="s">
+      <c r="D4" s="224"/>
+      <c r="E4" s="224"/>
+      <c r="F4" s="224"/>
+      <c r="G4" s="224"/>
+      <c r="H4" s="225" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="267"/>
-      <c r="J4" s="268" t="s">
+      <c r="I4" s="226"/>
+      <c r="J4" s="227" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="247"/>
-      <c r="L4" s="269"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="229"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="203"/>
+      <c r="A5" s="131"/>
       <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="270" t="s">
+      <c r="C5" s="230" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="270"/>
-      <c r="E5" s="271"/>
-      <c r="F5" s="270"/>
-      <c r="G5" s="270"/>
-      <c r="H5" s="270"/>
-      <c r="I5" s="272"/>
-      <c r="J5" s="273"/>
-      <c r="K5" s="270"/>
-      <c r="L5" s="274"/>
+      <c r="D5" s="230"/>
+      <c r="E5" s="231"/>
+      <c r="F5" s="230"/>
+      <c r="G5" s="230"/>
+      <c r="H5" s="230"/>
+      <c r="I5" s="232"/>
+      <c r="J5" s="233"/>
+      <c r="K5" s="230"/>
+      <c r="L5" s="234"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="203"/>
+      <c r="A6" s="131"/>
       <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="183" t="s">
+      <c r="C6" s="146" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183"/>
-      <c r="F6" s="242" t="s">
+      <c r="D6" s="146"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="235" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="242"/>
-      <c r="H6" s="183" t="s">
+      <c r="G6" s="235"/>
+      <c r="H6" s="146" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="238"/>
-      <c r="J6" s="239"/>
-      <c r="K6" s="183"/>
-      <c r="L6" s="219"/>
+      <c r="I6" s="236"/>
+      <c r="J6" s="237"/>
+      <c r="K6" s="146"/>
+      <c r="L6" s="238"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="204"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="257" t="s">
+      <c r="C7" s="239" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="257"/>
-      <c r="E7" s="257"/>
-      <c r="F7" s="258" t="s">
+      <c r="D7" s="239"/>
+      <c r="E7" s="239"/>
+      <c r="F7" s="240" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="258"/>
-      <c r="H7" s="257" t="s">
+      <c r="G7" s="240"/>
+      <c r="H7" s="239" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="259"/>
-      <c r="J7" s="260"/>
-      <c r="K7" s="257"/>
-      <c r="L7" s="261"/>
+      <c r="I7" s="241"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="239"/>
+      <c r="L7" s="243"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="174" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="247" t="s">
+      <c r="C8" s="228" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="247"/>
-      <c r="E8" s="247"/>
-      <c r="F8" s="248" t="s">
+      <c r="D8" s="228"/>
+      <c r="E8" s="228"/>
+      <c r="F8" s="244" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="248"/>
-      <c r="H8" s="249" t="s">
+      <c r="G8" s="244"/>
+      <c r="H8" s="245" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="250"/>
-      <c r="J8" s="251"/>
-      <c r="K8" s="252"/>
-      <c r="L8" s="253"/>
+      <c r="I8" s="246"/>
+      <c r="J8" s="247"/>
+      <c r="K8" s="248"/>
+      <c r="L8" s="249"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="169"/>
+      <c r="A9" s="175"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="183" t="s">
+      <c r="C9" s="146" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="242" t="s">
+      <c r="D9" s="146"/>
+      <c r="E9" s="146"/>
+      <c r="F9" s="235" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="242"/>
-      <c r="H9" s="254" t="s">
+      <c r="G9" s="235"/>
+      <c r="H9" s="250" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="238"/>
-      <c r="J9" s="255"/>
-      <c r="K9" s="254"/>
-      <c r="L9" s="256"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="251"/>
+      <c r="K9" s="250"/>
+      <c r="L9" s="252"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="169"/>
+      <c r="A10" s="175"/>
       <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="183" t="s">
+      <c r="C10" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
-      <c r="F10" s="242" t="s">
+      <c r="D10" s="146"/>
+      <c r="E10" s="146"/>
+      <c r="F10" s="235" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="242"/>
-      <c r="H10" s="243" t="s">
+      <c r="G10" s="235"/>
+      <c r="H10" s="253" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="244"/>
-      <c r="J10" s="245"/>
-      <c r="K10" s="243"/>
-      <c r="L10" s="246"/>
+      <c r="I10" s="254"/>
+      <c r="J10" s="255"/>
+      <c r="K10" s="253"/>
+      <c r="L10" s="256"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="215"/>
+      <c r="A11" s="276"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="183">
+      <c r="C11" s="146">
         <v>33333333</v>
       </c>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="242" t="s">
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="235" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="242"/>
-      <c r="H11" s="243" t="s">
+      <c r="G11" s="235"/>
+      <c r="H11" s="253" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="244"/>
-      <c r="J11" s="245"/>
-      <c r="K11" s="243"/>
-      <c r="L11" s="246"/>
+      <c r="I11" s="254"/>
+      <c r="J11" s="255"/>
+      <c r="K11" s="253"/>
+      <c r="L11" s="256"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="215"/>
+      <c r="A12" s="276"/>
       <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="183"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="238"/>
-      <c r="J12" s="239"/>
-      <c r="K12" s="183"/>
-      <c r="L12" s="219"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="236"/>
+      <c r="J12" s="237"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="238"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="216"/>
+      <c r="A13" s="277"/>
       <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
-      <c r="G13" s="240"/>
-      <c r="H13" s="240"/>
-      <c r="I13" s="240"/>
-      <c r="J13" s="240"/>
-      <c r="K13" s="240"/>
-      <c r="L13" s="241"/>
+      <c r="C13" s="257"/>
+      <c r="D13" s="257"/>
+      <c r="E13" s="257"/>
+      <c r="F13" s="257"/>
+      <c r="G13" s="257"/>
+      <c r="H13" s="257"/>
+      <c r="I13" s="257"/>
+      <c r="J13" s="257"/>
+      <c r="K13" s="257"/>
+      <c r="L13" s="258"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="203" t="s">
+      <c r="A14" s="131" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="158"/>
-      <c r="C14" s="159"/>
-      <c r="D14" s="160"/>
-      <c r="E14" s="160"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="160"/>
-      <c r="H14" s="160"/>
-      <c r="I14" s="160"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="161"/>
+      <c r="B14" s="164"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="166"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="166"/>
+      <c r="L14" s="167"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="203"/>
-      <c r="B15" s="162"/>
-      <c r="C15" s="163"/>
-      <c r="D15" s="163"/>
-      <c r="E15" s="163"/>
-      <c r="F15" s="163"/>
-      <c r="G15" s="163"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="163"/>
-      <c r="J15" s="163"/>
-      <c r="K15" s="163"/>
-      <c r="L15" s="164"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="168"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="169"/>
+      <c r="F15" s="169"/>
+      <c r="G15" s="169"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="169"/>
+      <c r="K15" s="169"/>
+      <c r="L15" s="170"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="203"/>
-      <c r="B16" s="162"/>
-      <c r="C16" s="163"/>
-      <c r="D16" s="163"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="163"/>
-      <c r="G16" s="163"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="163"/>
-      <c r="J16" s="163"/>
-      <c r="K16" s="163"/>
-      <c r="L16" s="164"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="169"/>
+      <c r="F16" s="169"/>
+      <c r="G16" s="169"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="169"/>
+      <c r="K16" s="169"/>
+      <c r="L16" s="170"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="203"/>
-      <c r="B17" s="162"/>
-      <c r="C17" s="163"/>
-      <c r="D17" s="163"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="163"/>
-      <c r="G17" s="163"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="163"/>
-      <c r="J17" s="163"/>
-      <c r="K17" s="163"/>
-      <c r="L17" s="164"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="204"/>
-      <c r="B18" s="165"/>
-      <c r="C18" s="166"/>
-      <c r="D18" s="166"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="166"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="166"/>
-      <c r="L18" s="167"/>
+      <c r="A18" s="132"/>
+      <c r="B18" s="171"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="173"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="230" t="s">
+      <c r="A19" s="259" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="230"/>
-      <c r="C19" s="230"/>
-      <c r="D19" s="230"/>
-      <c r="E19" s="226"/>
-      <c r="F19" s="230"/>
-      <c r="G19" s="230"/>
-      <c r="H19" s="230"/>
-      <c r="I19" s="227"/>
-      <c r="J19" s="228"/>
-      <c r="K19" s="230"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="259"/>
+      <c r="D19" s="259"/>
+      <c r="E19" s="260"/>
+      <c r="F19" s="259"/>
+      <c r="G19" s="259"/>
+      <c r="H19" s="259"/>
+      <c r="I19" s="261"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="259"/>
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -6435,10 +6444,10 @@
       <c r="J20" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="236" t="s">
+      <c r="K20" s="263" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="237"/>
+      <c r="L20" s="264"/>
     </row>
     <row r="21" spans="1:14" ht="27.95" customHeight="1">
       <c r="A21" s="6">
@@ -6471,26 +6480,26 @@
       <c r="J21" s="59">
         <v>1200</v>
       </c>
-      <c r="K21" s="183"/>
-      <c r="L21" s="219"/>
+      <c r="K21" s="146"/>
+      <c r="L21" s="238"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="220" t="s">
+      <c r="A22" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="221"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="222"/>
+      <c r="B22" s="266"/>
+      <c r="C22" s="266"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="266"/>
+      <c r="F22" s="266"/>
+      <c r="G22" s="266"/>
+      <c r="H22" s="266"/>
+      <c r="I22" s="267"/>
       <c r="J22" s="66">
         <v>1200</v>
       </c>
-      <c r="K22" s="183"/>
-      <c r="L22" s="219"/>
+      <c r="K22" s="146"/>
+      <c r="L22" s="238"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1">
       <c r="A23" s="6">
@@ -6523,29 +6532,29 @@
       <c r="J23" s="59">
         <v>2950</v>
       </c>
-      <c r="K23" s="183"/>
-      <c r="L23" s="219"/>
+      <c r="K23" s="146"/>
+      <c r="L23" s="238"/>
       <c r="N23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="220" t="s">
+      <c r="A24" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="221"/>
-      <c r="C24" s="221"/>
-      <c r="D24" s="221"/>
-      <c r="E24" s="221"/>
-      <c r="F24" s="221"/>
-      <c r="G24" s="221"/>
-      <c r="H24" s="221"/>
-      <c r="I24" s="222"/>
+      <c r="B24" s="266"/>
+      <c r="C24" s="266"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="266"/>
+      <c r="F24" s="266"/>
+      <c r="G24" s="266"/>
+      <c r="H24" s="266"/>
+      <c r="I24" s="267"/>
       <c r="J24" s="66">
         <v>2950</v>
       </c>
-      <c r="K24" s="183"/>
-      <c r="L24" s="219"/>
+      <c r="K24" s="146"/>
+      <c r="L24" s="238"/>
     </row>
     <row r="25" spans="1:14" ht="27" customHeight="1">
       <c r="A25" s="6">
@@ -6578,26 +6587,26 @@
       <c r="J25" s="59">
         <v>1375</v>
       </c>
-      <c r="K25" s="183"/>
-      <c r="L25" s="219"/>
+      <c r="K25" s="146"/>
+      <c r="L25" s="238"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="220" t="s">
+      <c r="A26" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="221"/>
-      <c r="C26" s="221"/>
-      <c r="D26" s="221"/>
-      <c r="E26" s="221"/>
-      <c r="F26" s="221"/>
-      <c r="G26" s="221"/>
-      <c r="H26" s="221"/>
-      <c r="I26" s="222"/>
+      <c r="B26" s="266"/>
+      <c r="C26" s="266"/>
+      <c r="D26" s="266"/>
+      <c r="E26" s="266"/>
+      <c r="F26" s="266"/>
+      <c r="G26" s="266"/>
+      <c r="H26" s="266"/>
+      <c r="I26" s="267"/>
       <c r="J26" s="66">
         <v>1375</v>
       </c>
-      <c r="K26" s="183"/>
-      <c r="L26" s="219"/>
+      <c r="K26" s="146"/>
+      <c r="L26" s="238"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="42">
@@ -6628,26 +6637,26 @@
       <c r="J27" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K27" s="183"/>
-      <c r="L27" s="219"/>
+      <c r="K27" s="146"/>
+      <c r="L27" s="238"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="220" t="s">
+      <c r="A28" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="221"/>
-      <c r="C28" s="221"/>
-      <c r="D28" s="221"/>
-      <c r="E28" s="221"/>
-      <c r="F28" s="221"/>
-      <c r="G28" s="221"/>
-      <c r="H28" s="221"/>
-      <c r="I28" s="222"/>
+      <c r="B28" s="266"/>
+      <c r="C28" s="266"/>
+      <c r="D28" s="266"/>
+      <c r="E28" s="266"/>
+      <c r="F28" s="266"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="266"/>
+      <c r="I28" s="267"/>
       <c r="J28" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K28" s="183"/>
-      <c r="L28" s="219"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="238"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="42">
@@ -6680,26 +6689,26 @@
       <c r="J29" s="70">
         <v>2900</v>
       </c>
-      <c r="K29" s="183"/>
-      <c r="L29" s="219"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="238"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="220" t="s">
+      <c r="A30" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="221"/>
-      <c r="C30" s="221"/>
-      <c r="D30" s="221"/>
-      <c r="E30" s="221"/>
-      <c r="F30" s="221"/>
-      <c r="G30" s="221"/>
-      <c r="H30" s="221"/>
-      <c r="I30" s="222"/>
+      <c r="B30" s="266"/>
+      <c r="C30" s="266"/>
+      <c r="D30" s="266"/>
+      <c r="E30" s="266"/>
+      <c r="F30" s="266"/>
+      <c r="G30" s="266"/>
+      <c r="H30" s="266"/>
+      <c r="I30" s="267"/>
       <c r="J30" s="70">
         <v>2900</v>
       </c>
-      <c r="K30" s="109"/>
-      <c r="L30" s="223"/>
+      <c r="K30" s="143"/>
+      <c r="L30" s="280"/>
     </row>
     <row r="31" spans="1:14" ht="24">
       <c r="A31" s="6">
@@ -6730,8 +6739,8 @@
       <c r="J31" s="59">
         <v>7087.5</v>
       </c>
-      <c r="K31" s="183"/>
-      <c r="L31" s="219"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="238"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
@@ -6762,8 +6771,8 @@
       <c r="J32" s="59">
         <v>2900</v>
       </c>
-      <c r="K32" s="183"/>
-      <c r="L32" s="219"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="238"/>
     </row>
     <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
@@ -6796,27 +6805,27 @@
       <c r="J33" s="59">
         <v>3510</v>
       </c>
-      <c r="K33" s="183"/>
-      <c r="L33" s="219"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="238"/>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="220" t="s">
+      <c r="A34" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="221"/>
-      <c r="C34" s="221"/>
-      <c r="D34" s="221"/>
-      <c r="E34" s="221"/>
-      <c r="F34" s="221"/>
-      <c r="G34" s="221"/>
-      <c r="H34" s="221"/>
-      <c r="I34" s="222"/>
+      <c r="B34" s="266"/>
+      <c r="C34" s="266"/>
+      <c r="D34" s="266"/>
+      <c r="E34" s="266"/>
+      <c r="F34" s="266"/>
+      <c r="G34" s="266"/>
+      <c r="H34" s="266"/>
+      <c r="I34" s="267"/>
       <c r="J34" s="66">
         <f>J31+J32+J33</f>
         <v>13497.5</v>
       </c>
-      <c r="K34" s="183"/>
-      <c r="L34" s="219"/>
+      <c r="K34" s="146"/>
+      <c r="L34" s="238"/>
     </row>
     <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
@@ -6847,26 +6856,26 @@
       <c r="J35" s="59">
         <v>96182</v>
       </c>
-      <c r="K35" s="183"/>
-      <c r="L35" s="219"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="238"/>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="220" t="s">
+      <c r="A36" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="221"/>
-      <c r="C36" s="221"/>
-      <c r="D36" s="221"/>
-      <c r="E36" s="221"/>
-      <c r="F36" s="221"/>
-      <c r="G36" s="221"/>
-      <c r="H36" s="221"/>
-      <c r="I36" s="222"/>
+      <c r="B36" s="266"/>
+      <c r="C36" s="266"/>
+      <c r="D36" s="266"/>
+      <c r="E36" s="266"/>
+      <c r="F36" s="266"/>
+      <c r="G36" s="266"/>
+      <c r="H36" s="266"/>
+      <c r="I36" s="267"/>
       <c r="J36" s="66">
         <v>96182</v>
       </c>
-      <c r="K36" s="183"/>
-      <c r="L36" s="219"/>
+      <c r="K36" s="146"/>
+      <c r="L36" s="238"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="6">
@@ -6897,79 +6906,79 @@
       <c r="J37" s="59">
         <v>32727</v>
       </c>
-      <c r="K37" s="183"/>
-      <c r="L37" s="219"/>
+      <c r="K37" s="146"/>
+      <c r="L37" s="238"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="231" t="s">
+      <c r="A38" s="271" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="232"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="232"/>
-      <c r="E38" s="232"/>
-      <c r="F38" s="232"/>
-      <c r="G38" s="232"/>
-      <c r="H38" s="232"/>
-      <c r="I38" s="233"/>
+      <c r="B38" s="272"/>
+      <c r="C38" s="272"/>
+      <c r="D38" s="272"/>
+      <c r="E38" s="272"/>
+      <c r="F38" s="272"/>
+      <c r="G38" s="272"/>
+      <c r="H38" s="272"/>
+      <c r="I38" s="273"/>
       <c r="J38" s="72">
         <v>32727</v>
       </c>
-      <c r="K38" s="234"/>
-      <c r="L38" s="235"/>
+      <c r="K38" s="274"/>
+      <c r="L38" s="275"/>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="137" t="s">
+      <c r="A39" s="197" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="139"/>
+      <c r="B39" s="198"/>
+      <c r="C39" s="198"/>
+      <c r="D39" s="198"/>
+      <c r="E39" s="198"/>
+      <c r="F39" s="198"/>
+      <c r="G39" s="198"/>
+      <c r="H39" s="198"/>
+      <c r="I39" s="199"/>
       <c r="J39" s="73">
         <f>J21+J23+J25+J31+J32+J33+J35+J37</f>
         <v>147931.5</v>
       </c>
-      <c r="K39" s="138"/>
-      <c r="L39" s="139"/>
+      <c r="K39" s="198"/>
+      <c r="L39" s="199"/>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="197" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="139"/>
+      <c r="B40" s="198"/>
+      <c r="C40" s="198"/>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198"/>
+      <c r="F40" s="198"/>
+      <c r="G40" s="198"/>
+      <c r="H40" s="198"/>
+      <c r="I40" s="199"/>
       <c r="J40" s="73">
         <v>162724.65</v>
       </c>
-      <c r="K40" s="138"/>
-      <c r="L40" s="139"/>
+      <c r="K40" s="198"/>
+      <c r="L40" s="199"/>
     </row>
     <row r="41" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="140" t="s">
+      <c r="A41" s="200" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="141"/>
-      <c r="C41" s="141"/>
-      <c r="D41" s="141"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="141"/>
-      <c r="G41" s="141"/>
-      <c r="H41" s="141"/>
-      <c r="I41" s="143"/>
-      <c r="J41" s="144"/>
-      <c r="K41" s="145"/>
-      <c r="L41" s="146"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="202"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="206"/>
     </row>
     <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="8"/>
@@ -6986,19 +6995,19 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="224" t="s">
+      <c r="A43" s="268" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="225"/>
-      <c r="C43" s="225"/>
-      <c r="D43" s="225"/>
-      <c r="E43" s="226"/>
-      <c r="F43" s="225"/>
-      <c r="G43" s="225"/>
-      <c r="H43" s="225"/>
-      <c r="I43" s="227"/>
-      <c r="J43" s="228"/>
-      <c r="K43" s="225"/>
+      <c r="B43" s="269"/>
+      <c r="C43" s="269"/>
+      <c r="D43" s="269"/>
+      <c r="E43" s="260"/>
+      <c r="F43" s="269"/>
+      <c r="G43" s="269"/>
+      <c r="H43" s="269"/>
+      <c r="I43" s="261"/>
+      <c r="J43" s="262"/>
+      <c r="K43" s="269"/>
     </row>
     <row r="44" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="55"/>
@@ -7027,80 +7036,22 @@
       <c r="K45" s="56"/>
     </row>
     <row r="46" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="229" t="s">
+      <c r="A46" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="230"/>
-      <c r="C46" s="230"/>
-      <c r="D46" s="230"/>
-      <c r="E46" s="226"/>
-      <c r="F46" s="230"/>
-      <c r="G46" s="230"/>
-      <c r="H46" s="230"/>
-      <c r="I46" s="227"/>
-      <c r="J46" s="228"/>
-      <c r="K46" s="230"/>
+      <c r="B46" s="259"/>
+      <c r="C46" s="259"/>
+      <c r="D46" s="259"/>
+      <c r="E46" s="260"/>
+      <c r="F46" s="259"/>
+      <c r="G46" s="259"/>
+      <c r="H46" s="259"/>
+      <c r="I46" s="261"/>
+      <c r="J46" s="262"/>
+      <c r="K46" s="259"/>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="K39:L39"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A18"/>
@@ -7117,6 +7068,64 @@
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.39305555555555599" footer="0.51180555555555596"/>
@@ -7147,305 +7156,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="307" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="293"/>
-      <c r="E1" s="293"/>
-      <c r="F1" s="293"/>
-      <c r="G1" s="293"/>
-      <c r="H1" s="293"/>
-      <c r="I1" s="293"/>
-      <c r="J1" s="293"/>
-      <c r="K1" s="293"/>
-      <c r="L1" s="293"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
       <c r="M1" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="293"/>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
+      <c r="A2" s="307"/>
+      <c r="B2" s="307"/>
+      <c r="C2" s="307"/>
+      <c r="D2" s="307"/>
+      <c r="E2" s="307"/>
+      <c r="F2" s="307"/>
+      <c r="G2" s="307"/>
+      <c r="H2" s="307"/>
+      <c r="I2" s="307"/>
+      <c r="J2" s="307"/>
+      <c r="K2" s="307"/>
+      <c r="L2" s="307"/>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="281" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="304"/>
-      <c r="C3" s="278"/>
-      <c r="D3" s="278"/>
-      <c r="E3" s="304" t="s">
+      <c r="B3" s="282"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="305"/>
-      <c r="G3" s="278"/>
-      <c r="H3" s="278"/>
-      <c r="I3" s="304" t="s">
+      <c r="F3" s="283"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="282" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="304"/>
-      <c r="K3" s="263"/>
-      <c r="L3" s="263"/>
-      <c r="M3" s="264"/>
+      <c r="J3" s="282"/>
+      <c r="K3" s="222"/>
+      <c r="L3" s="222"/>
+      <c r="M3" s="223"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="306" t="s">
+      <c r="A4" s="284" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="306"/>
-      <c r="G4" s="306"/>
-      <c r="H4" s="306"/>
-      <c r="I4" s="306"/>
-      <c r="J4" s="306"/>
-      <c r="K4" s="306"/>
-      <c r="L4" s="306"/>
+      <c r="B4" s="284"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284"/>
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284"/>
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="300" t="s">
+      <c r="A5" s="285" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="265"/>
-      <c r="D5" s="265"/>
-      <c r="E5" s="265"/>
-      <c r="F5" s="265"/>
-      <c r="G5" s="265"/>
-      <c r="H5" s="265"/>
-      <c r="I5" s="296" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="286" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="296"/>
-      <c r="K5" s="247"/>
-      <c r="L5" s="247"/>
-      <c r="M5" s="269"/>
+      <c r="J5" s="286"/>
+      <c r="K5" s="228"/>
+      <c r="L5" s="228"/>
+      <c r="M5" s="229"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="298" t="s">
+      <c r="A6" s="287" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="299"/>
-      <c r="C6" s="271" t="s">
+      <c r="B6" s="288"/>
+      <c r="C6" s="231" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="271"/>
-      <c r="E6" s="271"/>
-      <c r="F6" s="271"/>
-      <c r="G6" s="271"/>
-      <c r="H6" s="271"/>
-      <c r="I6" s="271"/>
-      <c r="J6" s="271"/>
-      <c r="K6" s="271"/>
-      <c r="L6" s="271"/>
-      <c r="M6" s="302"/>
+      <c r="D6" s="231"/>
+      <c r="E6" s="231"/>
+      <c r="F6" s="231"/>
+      <c r="G6" s="231"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
+      <c r="J6" s="231"/>
+      <c r="K6" s="231"/>
+      <c r="L6" s="231"/>
+      <c r="M6" s="289"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="298" t="s">
+      <c r="A7" s="287" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="299"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="183"/>
-      <c r="F7" s="183"/>
-      <c r="G7" s="299" t="s">
+      <c r="B7" s="288"/>
+      <c r="C7" s="146"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="146"/>
+      <c r="F7" s="146"/>
+      <c r="G7" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="299"/>
-      <c r="I7" s="183"/>
-      <c r="J7" s="183"/>
-      <c r="K7" s="183"/>
-      <c r="L7" s="183"/>
-      <c r="M7" s="219"/>
+      <c r="H7" s="288"/>
+      <c r="I7" s="146"/>
+      <c r="J7" s="146"/>
+      <c r="K7" s="146"/>
+      <c r="L7" s="146"/>
+      <c r="M7" s="238"/>
       <c r="N7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="294" t="s">
+      <c r="A8" s="290" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="240"/>
-      <c r="C8" s="257"/>
-      <c r="D8" s="257"/>
-      <c r="E8" s="257"/>
-      <c r="F8" s="257"/>
-      <c r="G8" s="240" t="s">
+      <c r="B8" s="257"/>
+      <c r="C8" s="239"/>
+      <c r="D8" s="239"/>
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="257" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="240"/>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="261"/>
+      <c r="H8" s="257"/>
+      <c r="I8" s="239"/>
+      <c r="J8" s="239"/>
+      <c r="K8" s="239"/>
+      <c r="L8" s="239"/>
+      <c r="M8" s="243"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="295" t="s">
+      <c r="A9" s="291" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="295"/>
-      <c r="C9" s="295"/>
-      <c r="D9" s="295"/>
-      <c r="E9" s="295"/>
-      <c r="F9" s="295"/>
-      <c r="G9" s="295"/>
-      <c r="H9" s="295"/>
-      <c r="I9" s="295"/>
-      <c r="J9" s="295"/>
-      <c r="K9" s="295"/>
-      <c r="L9" s="295"/>
+      <c r="B9" s="291"/>
+      <c r="C9" s="291"/>
+      <c r="D9" s="291"/>
+      <c r="E9" s="291"/>
+      <c r="F9" s="291"/>
+      <c r="G9" s="291"/>
+      <c r="H9" s="291"/>
+      <c r="I9" s="291"/>
+      <c r="J9" s="291"/>
+      <c r="K9" s="291"/>
+      <c r="L9" s="291"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="300" t="s">
+      <c r="A10" s="285" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="296"/>
-      <c r="C10" s="247"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="247"/>
-      <c r="F10" s="247"/>
-      <c r="G10" s="296" t="s">
+      <c r="B10" s="286"/>
+      <c r="C10" s="228"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="228"/>
+      <c r="G10" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="296"/>
-      <c r="I10" s="252" t="s">
+      <c r="H10" s="286"/>
+      <c r="I10" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="252"/>
-      <c r="K10" s="252"/>
-      <c r="L10" s="252"/>
-      <c r="M10" s="253"/>
+      <c r="J10" s="248"/>
+      <c r="K10" s="248"/>
+      <c r="L10" s="248"/>
+      <c r="M10" s="249"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="298" t="s">
+      <c r="A11" s="287" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="299"/>
-      <c r="C11" s="183"/>
-      <c r="D11" s="183"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="299" t="s">
+      <c r="B11" s="288"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="288" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="299"/>
-      <c r="I11" s="299"/>
-      <c r="J11" s="299"/>
-      <c r="K11" s="299"/>
-      <c r="L11" s="299"/>
-      <c r="M11" s="301"/>
+      <c r="H11" s="288"/>
+      <c r="I11" s="288"/>
+      <c r="J11" s="288"/>
+      <c r="K11" s="288"/>
+      <c r="L11" s="288"/>
+      <c r="M11" s="292"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="298" t="s">
+      <c r="A12" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="299"/>
-      <c r="C12" s="183"/>
-      <c r="D12" s="183"/>
-      <c r="E12" s="183"/>
-      <c r="F12" s="183"/>
-      <c r="G12" s="299" t="s">
+      <c r="B12" s="288"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="288" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="299"/>
-      <c r="I12" s="243" t="s">
+      <c r="H12" s="288"/>
+      <c r="I12" s="253" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="243"/>
-      <c r="K12" s="243"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="246"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="256"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="298" t="s">
+      <c r="A13" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="299"/>
-      <c r="C13" s="183"/>
-      <c r="D13" s="183"/>
-      <c r="E13" s="183"/>
-      <c r="F13" s="183"/>
-      <c r="G13" s="299" t="s">
+      <c r="B13" s="288"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="288" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="299"/>
-      <c r="I13" s="243" t="s">
+      <c r="H13" s="288"/>
+      <c r="I13" s="253" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="243"/>
-      <c r="K13" s="243"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="246"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="256"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="298" t="s">
+      <c r="A14" s="287" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="299"/>
-      <c r="C14" s="183"/>
-      <c r="D14" s="183"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="183"/>
-      <c r="G14" s="183"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="183"/>
-      <c r="J14" s="183"/>
-      <c r="K14" s="183"/>
-      <c r="L14" s="183"/>
-      <c r="M14" s="219"/>
+      <c r="B14" s="288"/>
+      <c r="C14" s="146"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="146"/>
+      <c r="K14" s="146"/>
+      <c r="L14" s="146"/>
+      <c r="M14" s="238"/>
       <c r="N14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="294" t="s">
+      <c r="A15" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="240"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="257"/>
-      <c r="L15" s="257"/>
-      <c r="M15" s="261"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="239"/>
+      <c r="D15" s="239"/>
+      <c r="E15" s="239"/>
+      <c r="F15" s="239"/>
+      <c r="G15" s="239"/>
+      <c r="H15" s="239"/>
+      <c r="I15" s="239"/>
+      <c r="J15" s="239"/>
+      <c r="K15" s="239"/>
+      <c r="L15" s="239"/>
+      <c r="M15" s="243"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="295" t="s">
+      <c r="A16" s="291" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="295"/>
-      <c r="C16" s="295"/>
-      <c r="D16" s="295"/>
-      <c r="E16" s="295"/>
-      <c r="F16" s="295"/>
-      <c r="G16" s="295"/>
-      <c r="H16" s="295"/>
-      <c r="I16" s="295"/>
-      <c r="J16" s="295"/>
-      <c r="K16" s="295"/>
-      <c r="L16" s="295"/>
+      <c r="B16" s="291"/>
+      <c r="C16" s="291"/>
+      <c r="D16" s="291"/>
+      <c r="E16" s="291"/>
+      <c r="F16" s="291"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="291"/>
+      <c r="I16" s="291"/>
+      <c r="J16" s="291"/>
+      <c r="K16" s="291"/>
+      <c r="L16" s="291"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -7454,17 +7463,17 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="296" t="s">
+      <c r="C17" s="286" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="296"/>
+      <c r="D17" s="286"/>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="296" t="s">
+      <c r="F17" s="286" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="296"/>
+      <c r="G17" s="286"/>
       <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
@@ -7475,384 +7484,384 @@
       <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="296" t="s">
+      <c r="L17" s="286" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="297"/>
+      <c r="M17" s="293"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="280"/>
-      <c r="D18" s="280"/>
+      <c r="C18" s="294"/>
+      <c r="D18" s="294"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="280"/>
-      <c r="G18" s="280"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="294"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="280"/>
-      <c r="M18" s="281"/>
+      <c r="L18" s="294"/>
+      <c r="M18" s="295"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="280"/>
-      <c r="D19" s="280"/>
+      <c r="C19" s="294"/>
+      <c r="D19" s="294"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="280"/>
-      <c r="G19" s="280"/>
+      <c r="F19" s="294"/>
+      <c r="G19" s="294"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="280"/>
-      <c r="M19" s="281"/>
+      <c r="L19" s="294"/>
+      <c r="M19" s="295"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="280"/>
-      <c r="D20" s="280"/>
+      <c r="C20" s="294"/>
+      <c r="D20" s="294"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="280"/>
-      <c r="G20" s="280"/>
+      <c r="F20" s="294"/>
+      <c r="G20" s="294"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="280"/>
-      <c r="M20" s="281"/>
+      <c r="L20" s="294"/>
+      <c r="M20" s="295"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="280"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="280"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="280"/>
-      <c r="M21" s="281"/>
+      <c r="L21" s="294"/>
+      <c r="M21" s="295"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="280"/>
-      <c r="D22" s="280"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="294"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="280"/>
-      <c r="M22" s="281"/>
+      <c r="L22" s="294"/>
+      <c r="M22" s="295"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="280"/>
-      <c r="D23" s="280"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="294"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="280"/>
-      <c r="G23" s="280"/>
+      <c r="F23" s="294"/>
+      <c r="G23" s="294"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="280"/>
-      <c r="M23" s="281"/>
+      <c r="L23" s="294"/>
+      <c r="M23" s="295"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="280"/>
-      <c r="D24" s="280"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="280"/>
-      <c r="G24" s="280"/>
+      <c r="F24" s="294"/>
+      <c r="G24" s="294"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="280"/>
-      <c r="M24" s="281"/>
+      <c r="L24" s="294"/>
+      <c r="M24" s="295"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="294"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
+      <c r="F25" s="294"/>
+      <c r="G25" s="294"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="280"/>
-      <c r="M25" s="281"/>
+      <c r="L25" s="294"/>
+      <c r="M25" s="295"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>9</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="280"/>
-      <c r="D26" s="280"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="280"/>
-      <c r="G26" s="280"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="280"/>
-      <c r="M26" s="281"/>
+      <c r="L26" s="294"/>
+      <c r="M26" s="295"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="280"/>
+      <c r="C27" s="294"/>
+      <c r="D27" s="294"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="280"/>
+      <c r="F27" s="294"/>
+      <c r="G27" s="294"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="281"/>
+      <c r="L27" s="294"/>
+      <c r="M27" s="295"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>11</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="280"/>
-      <c r="D28" s="280"/>
+      <c r="C28" s="294"/>
+      <c r="D28" s="294"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="280"/>
-      <c r="G28" s="280"/>
+      <c r="F28" s="294"/>
+      <c r="G28" s="294"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="280"/>
-      <c r="M28" s="281"/>
+      <c r="L28" s="294"/>
+      <c r="M28" s="295"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="280"/>
-      <c r="D29" s="280"/>
+      <c r="C29" s="294"/>
+      <c r="D29" s="294"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="280"/>
-      <c r="G29" s="280"/>
+      <c r="F29" s="294"/>
+      <c r="G29" s="294"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="280"/>
-      <c r="M29" s="281"/>
+      <c r="L29" s="294"/>
+      <c r="M29" s="295"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="280"/>
-      <c r="D30" s="280"/>
+      <c r="C30" s="294"/>
+      <c r="D30" s="294"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="280"/>
-      <c r="G30" s="280"/>
+      <c r="F30" s="294"/>
+      <c r="G30" s="294"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="280"/>
-      <c r="M30" s="281"/>
+      <c r="L30" s="294"/>
+      <c r="M30" s="295"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="280"/>
-      <c r="D31" s="280"/>
+      <c r="C31" s="294"/>
+      <c r="D31" s="294"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="280"/>
-      <c r="G31" s="280"/>
+      <c r="F31" s="294"/>
+      <c r="G31" s="294"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="280"/>
-      <c r="M31" s="281"/>
+      <c r="L31" s="294"/>
+      <c r="M31" s="295"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>15</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="280"/>
-      <c r="D32" s="280"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="280"/>
-      <c r="G32" s="280"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="280"/>
-      <c r="M32" s="281"/>
+      <c r="L32" s="294"/>
+      <c r="M32" s="295"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="280"/>
-      <c r="D33" s="280"/>
+      <c r="C33" s="294"/>
+      <c r="D33" s="294"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="280"/>
-      <c r="G33" s="280"/>
+      <c r="F33" s="294"/>
+      <c r="G33" s="294"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="280"/>
-      <c r="M33" s="281"/>
+      <c r="L33" s="294"/>
+      <c r="M33" s="295"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="280"/>
-      <c r="D34" s="280"/>
+      <c r="C34" s="294"/>
+      <c r="D34" s="294"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="280"/>
-      <c r="G34" s="280"/>
+      <c r="F34" s="294"/>
+      <c r="G34" s="294"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="280"/>
-      <c r="M34" s="281"/>
+      <c r="L34" s="294"/>
+      <c r="M34" s="295"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>18</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="280"/>
-      <c r="D35" s="280"/>
+      <c r="C35" s="294"/>
+      <c r="D35" s="294"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="280"/>
-      <c r="G35" s="280"/>
+      <c r="F35" s="294"/>
+      <c r="G35" s="294"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="280"/>
-      <c r="M35" s="281"/>
+      <c r="L35" s="294"/>
+      <c r="M35" s="295"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>19</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="280"/>
-      <c r="D36" s="280"/>
+      <c r="C36" s="294"/>
+      <c r="D36" s="294"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="280"/>
-      <c r="G36" s="280"/>
+      <c r="F36" s="294"/>
+      <c r="G36" s="294"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="280"/>
-      <c r="M36" s="281"/>
+      <c r="L36" s="294"/>
+      <c r="M36" s="295"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>20</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="280"/>
-      <c r="D37" s="280"/>
+      <c r="C37" s="294"/>
+      <c r="D37" s="294"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="280"/>
-      <c r="G37" s="280"/>
+      <c r="F37" s="294"/>
+      <c r="G37" s="294"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="280"/>
-      <c r="M37" s="281"/>
+      <c r="L37" s="294"/>
+      <c r="M37" s="295"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="282" t="s">
+      <c r="A38" s="296" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="283"/>
-      <c r="C38" s="283"/>
-      <c r="D38" s="284"/>
-      <c r="E38" s="285"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="167"/>
+      <c r="B38" s="297"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="298"/>
+      <c r="E38" s="299"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="172"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="172"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="M38" s="173"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="286" t="s">
+      <c r="A39" s="300" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="287"/>
-      <c r="C39" s="287"/>
-      <c r="D39" s="287"/>
-      <c r="E39" s="287"/>
-      <c r="F39" s="287"/>
-      <c r="G39" s="287"/>
-      <c r="H39" s="287"/>
-      <c r="I39" s="287"/>
-      <c r="J39" s="287"/>
-      <c r="K39" s="287"/>
-      <c r="L39" s="287"/>
-      <c r="M39" s="288"/>
+      <c r="B39" s="301"/>
+      <c r="C39" s="301"/>
+      <c r="D39" s="301"/>
+      <c r="E39" s="301"/>
+      <c r="F39" s="301"/>
+      <c r="G39" s="301"/>
+      <c r="H39" s="301"/>
+      <c r="I39" s="301"/>
+      <c r="J39" s="301"/>
+      <c r="K39" s="301"/>
+      <c r="L39" s="301"/>
+      <c r="M39" s="302"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -7885,20 +7894,20 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="289" t="s">
+      <c r="A42" s="303" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="290"/>
-      <c r="C42" s="290"/>
-      <c r="D42" s="290"/>
-      <c r="E42" s="290"/>
-      <c r="F42" s="290"/>
-      <c r="G42" s="290"/>
-      <c r="H42" s="290"/>
-      <c r="I42" s="290"/>
-      <c r="J42" s="290"/>
-      <c r="K42" s="290"/>
-      <c r="L42" s="290"/>
+      <c r="B42" s="304"/>
+      <c r="C42" s="304"/>
+      <c r="D42" s="304"/>
+      <c r="E42" s="304"/>
+      <c r="F42" s="304"/>
+      <c r="G42" s="304"/>
+      <c r="H42" s="304"/>
+      <c r="I42" s="304"/>
+      <c r="J42" s="304"/>
+      <c r="K42" s="304"/>
+      <c r="L42" s="304"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="9"/>
@@ -7929,111 +7938,23 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="291" t="s">
+      <c r="A45" s="305" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="292"/>
-      <c r="C45" s="292"/>
-      <c r="D45" s="292"/>
-      <c r="E45" s="292"/>
-      <c r="F45" s="292"/>
-      <c r="G45" s="292"/>
-      <c r="H45" s="292"/>
-      <c r="I45" s="292"/>
-      <c r="J45" s="292"/>
-      <c r="K45" s="292"/>
-      <c r="L45" s="292"/>
+      <c r="B45" s="306"/>
+      <c r="C45" s="306"/>
+      <c r="D45" s="306"/>
+      <c r="E45" s="306"/>
+      <c r="F45" s="306"/>
+      <c r="G45" s="306"/>
+      <c r="H45" s="306"/>
+      <c r="I45" s="306"/>
+      <c r="J45" s="306"/>
+      <c r="K45" s="306"/>
+      <c r="L45" s="306"/>
     </row>
   </sheetData>
   <mergeCells count="112">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -8058,6 +7979,94 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/public/templates/配件确认单.xlsx
+++ b/public/templates/配件确认单.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sheet1!$O:$Y</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet3!$A$1:$L$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet3!$A$1:$L$27</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -953,7 +953,7 @@
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.00_);\(0.00\)"/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="43">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,13 +1273,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -2022,7 +2015,7 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="304">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2323,48 +2316,246 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2413,6 +2604,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2422,254 +2652,185 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2686,184 +2847,73 @@
     <xf numFmtId="177" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="24" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2877,84 +2927,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3011,7 +2983,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3078,7 +3050,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3243,7 +3215,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3408,7 +3380,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -3840,7 +3812,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4005,7 +3977,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4337,7 +4309,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -4736,7 +4708,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -4805,7 +4777,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:schemeClr val="lt1"/>
               </a:solidFill>
@@ -5316,10 +5288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5339,112 +5311,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34.5" customHeight="1" thickBot="1">
-      <c r="A1" s="123"/>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="125" t="s">
+      <c r="A1" s="189"/>
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="125"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="122"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="188"/>
       <c r="L1" s="96"/>
     </row>
     <row r="2" spans="1:12" s="15" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="192" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="133" t="s">
+      <c r="B2" s="193"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="199" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="133" t="s">
+      <c r="F2" s="200"/>
+      <c r="G2" s="201"/>
+      <c r="H2" s="200"/>
+      <c r="I2" s="199" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="137"/>
+      <c r="J2" s="200"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="203"/>
     </row>
     <row r="3" spans="1:12" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A3" s="308" t="s">
+      <c r="A3" s="196" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="140" t="s">
+      <c r="C3" s="204"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="141"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="137"/>
+      <c r="J3" s="207"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="203"/>
     </row>
     <row r="4" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A4" s="309"/>
+      <c r="A4" s="197"/>
       <c r="B4" s="80" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="114"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="120"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="182"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="181"/>
+      <c r="H4" s="181"/>
+      <c r="I4" s="183"/>
+      <c r="J4" s="184"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="186"/>
     </row>
     <row r="5" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A5" s="309"/>
+      <c r="A5" s="197"/>
       <c r="B5" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="144"/>
-      <c r="F5" s="110"/>
-      <c r="G5" s="212" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="104"/>
+      <c r="G5" s="112" t="s">
         <v>118</v>
       </c>
-      <c r="H5" s="213"/>
-      <c r="I5" s="210"/>
-      <c r="J5" s="112"/>
-      <c r="K5" s="112"/>
-      <c r="L5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="108"/>
+      <c r="J5" s="109"/>
+      <c r="K5" s="109"/>
+      <c r="L5" s="110"/>
     </row>
     <row r="6" spans="1:12" s="76" customFormat="1" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A6" s="310"/>
+      <c r="A6" s="198"/>
       <c r="B6" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="207"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208"/>
-      <c r="F6" s="209"/>
-      <c r="G6" s="214" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="H6" s="215"/>
-      <c r="I6" s="210"/>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="211"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="109"/>
+      <c r="K6" s="109"/>
+      <c r="L6" s="111"/>
     </row>
     <row r="7" spans="1:12" s="76" customFormat="1" ht="9.9499999999999993" customHeight="1" thickBot="1">
       <c r="A7" s="82"/>
@@ -5461,197 +5433,197 @@
       <c r="L7" s="84"/>
     </row>
     <row r="8" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="161" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="179"/>
-      <c r="D8" s="180"/>
-      <c r="E8" s="180"/>
-      <c r="F8" s="181"/>
-      <c r="G8" s="148" t="s">
+      <c r="C8" s="166"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="168"/>
+      <c r="G8" s="169" t="s">
         <v>120</v>
       </c>
-      <c r="H8" s="147"/>
-      <c r="I8" s="182"/>
-      <c r="J8" s="183"/>
-      <c r="K8" s="183"/>
-      <c r="L8" s="184"/>
+      <c r="H8" s="170"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="173"/>
     </row>
     <row r="9" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A9" s="175"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="143"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="109" t="s">
+      <c r="C9" s="102"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="174" t="s">
         <v>121</v>
       </c>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="113"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="179"/>
+      <c r="J9" s="109"/>
+      <c r="K9" s="109"/>
+      <c r="L9" s="110"/>
     </row>
     <row r="10" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A10" s="175"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="143"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="144"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="109" t="s">
+      <c r="C10" s="102"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="H10" s="110"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="113"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="175"/>
+      <c r="J10" s="109"/>
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
     </row>
     <row r="11" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A11" s="175"/>
+      <c r="A11" s="162"/>
       <c r="B11" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148" t="s">
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="170"/>
+      <c r="G11" s="169" t="s">
         <v>123</v>
       </c>
-      <c r="H11" s="147"/>
-      <c r="I11" s="149"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="177"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="178"/>
+      <c r="L11" s="178"/>
     </row>
     <row r="12" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A12" s="175"/>
+      <c r="A12" s="162"/>
       <c r="B12" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="159"/>
-      <c r="E12" s="159"/>
-      <c r="F12" s="159"/>
-      <c r="G12" s="159"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="159"/>
-      <c r="L12" s="161"/>
+      <c r="C12" s="146"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="147"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="148"/>
     </row>
     <row r="13" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A13" s="176"/>
+      <c r="A13" s="163"/>
       <c r="B13" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="162"/>
-      <c r="K13" s="162"/>
-      <c r="L13" s="163"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="150"/>
     </row>
     <row r="14" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A14" s="177" t="s">
+      <c r="A14" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
     </row>
     <row r="15" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A15" s="177"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
+      <c r="A15" s="164"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
     </row>
     <row r="16" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A16" s="177"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
+      <c r="A16" s="164"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="157"/>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A17" s="177"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
+      <c r="A17" s="164"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="157"/>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A18" s="178"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="173"/>
+      <c r="A18" s="165"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="160"/>
     </row>
     <row r="19" spans="1:12" s="77" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="151" t="s">
+      <c r="A19" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="151"/>
-      <c r="C19" s="151"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="151"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="154"/>
-      <c r="K19" s="151"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="142"/>
+      <c r="J19" s="143"/>
+      <c r="K19" s="140"/>
     </row>
     <row r="20" spans="1:12" s="78" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -5682,310 +5654,163 @@
       <c r="J20" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="155" t="s">
+      <c r="K20" s="144" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="156"/>
+      <c r="L20" s="145"/>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1">
       <c r="A21" s="6">
         <v>1</v>
       </c>
       <c r="B21" s="99"/>
-      <c r="C21" s="104"/>
+      <c r="C21" s="100"/>
       <c r="D21" s="97"/>
-      <c r="E21" s="105"/>
+      <c r="E21" s="101"/>
       <c r="F21" s="97"/>
       <c r="G21" s="99"/>
       <c r="H21" s="98"/>
       <c r="I21" s="98"/>
       <c r="J21" s="99"/>
-      <c r="K21" s="157"/>
-      <c r="L21" s="158"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A22" s="6">
-        <v>2</v>
-      </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="99"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="106"/>
-      <c r="K22" s="157"/>
-      <c r="L22" s="158"/>
-    </row>
-    <row r="23" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A23" s="6">
-        <v>3</v>
-      </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="107"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="107"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="157"/>
-      <c r="L23" s="158"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A24" s="6">
-        <v>4</v>
-      </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="106"/>
-      <c r="K24" s="157"/>
-      <c r="L24" s="158"/>
-    </row>
-    <row r="25" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A25" s="6">
-        <v>5</v>
-      </c>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="101"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
-      <c r="K25" s="157"/>
-      <c r="L25" s="158"/>
-    </row>
-    <row r="26" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A26" s="6">
-        <v>6</v>
-      </c>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="99"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="106"/>
-      <c r="K26" s="157"/>
-      <c r="L26" s="158"/>
-    </row>
-    <row r="27" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A27" s="6">
-        <v>7</v>
-      </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="157"/>
-      <c r="L27" s="158"/>
-    </row>
-    <row r="28" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A28" s="6">
-        <v>8</v>
-      </c>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="106"/>
-      <c r="K28" s="157"/>
-      <c r="L28" s="158"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A29" s="6">
-        <v>9</v>
-      </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="157"/>
-      <c r="L29" s="158"/>
-    </row>
-    <row r="30" spans="1:12" ht="15.95" customHeight="1">
-      <c r="A30" s="6">
-        <v>10</v>
-      </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="158"/>
-    </row>
-    <row r="31" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A31" s="188" t="s">
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
+    </row>
+    <row r="22" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A22" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="B31" s="189"/>
-      <c r="C31" s="189"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="190"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="157"/>
-      <c r="L31" s="158"/>
-    </row>
-    <row r="32" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A32" s="197" t="s">
+      <c r="B22" s="122"/>
+      <c r="C22" s="122"/>
+      <c r="D22" s="122"/>
+      <c r="E22" s="122"/>
+      <c r="F22" s="122"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="122"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
+    </row>
+    <row r="23" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1">
+      <c r="A23" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="198"/>
-      <c r="C32" s="198"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="199"/>
-      <c r="J32" s="95"/>
-      <c r="K32" s="198"/>
-      <c r="L32" s="199"/>
-    </row>
-    <row r="33" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="197" t="s">
+      <c r="B23" s="131"/>
+      <c r="C23" s="131"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="95"/>
+      <c r="K23" s="131"/>
+      <c r="L23" s="132"/>
+    </row>
+    <row r="24" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="198"/>
-      <c r="C33" s="198"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="199"/>
-      <c r="J33" s="95"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="199"/>
-    </row>
-    <row r="34" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="200" t="s">
+      <c r="B24" s="131"/>
+      <c r="C24" s="131"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="95"/>
+      <c r="K24" s="131"/>
+      <c r="L24" s="132"/>
+    </row>
+    <row r="25" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="201"/>
-      <c r="C34" s="201"/>
-      <c r="D34" s="201"/>
-      <c r="E34" s="202"/>
-      <c r="F34" s="201"/>
-      <c r="G34" s="201"/>
-      <c r="H34" s="201"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="205"/>
-      <c r="L34" s="206"/>
-    </row>
-    <row r="35" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
-      <c r="A35" s="191" t="s">
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="135"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="139"/>
+    </row>
+    <row r="26" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
+      <c r="A26" s="124" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="192"/>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
-      <c r="L35" s="193"/>
-    </row>
-    <row r="36" spans="1:12" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1">
-      <c r="A36" s="194" t="s">
+      <c r="B26" s="125"/>
+      <c r="C26" s="125"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="125"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="125"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="125"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="126"/>
+    </row>
+    <row r="27" spans="1:12" s="15" customFormat="1" ht="42" customHeight="1" thickBot="1">
+      <c r="A27" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="195"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195"/>
-      <c r="L36" s="196"/>
-    </row>
-    <row r="37" spans="1:12" ht="41.25" customHeight="1" thickBot="1">
-      <c r="A37" s="185" t="s">
+      <c r="B27" s="128"/>
+      <c r="C27" s="128"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="128"/>
+      <c r="L27" s="129"/>
+    </row>
+    <row r="28" spans="1:12" ht="41.25" customHeight="1" thickBot="1">
+      <c r="A28" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="186"/>
-      <c r="J37" s="186"/>
-      <c r="K37" s="186"/>
-      <c r="L37" s="187"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
+      <c r="E28" s="119"/>
+      <c r="F28" s="119"/>
+      <c r="G28" s="119"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="119"/>
+      <c r="J28" s="119"/>
+      <c r="K28" s="119"/>
+      <c r="L28" s="120"/>
     </row>
   </sheetData>
-  <mergeCells count="63">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A36:L36"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="A34:L34"/>
+  <mergeCells count="54">
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C4:L4"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:L11"/>
     <mergeCell ref="A19:K19"/>
     <mergeCell ref="K20:L20"/>
     <mergeCell ref="K21:L21"/>
@@ -6002,28 +5827,22 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:L8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C4:L4"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A27:L27"/>
+    <mergeCell ref="A23:I23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.35416666666666702" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6062,358 +5881,358 @@
         <v>0</v>
       </c>
       <c r="B1" s="19"/>
-      <c r="D1" s="278" t="s">
+      <c r="D1" s="214" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="278"/>
-      <c r="F1" s="278"/>
-      <c r="G1" s="278"/>
-      <c r="H1" s="278"/>
-      <c r="I1" s="278"/>
-      <c r="J1" s="278"/>
-      <c r="K1" s="278"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
       <c r="L1" s="57" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="14" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="272" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="216"/>
-      <c r="C2" s="216"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="279"/>
-      <c r="K2" s="279"/>
+      <c r="B2" s="272"/>
+      <c r="C2" s="272"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
       <c r="L2" s="58"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="218"/>
-      <c r="C3" s="219" t="s">
+      <c r="B3" s="274"/>
+      <c r="C3" s="275" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="219"/>
+      <c r="D3" s="275"/>
       <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="219" t="s">
+      <c r="F3" s="275" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="219"/>
-      <c r="H3" s="218" t="s">
+      <c r="G3" s="275"/>
+      <c r="H3" s="274" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="220"/>
-      <c r="J3" s="221" t="s">
+      <c r="I3" s="276"/>
+      <c r="J3" s="259" t="s">
         <v>47</v>
       </c>
-      <c r="K3" s="222"/>
-      <c r="L3" s="223"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="261"/>
     </row>
     <row r="4" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="209" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="224" t="s">
+      <c r="C4" s="262" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="224"/>
-      <c r="E4" s="224"/>
-      <c r="F4" s="224"/>
-      <c r="G4" s="224"/>
-      <c r="H4" s="225" t="s">
+      <c r="D4" s="262"/>
+      <c r="E4" s="262"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="262"/>
+      <c r="H4" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="226"/>
-      <c r="J4" s="227" t="s">
+      <c r="I4" s="264"/>
+      <c r="J4" s="265" t="s">
         <v>49</v>
       </c>
-      <c r="K4" s="228"/>
-      <c r="L4" s="229"/>
+      <c r="K4" s="244"/>
+      <c r="L4" s="266"/>
     </row>
     <row r="5" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="131"/>
+      <c r="A5" s="210"/>
       <c r="B5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="230" t="s">
+      <c r="C5" s="267" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="230"/>
-      <c r="E5" s="231"/>
-      <c r="F5" s="230"/>
-      <c r="G5" s="230"/>
-      <c r="H5" s="230"/>
-      <c r="I5" s="232"/>
-      <c r="J5" s="233"/>
-      <c r="K5" s="230"/>
-      <c r="L5" s="234"/>
+      <c r="D5" s="267"/>
+      <c r="E5" s="268"/>
+      <c r="F5" s="267"/>
+      <c r="G5" s="267"/>
+      <c r="H5" s="267"/>
+      <c r="I5" s="269"/>
+      <c r="J5" s="270"/>
+      <c r="K5" s="267"/>
+      <c r="L5" s="271"/>
     </row>
     <row r="6" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="131"/>
+      <c r="A6" s="210"/>
       <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="146" t="s">
+      <c r="C6" s="176" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="235" t="s">
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="235"/>
-      <c r="H6" s="146" t="s">
+      <c r="G6" s="239"/>
+      <c r="H6" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="236"/>
-      <c r="J6" s="237"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="238"/>
+      <c r="I6" s="235"/>
+      <c r="J6" s="236"/>
+      <c r="K6" s="176"/>
+      <c r="L6" s="216"/>
     </row>
     <row r="7" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="132"/>
+      <c r="A7" s="211"/>
       <c r="B7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="239" t="s">
+      <c r="C7" s="254" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="239"/>
-      <c r="E7" s="239"/>
-      <c r="F7" s="240" t="s">
+      <c r="D7" s="254"/>
+      <c r="E7" s="254"/>
+      <c r="F7" s="255" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="240"/>
-      <c r="H7" s="239" t="s">
+      <c r="G7" s="255"/>
+      <c r="H7" s="254" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="241"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="239"/>
-      <c r="L7" s="243"/>
+      <c r="I7" s="256"/>
+      <c r="J7" s="257"/>
+      <c r="K7" s="254"/>
+      <c r="L7" s="258"/>
     </row>
     <row r="8" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="161" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="228" t="s">
+      <c r="C8" s="244" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="244" t="s">
+      <c r="D8" s="244"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="245" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="244"/>
-      <c r="H8" s="245" t="s">
+      <c r="G8" s="245"/>
+      <c r="H8" s="246" t="s">
         <v>56</v>
       </c>
-      <c r="I8" s="246"/>
-      <c r="J8" s="247"/>
-      <c r="K8" s="248"/>
-      <c r="L8" s="249"/>
+      <c r="I8" s="247"/>
+      <c r="J8" s="248"/>
+      <c r="K8" s="249"/>
+      <c r="L8" s="250"/>
     </row>
     <row r="9" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="175"/>
+      <c r="A9" s="162"/>
       <c r="B9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="146" t="s">
+      <c r="C9" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="235" t="s">
+      <c r="D9" s="176"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="235"/>
-      <c r="H9" s="250" t="s">
+      <c r="G9" s="239"/>
+      <c r="H9" s="251" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="236"/>
-      <c r="J9" s="251"/>
-      <c r="K9" s="250"/>
-      <c r="L9" s="252"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="251"/>
+      <c r="L9" s="253"/>
     </row>
     <row r="10" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="175"/>
+      <c r="A10" s="162"/>
       <c r="B10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C10" s="176" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="146"/>
-      <c r="E10" s="146"/>
-      <c r="F10" s="235" t="s">
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="239" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="235"/>
-      <c r="H10" s="253" t="s">
+      <c r="G10" s="239"/>
+      <c r="H10" s="240" t="s">
         <v>60</v>
       </c>
-      <c r="I10" s="254"/>
-      <c r="J10" s="255"/>
-      <c r="K10" s="253"/>
-      <c r="L10" s="256"/>
+      <c r="I10" s="241"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="240"/>
+      <c r="L10" s="243"/>
     </row>
     <row r="11" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="276"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="146">
+      <c r="C11" s="176">
         <v>33333333</v>
       </c>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="235" t="s">
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="239" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="235"/>
-      <c r="H11" s="253" t="s">
+      <c r="G11" s="239"/>
+      <c r="H11" s="240" t="s">
         <v>61</v>
       </c>
-      <c r="I11" s="254"/>
-      <c r="J11" s="255"/>
-      <c r="K11" s="253"/>
-      <c r="L11" s="256"/>
+      <c r="I11" s="241"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="240"/>
+      <c r="L11" s="243"/>
     </row>
     <row r="12" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="276"/>
+      <c r="A12" s="212"/>
       <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C12" s="176" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="146"/>
-      <c r="H12" s="146"/>
-      <c r="I12" s="236"/>
-      <c r="J12" s="237"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="238"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="176"/>
+      <c r="H12" s="176"/>
+      <c r="I12" s="235"/>
+      <c r="J12" s="236"/>
+      <c r="K12" s="176"/>
+      <c r="L12" s="216"/>
     </row>
     <row r="13" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="277"/>
+      <c r="A13" s="213"/>
       <c r="B13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="257"/>
-      <c r="D13" s="257"/>
-      <c r="E13" s="257"/>
-      <c r="F13" s="257"/>
-      <c r="G13" s="257"/>
-      <c r="H13" s="257"/>
-      <c r="I13" s="257"/>
-      <c r="J13" s="257"/>
-      <c r="K13" s="257"/>
-      <c r="L13" s="258"/>
+      <c r="C13" s="237"/>
+      <c r="D13" s="237"/>
+      <c r="E13" s="237"/>
+      <c r="F13" s="237"/>
+      <c r="G13" s="237"/>
+      <c r="H13" s="237"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="237"/>
+      <c r="K13" s="237"/>
+      <c r="L13" s="238"/>
     </row>
     <row r="14" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="164"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="166"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="166"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="166"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="166"/>
-      <c r="L14" s="167"/>
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="154"/>
     </row>
     <row r="15" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="131"/>
-      <c r="B15" s="168"/>
-      <c r="C15" s="169"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="169"/>
-      <c r="G15" s="169"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="169"/>
-      <c r="K15" s="169"/>
-      <c r="L15" s="170"/>
+      <c r="A15" s="210"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="156"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="156"/>
+      <c r="L15" s="157"/>
     </row>
     <row r="16" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="131"/>
-      <c r="B16" s="168"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="169"/>
-      <c r="G16" s="169"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="169"/>
-      <c r="K16" s="169"/>
-      <c r="L16" s="170"/>
+      <c r="A16" s="210"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="156"/>
+      <c r="L16" s="157"/>
     </row>
     <row r="17" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="131"/>
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
+      <c r="A17" s="210"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="156"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="156"/>
+      <c r="L17" s="157"/>
     </row>
     <row r="18" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="132"/>
-      <c r="B18" s="171"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="173"/>
+      <c r="A18" s="211"/>
+      <c r="B18" s="158"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="159"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="159"/>
+      <c r="L18" s="160"/>
     </row>
     <row r="19" spans="1:14" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="259" t="s">
+      <c r="A19" s="227" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="259"/>
-      <c r="C19" s="259"/>
-      <c r="D19" s="259"/>
-      <c r="E19" s="260"/>
-      <c r="F19" s="259"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="259"/>
+      <c r="B19" s="227"/>
+      <c r="C19" s="227"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="227"/>
+      <c r="H19" s="227"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="227"/>
     </row>
     <row r="20" spans="1:14" s="16" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="29" t="s">
@@ -6444,10 +6263,10 @@
       <c r="J20" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="263" t="s">
+      <c r="K20" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="L20" s="264"/>
+      <c r="L20" s="234"/>
     </row>
     <row r="21" spans="1:14" ht="27.95" customHeight="1">
       <c r="A21" s="6">
@@ -6480,26 +6299,26 @@
       <c r="J21" s="59">
         <v>1200</v>
       </c>
-      <c r="K21" s="146"/>
-      <c r="L21" s="238"/>
+      <c r="K21" s="176"/>
+      <c r="L21" s="216"/>
     </row>
     <row r="22" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="265" t="s">
+      <c r="A22" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="266"/>
-      <c r="C22" s="266"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="266"/>
-      <c r="F22" s="266"/>
-      <c r="G22" s="266"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="267"/>
+      <c r="B22" s="218"/>
+      <c r="C22" s="218"/>
+      <c r="D22" s="218"/>
+      <c r="E22" s="218"/>
+      <c r="F22" s="218"/>
+      <c r="G22" s="218"/>
+      <c r="H22" s="218"/>
+      <c r="I22" s="219"/>
       <c r="J22" s="66">
         <v>1200</v>
       </c>
-      <c r="K22" s="146"/>
-      <c r="L22" s="238"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="216"/>
     </row>
     <row r="23" spans="1:14" ht="24.95" customHeight="1">
       <c r="A23" s="6">
@@ -6532,29 +6351,29 @@
       <c r="J23" s="59">
         <v>2950</v>
       </c>
-      <c r="K23" s="146"/>
-      <c r="L23" s="238"/>
+      <c r="K23" s="176"/>
+      <c r="L23" s="216"/>
       <c r="N23" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="265" t="s">
+      <c r="A24" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="266"/>
-      <c r="C24" s="266"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="266"/>
-      <c r="F24" s="266"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="267"/>
+      <c r="B24" s="218"/>
+      <c r="C24" s="218"/>
+      <c r="D24" s="218"/>
+      <c r="E24" s="218"/>
+      <c r="F24" s="218"/>
+      <c r="G24" s="218"/>
+      <c r="H24" s="218"/>
+      <c r="I24" s="219"/>
       <c r="J24" s="66">
         <v>2950</v>
       </c>
-      <c r="K24" s="146"/>
-      <c r="L24" s="238"/>
+      <c r="K24" s="176"/>
+      <c r="L24" s="216"/>
     </row>
     <row r="25" spans="1:14" ht="27" customHeight="1">
       <c r="A25" s="6">
@@ -6587,26 +6406,26 @@
       <c r="J25" s="59">
         <v>1375</v>
       </c>
-      <c r="K25" s="146"/>
-      <c r="L25" s="238"/>
+      <c r="K25" s="176"/>
+      <c r="L25" s="216"/>
     </row>
     <row r="26" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="265" t="s">
+      <c r="A26" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="266"/>
-      <c r="C26" s="266"/>
-      <c r="D26" s="266"/>
-      <c r="E26" s="266"/>
-      <c r="F26" s="266"/>
-      <c r="G26" s="266"/>
-      <c r="H26" s="266"/>
-      <c r="I26" s="267"/>
+      <c r="B26" s="218"/>
+      <c r="C26" s="218"/>
+      <c r="D26" s="218"/>
+      <c r="E26" s="218"/>
+      <c r="F26" s="218"/>
+      <c r="G26" s="218"/>
+      <c r="H26" s="218"/>
+      <c r="I26" s="219"/>
       <c r="J26" s="66">
         <v>1375</v>
       </c>
-      <c r="K26" s="146"/>
-      <c r="L26" s="238"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="216"/>
     </row>
     <row r="27" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="42">
@@ -6637,26 +6456,26 @@
       <c r="J27" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K27" s="146"/>
-      <c r="L27" s="238"/>
+      <c r="K27" s="176"/>
+      <c r="L27" s="216"/>
     </row>
     <row r="28" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="265" t="s">
+      <c r="A28" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="266"/>
-      <c r="C28" s="266"/>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="267"/>
+      <c r="B28" s="218"/>
+      <c r="C28" s="218"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="219"/>
       <c r="J28" s="69">
         <v>7087.5</v>
       </c>
-      <c r="K28" s="146"/>
-      <c r="L28" s="238"/>
+      <c r="K28" s="176"/>
+      <c r="L28" s="216"/>
     </row>
     <row r="29" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="42">
@@ -6689,26 +6508,26 @@
       <c r="J29" s="70">
         <v>2900</v>
       </c>
-      <c r="K29" s="146"/>
-      <c r="L29" s="238"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="216"/>
     </row>
     <row r="30" spans="1:14" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="265" t="s">
+      <c r="A30" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="266"/>
-      <c r="C30" s="266"/>
-      <c r="D30" s="266"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="267"/>
+      <c r="B30" s="218"/>
+      <c r="C30" s="218"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
       <c r="J30" s="70">
         <v>2900</v>
       </c>
-      <c r="K30" s="143"/>
-      <c r="L30" s="280"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="220"/>
     </row>
     <row r="31" spans="1:14" ht="24">
       <c r="A31" s="6">
@@ -6739,8 +6558,8 @@
       <c r="J31" s="59">
         <v>7087.5</v>
       </c>
-      <c r="K31" s="146"/>
-      <c r="L31" s="238"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="216"/>
     </row>
     <row r="32" spans="1:14" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="6">
@@ -6771,8 +6590,8 @@
       <c r="J32" s="59">
         <v>2900</v>
       </c>
-      <c r="K32" s="146"/>
-      <c r="L32" s="238"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="216"/>
     </row>
     <row r="33" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="6">
@@ -6805,27 +6624,27 @@
       <c r="J33" s="59">
         <v>3510</v>
       </c>
-      <c r="K33" s="146"/>
-      <c r="L33" s="238"/>
+      <c r="K33" s="176"/>
+      <c r="L33" s="216"/>
     </row>
     <row r="34" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="265" t="s">
+      <c r="A34" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="266"/>
-      <c r="C34" s="266"/>
-      <c r="D34" s="266"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="266"/>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="267"/>
+      <c r="B34" s="218"/>
+      <c r="C34" s="218"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="219"/>
       <c r="J34" s="66">
         <f>J31+J32+J33</f>
         <v>13497.5</v>
       </c>
-      <c r="K34" s="146"/>
-      <c r="L34" s="238"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="216"/>
     </row>
     <row r="35" spans="1:12" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="6">
@@ -6856,26 +6675,26 @@
       <c r="J35" s="59">
         <v>96182</v>
       </c>
-      <c r="K35" s="146"/>
-      <c r="L35" s="238"/>
+      <c r="K35" s="176"/>
+      <c r="L35" s="216"/>
     </row>
     <row r="36" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="265" t="s">
+      <c r="A36" s="217" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="266"/>
-      <c r="C36" s="266"/>
-      <c r="D36" s="266"/>
-      <c r="E36" s="266"/>
-      <c r="F36" s="266"/>
-      <c r="G36" s="266"/>
-      <c r="H36" s="266"/>
-      <c r="I36" s="267"/>
+      <c r="B36" s="218"/>
+      <c r="C36" s="218"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="219"/>
       <c r="J36" s="66">
         <v>96182</v>
       </c>
-      <c r="K36" s="146"/>
-      <c r="L36" s="238"/>
+      <c r="K36" s="176"/>
+      <c r="L36" s="216"/>
     </row>
     <row r="37" spans="1:12" ht="24" customHeight="1">
       <c r="A37" s="6">
@@ -6906,79 +6725,79 @@
       <c r="J37" s="59">
         <v>32727</v>
       </c>
-      <c r="K37" s="146"/>
-      <c r="L37" s="238"/>
+      <c r="K37" s="176"/>
+      <c r="L37" s="216"/>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="271" t="s">
+      <c r="A38" s="228" t="s">
         <v>35</v>
       </c>
-      <c r="B38" s="272"/>
-      <c r="C38" s="272"/>
-      <c r="D38" s="272"/>
-      <c r="E38" s="272"/>
-      <c r="F38" s="272"/>
-      <c r="G38" s="272"/>
-      <c r="H38" s="272"/>
-      <c r="I38" s="273"/>
+      <c r="B38" s="229"/>
+      <c r="C38" s="229"/>
+      <c r="D38" s="229"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="229"/>
+      <c r="H38" s="229"/>
+      <c r="I38" s="230"/>
       <c r="J38" s="72">
         <v>32727</v>
       </c>
-      <c r="K38" s="274"/>
-      <c r="L38" s="275"/>
+      <c r="K38" s="231"/>
+      <c r="L38" s="232"/>
     </row>
     <row r="39" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="197" t="s">
+      <c r="A39" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="198"/>
-      <c r="C39" s="198"/>
-      <c r="D39" s="198"/>
-      <c r="E39" s="198"/>
-      <c r="F39" s="198"/>
-      <c r="G39" s="198"/>
-      <c r="H39" s="198"/>
-      <c r="I39" s="199"/>
+      <c r="B39" s="131"/>
+      <c r="C39" s="131"/>
+      <c r="D39" s="131"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="132"/>
       <c r="J39" s="73">
         <f>J21+J23+J25+J31+J32+J33+J35+J37</f>
         <v>147931.5</v>
       </c>
-      <c r="K39" s="198"/>
-      <c r="L39" s="199"/>
+      <c r="K39" s="131"/>
+      <c r="L39" s="132"/>
     </row>
     <row r="40" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="197" t="s">
+      <c r="A40" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="198"/>
-      <c r="C40" s="198"/>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198"/>
-      <c r="F40" s="198"/>
-      <c r="G40" s="198"/>
-      <c r="H40" s="198"/>
-      <c r="I40" s="199"/>
+      <c r="B40" s="131"/>
+      <c r="C40" s="131"/>
+      <c r="D40" s="131"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="132"/>
       <c r="J40" s="73">
         <v>162724.65</v>
       </c>
-      <c r="K40" s="198"/>
-      <c r="L40" s="199"/>
+      <c r="K40" s="131"/>
+      <c r="L40" s="132"/>
     </row>
     <row r="41" spans="1:12" s="15" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="200" t="s">
+      <c r="A41" s="133" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="201"/>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="206"/>
+      <c r="B41" s="134"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="135"/>
+      <c r="F41" s="134"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="134"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="139"/>
     </row>
     <row r="42" spans="1:12" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="8"/>
@@ -6995,19 +6814,19 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A43" s="268" t="s">
+      <c r="A43" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="269"/>
-      <c r="C43" s="269"/>
-      <c r="D43" s="269"/>
-      <c r="E43" s="260"/>
-      <c r="F43" s="269"/>
-      <c r="G43" s="269"/>
-      <c r="H43" s="269"/>
-      <c r="I43" s="261"/>
-      <c r="J43" s="262"/>
-      <c r="K43" s="269"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="222"/>
+      <c r="D43" s="222"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="222"/>
+      <c r="G43" s="222"/>
+      <c r="H43" s="222"/>
+      <c r="I43" s="224"/>
+      <c r="J43" s="225"/>
+      <c r="K43" s="222"/>
     </row>
     <row r="44" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="55"/>
@@ -7036,22 +6855,80 @@
       <c r="K45" s="56"/>
     </row>
     <row r="46" spans="1:12" s="15" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A46" s="270" t="s">
+      <c r="A46" s="226" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="259"/>
-      <c r="C46" s="259"/>
-      <c r="D46" s="259"/>
-      <c r="E46" s="260"/>
-      <c r="F46" s="259"/>
-      <c r="G46" s="259"/>
-      <c r="H46" s="259"/>
-      <c r="I46" s="261"/>
-      <c r="J46" s="262"/>
-      <c r="K46" s="259"/>
+      <c r="B46" s="227"/>
+      <c r="C46" s="227"/>
+      <c r="D46" s="227"/>
+      <c r="E46" s="223"/>
+      <c r="F46" s="227"/>
+      <c r="G46" s="227"/>
+      <c r="H46" s="227"/>
+      <c r="I46" s="224"/>
+      <c r="J46" s="225"/>
+      <c r="K46" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="C5:L5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="C12:L12"/>
+    <mergeCell ref="C13:L13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A24:I24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A18"/>
@@ -7068,64 +6945,6 @@
     <mergeCell ref="A30:I30"/>
     <mergeCell ref="K30:L30"/>
     <mergeCell ref="K31:L31"/>
-    <mergeCell ref="A41:L41"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A24:I24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="A19:K19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="C12:L12"/>
-    <mergeCell ref="C13:L13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:L9"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="C5:L5"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <pageMargins left="0.43263888888888902" right="0.15625" top="0.43263888888888902" bottom="0.55000000000000004" header="0.39305555555555599" footer="0.51180555555555596"/>
@@ -7156,305 +6975,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="290" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
       <c r="M1" s="11" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="9.9499999999999993" customHeight="1">
-      <c r="A2" s="307"/>
-      <c r="B2" s="307"/>
-      <c r="C2" s="307"/>
-      <c r="D2" s="307"/>
-      <c r="E2" s="307"/>
-      <c r="F2" s="307"/>
-      <c r="G2" s="307"/>
-      <c r="H2" s="307"/>
-      <c r="I2" s="307"/>
-      <c r="J2" s="307"/>
-      <c r="K2" s="307"/>
-      <c r="L2" s="307"/>
+      <c r="A2" s="290"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
       <c r="M2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="300" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="282"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="282" t="s">
+      <c r="B3" s="301"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="301" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="283"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="282" t="s">
+      <c r="F3" s="302"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="301" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="282"/>
-      <c r="K3" s="222"/>
-      <c r="L3" s="222"/>
-      <c r="M3" s="223"/>
+      <c r="J3" s="301"/>
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="261"/>
     </row>
     <row r="4" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="303" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284"/>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284"/>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
+      <c r="B4" s="303"/>
+      <c r="C4" s="303"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="303"/>
+      <c r="F4" s="303"/>
+      <c r="G4" s="303"/>
+      <c r="H4" s="303"/>
+      <c r="I4" s="303"/>
+      <c r="J4" s="303"/>
+      <c r="K4" s="303"/>
+      <c r="L4" s="303"/>
     </row>
     <row r="5" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A5" s="285" t="s">
+      <c r="A5" s="297" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="286"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="286" t="s">
+      <c r="B5" s="293"/>
+      <c r="C5" s="262"/>
+      <c r="D5" s="262"/>
+      <c r="E5" s="262"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="262"/>
+      <c r="H5" s="262"/>
+      <c r="I5" s="293" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="286"/>
-      <c r="K5" s="228"/>
-      <c r="L5" s="228"/>
-      <c r="M5" s="229"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="244"/>
+      <c r="L5" s="244"/>
+      <c r="M5" s="266"/>
     </row>
     <row r="6" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A6" s="287" t="s">
+      <c r="A6" s="295" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="288"/>
-      <c r="C6" s="231" t="s">
+      <c r="B6" s="296"/>
+      <c r="C6" s="268" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="231"/>
-      <c r="E6" s="231"/>
-      <c r="F6" s="231"/>
-      <c r="G6" s="231"/>
-      <c r="H6" s="231"/>
-      <c r="I6" s="231"/>
-      <c r="J6" s="231"/>
-      <c r="K6" s="231"/>
-      <c r="L6" s="231"/>
-      <c r="M6" s="289"/>
+      <c r="D6" s="268"/>
+      <c r="E6" s="268"/>
+      <c r="F6" s="268"/>
+      <c r="G6" s="268"/>
+      <c r="H6" s="268"/>
+      <c r="I6" s="268"/>
+      <c r="J6" s="268"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="268"/>
+      <c r="M6" s="299"/>
     </row>
     <row r="7" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A7" s="287" t="s">
+      <c r="A7" s="295" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="288"/>
-      <c r="C7" s="146"/>
-      <c r="D7" s="146"/>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="288" t="s">
+      <c r="B7" s="296"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="296" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="288"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="238"/>
+      <c r="H7" s="296"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="216"/>
       <c r="N7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A8" s="290" t="s">
+      <c r="A8" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="257"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
-      <c r="G8" s="257" t="s">
+      <c r="B8" s="237"/>
+      <c r="C8" s="254"/>
+      <c r="D8" s="254"/>
+      <c r="E8" s="254"/>
+      <c r="F8" s="254"/>
+      <c r="G8" s="237" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="257"/>
-      <c r="I8" s="239"/>
-      <c r="J8" s="239"/>
-      <c r="K8" s="239"/>
-      <c r="L8" s="239"/>
-      <c r="M8" s="243"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="254"/>
+      <c r="J8" s="254"/>
+      <c r="K8" s="254"/>
+      <c r="L8" s="254"/>
+      <c r="M8" s="258"/>
     </row>
     <row r="9" spans="1:14" ht="15.95" customHeight="1">
-      <c r="A9" s="291" t="s">
+      <c r="A9" s="292" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
-      <c r="F9" s="291"/>
-      <c r="G9" s="291"/>
-      <c r="H9" s="291"/>
-      <c r="I9" s="291"/>
-      <c r="J9" s="291"/>
-      <c r="K9" s="291"/>
-      <c r="L9" s="291"/>
+      <c r="B9" s="292"/>
+      <c r="C9" s="292"/>
+      <c r="D9" s="292"/>
+      <c r="E9" s="292"/>
+      <c r="F9" s="292"/>
+      <c r="G9" s="292"/>
+      <c r="H9" s="292"/>
+      <c r="I9" s="292"/>
+      <c r="J9" s="292"/>
+      <c r="K9" s="292"/>
+      <c r="L9" s="292"/>
     </row>
     <row r="10" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A10" s="285" t="s">
+      <c r="A10" s="297" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="286"/>
-      <c r="C10" s="228"/>
-      <c r="D10" s="228"/>
-      <c r="E10" s="228"/>
-      <c r="F10" s="228"/>
-      <c r="G10" s="286" t="s">
+      <c r="B10" s="293"/>
+      <c r="C10" s="244"/>
+      <c r="D10" s="244"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="293" t="s">
         <v>14</v>
       </c>
-      <c r="H10" s="286"/>
-      <c r="I10" s="248" t="s">
+      <c r="H10" s="293"/>
+      <c r="I10" s="249" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="248"/>
-      <c r="K10" s="248"/>
-      <c r="L10" s="248"/>
-      <c r="M10" s="249"/>
+      <c r="J10" s="249"/>
+      <c r="K10" s="249"/>
+      <c r="L10" s="249"/>
+      <c r="M10" s="250"/>
     </row>
     <row r="11" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A11" s="287" t="s">
+      <c r="A11" s="295" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="288"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="288" t="s">
+      <c r="B11" s="296"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="296" t="s">
         <v>109</v>
       </c>
-      <c r="H11" s="288"/>
-      <c r="I11" s="288"/>
-      <c r="J11" s="288"/>
-      <c r="K11" s="288"/>
-      <c r="L11" s="288"/>
-      <c r="M11" s="292"/>
+      <c r="H11" s="296"/>
+      <c r="I11" s="296"/>
+      <c r="J11" s="296"/>
+      <c r="K11" s="296"/>
+      <c r="L11" s="296"/>
+      <c r="M11" s="298"/>
     </row>
     <row r="12" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A12" s="287" t="s">
+      <c r="A12" s="295" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="288"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="146"/>
-      <c r="F12" s="146"/>
-      <c r="G12" s="288" t="s">
+      <c r="B12" s="296"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="296" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="288"/>
-      <c r="I12" s="253" t="s">
+      <c r="H12" s="296"/>
+      <c r="I12" s="240" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="253"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="256"/>
+      <c r="J12" s="240"/>
+      <c r="K12" s="240"/>
+      <c r="L12" s="240"/>
+      <c r="M12" s="243"/>
     </row>
     <row r="13" spans="1:14" s="1" customFormat="1" ht="17.100000000000001" customHeight="1">
-      <c r="A13" s="287" t="s">
+      <c r="A13" s="295" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="288"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="146"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="288" t="s">
+      <c r="B13" s="296"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="176"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="296" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="288"/>
-      <c r="I13" s="253" t="s">
+      <c r="H13" s="296"/>
+      <c r="I13" s="240" t="s">
         <v>111</v>
       </c>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="256"/>
+      <c r="J13" s="240"/>
+      <c r="K13" s="240"/>
+      <c r="L13" s="240"/>
+      <c r="M13" s="243"/>
     </row>
     <row r="14" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A14" s="287" t="s">
+      <c r="A14" s="295" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="288"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="146"/>
-      <c r="H14" s="146"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="238"/>
+      <c r="B14" s="296"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="176"/>
+      <c r="H14" s="176"/>
+      <c r="I14" s="176"/>
+      <c r="J14" s="176"/>
+      <c r="K14" s="176"/>
+      <c r="L14" s="176"/>
+      <c r="M14" s="216"/>
       <c r="N14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="17.100000000000001" customHeight="1">
-      <c r="A15" s="290" t="s">
+      <c r="A15" s="291" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="257"/>
-      <c r="C15" s="239"/>
-      <c r="D15" s="239"/>
-      <c r="E15" s="239"/>
-      <c r="F15" s="239"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="239"/>
-      <c r="I15" s="239"/>
-      <c r="J15" s="239"/>
-      <c r="K15" s="239"/>
-      <c r="L15" s="239"/>
-      <c r="M15" s="243"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="254"/>
+      <c r="E15" s="254"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="254"/>
+      <c r="H15" s="254"/>
+      <c r="I15" s="254"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="254"/>
+      <c r="L15" s="254"/>
+      <c r="M15" s="258"/>
     </row>
     <row r="16" spans="1:14" ht="18" customHeight="1">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="292" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="291"/>
-      <c r="C16" s="291"/>
-      <c r="D16" s="291"/>
-      <c r="E16" s="291"/>
-      <c r="F16" s="291"/>
-      <c r="G16" s="291"/>
-      <c r="H16" s="291"/>
-      <c r="I16" s="291"/>
-      <c r="J16" s="291"/>
-      <c r="K16" s="291"/>
-      <c r="L16" s="291"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="292"/>
+      <c r="I16" s="292"/>
+      <c r="J16" s="292"/>
+      <c r="K16" s="292"/>
+      <c r="L16" s="292"/>
     </row>
     <row r="17" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -7463,17 +7282,17 @@
       <c r="B17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="286" t="s">
+      <c r="C17" s="293" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="286"/>
+      <c r="D17" s="293"/>
       <c r="E17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="286" t="s">
+      <c r="F17" s="293" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="286"/>
+      <c r="G17" s="293"/>
       <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
@@ -7484,384 +7303,384 @@
       <c r="K17" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="286" t="s">
+      <c r="L17" s="293" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="293"/>
+      <c r="M17" s="294"/>
     </row>
     <row r="18" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="6">
         <v>1</v>
       </c>
       <c r="B18" s="7"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="294"/>
+      <c r="C18" s="277"/>
+      <c r="D18" s="277"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="294"/>
-      <c r="G18" s="294"/>
+      <c r="F18" s="277"/>
+      <c r="G18" s="277"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="294"/>
-      <c r="M18" s="295"/>
+      <c r="L18" s="277"/>
+      <c r="M18" s="278"/>
     </row>
     <row r="19" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="6">
         <v>2</v>
       </c>
       <c r="B19" s="7"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="294"/>
+      <c r="C19" s="277"/>
+      <c r="D19" s="277"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="294"/>
-      <c r="G19" s="294"/>
+      <c r="F19" s="277"/>
+      <c r="G19" s="277"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="294"/>
-      <c r="M19" s="295"/>
+      <c r="L19" s="277"/>
+      <c r="M19" s="278"/>
     </row>
     <row r="20" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>3</v>
       </c>
       <c r="B20" s="7"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="294"/>
+      <c r="C20" s="277"/>
+      <c r="D20" s="277"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="294"/>
-      <c r="G20" s="294"/>
+      <c r="F20" s="277"/>
+      <c r="G20" s="277"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="294"/>
-      <c r="M20" s="295"/>
+      <c r="L20" s="277"/>
+      <c r="M20" s="278"/>
     </row>
     <row r="21" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="6">
         <v>4</v>
       </c>
       <c r="B21" s="7"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="294"/>
+      <c r="C21" s="277"/>
+      <c r="D21" s="277"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="294"/>
-      <c r="G21" s="294"/>
+      <c r="F21" s="277"/>
+      <c r="G21" s="277"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="294"/>
-      <c r="M21" s="295"/>
+      <c r="L21" s="277"/>
+      <c r="M21" s="278"/>
     </row>
     <row r="22" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>5</v>
       </c>
       <c r="B22" s="7"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="294"/>
+      <c r="C22" s="277"/>
+      <c r="D22" s="277"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
+      <c r="F22" s="277"/>
+      <c r="G22" s="277"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="294"/>
-      <c r="M22" s="295"/>
+      <c r="L22" s="277"/>
+      <c r="M22" s="278"/>
     </row>
     <row r="23" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="6">
         <v>6</v>
       </c>
       <c r="B23" s="7"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="294"/>
+      <c r="C23" s="277"/>
+      <c r="D23" s="277"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="294"/>
-      <c r="G23" s="294"/>
+      <c r="F23" s="277"/>
+      <c r="G23" s="277"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="294"/>
-      <c r="M23" s="295"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="278"/>
     </row>
     <row r="24" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>7</v>
       </c>
       <c r="B24" s="7"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="294"/>
+      <c r="C24" s="277"/>
+      <c r="D24" s="277"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="294"/>
-      <c r="G24" s="294"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="294"/>
-      <c r="M24" s="295"/>
+      <c r="L24" s="277"/>
+      <c r="M24" s="278"/>
     </row>
     <row r="25" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>8</v>
       </c>
       <c r="B25" s="7"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
+      <c r="C25" s="277"/>
+      <c r="D25" s="277"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="294"/>
-      <c r="G25" s="294"/>
+      <c r="F25" s="277"/>
+      <c r="G25" s="277"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="294"/>
-      <c r="M25" s="295"/>
+      <c r="L25" s="277"/>
+      <c r="M25" s="278"/>
     </row>
     <row r="26" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="6">
         <v>9</v>
       </c>
       <c r="B26" s="7"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
+      <c r="C26" s="277"/>
+      <c r="D26" s="277"/>
       <c r="E26" s="7"/>
-      <c r="F26" s="294"/>
-      <c r="G26" s="294"/>
+      <c r="F26" s="277"/>
+      <c r="G26" s="277"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="294"/>
-      <c r="M26" s="295"/>
+      <c r="L26" s="277"/>
+      <c r="M26" s="278"/>
     </row>
     <row r="27" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>10</v>
       </c>
       <c r="B27" s="7"/>
-      <c r="C27" s="294"/>
-      <c r="D27" s="294"/>
+      <c r="C27" s="277"/>
+      <c r="D27" s="277"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="294"/>
-      <c r="G27" s="294"/>
+      <c r="F27" s="277"/>
+      <c r="G27" s="277"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="294"/>
-      <c r="M27" s="295"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="278"/>
     </row>
     <row r="28" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>11</v>
       </c>
       <c r="B28" s="7"/>
-      <c r="C28" s="294"/>
-      <c r="D28" s="294"/>
+      <c r="C28" s="277"/>
+      <c r="D28" s="277"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="294"/>
-      <c r="G28" s="294"/>
+      <c r="F28" s="277"/>
+      <c r="G28" s="277"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="294"/>
-      <c r="M28" s="295"/>
+      <c r="L28" s="277"/>
+      <c r="M28" s="278"/>
     </row>
     <row r="29" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="6">
         <v>12</v>
       </c>
       <c r="B29" s="7"/>
-      <c r="C29" s="294"/>
-      <c r="D29" s="294"/>
+      <c r="C29" s="277"/>
+      <c r="D29" s="277"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="294"/>
-      <c r="G29" s="294"/>
+      <c r="F29" s="277"/>
+      <c r="G29" s="277"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="294"/>
-      <c r="M29" s="295"/>
+      <c r="L29" s="277"/>
+      <c r="M29" s="278"/>
     </row>
     <row r="30" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="6">
         <v>13</v>
       </c>
       <c r="B30" s="7"/>
-      <c r="C30" s="294"/>
-      <c r="D30" s="294"/>
+      <c r="C30" s="277"/>
+      <c r="D30" s="277"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="294"/>
-      <c r="G30" s="294"/>
+      <c r="F30" s="277"/>
+      <c r="G30" s="277"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="294"/>
-      <c r="M30" s="295"/>
+      <c r="L30" s="277"/>
+      <c r="M30" s="278"/>
     </row>
     <row r="31" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>14</v>
       </c>
       <c r="B31" s="7"/>
-      <c r="C31" s="294"/>
-      <c r="D31" s="294"/>
+      <c r="C31" s="277"/>
+      <c r="D31" s="277"/>
       <c r="E31" s="7"/>
-      <c r="F31" s="294"/>
-      <c r="G31" s="294"/>
+      <c r="F31" s="277"/>
+      <c r="G31" s="277"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="294"/>
-      <c r="M31" s="295"/>
+      <c r="L31" s="277"/>
+      <c r="M31" s="278"/>
     </row>
     <row r="32" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="6">
         <v>15</v>
       </c>
       <c r="B32" s="7"/>
-      <c r="C32" s="294"/>
-      <c r="D32" s="294"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="277"/>
       <c r="E32" s="7"/>
-      <c r="F32" s="294"/>
-      <c r="G32" s="294"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="294"/>
-      <c r="M32" s="295"/>
+      <c r="L32" s="277"/>
+      <c r="M32" s="278"/>
     </row>
     <row r="33" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="6">
         <v>16</v>
       </c>
       <c r="B33" s="7"/>
-      <c r="C33" s="294"/>
-      <c r="D33" s="294"/>
+      <c r="C33" s="277"/>
+      <c r="D33" s="277"/>
       <c r="E33" s="7"/>
-      <c r="F33" s="294"/>
-      <c r="G33" s="294"/>
+      <c r="F33" s="277"/>
+      <c r="G33" s="277"/>
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="294"/>
-      <c r="M33" s="295"/>
+      <c r="L33" s="277"/>
+      <c r="M33" s="278"/>
     </row>
     <row r="34" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>17</v>
       </c>
       <c r="B34" s="7"/>
-      <c r="C34" s="294"/>
-      <c r="D34" s="294"/>
+      <c r="C34" s="277"/>
+      <c r="D34" s="277"/>
       <c r="E34" s="7"/>
-      <c r="F34" s="294"/>
-      <c r="G34" s="294"/>
+      <c r="F34" s="277"/>
+      <c r="G34" s="277"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="294"/>
-      <c r="M34" s="295"/>
+      <c r="L34" s="277"/>
+      <c r="M34" s="278"/>
     </row>
     <row r="35" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="6">
         <v>18</v>
       </c>
       <c r="B35" s="7"/>
-      <c r="C35" s="294"/>
-      <c r="D35" s="294"/>
+      <c r="C35" s="277"/>
+      <c r="D35" s="277"/>
       <c r="E35" s="7"/>
-      <c r="F35" s="294"/>
-      <c r="G35" s="294"/>
+      <c r="F35" s="277"/>
+      <c r="G35" s="277"/>
       <c r="H35" s="7"/>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="294"/>
-      <c r="M35" s="295"/>
+      <c r="L35" s="277"/>
+      <c r="M35" s="278"/>
     </row>
     <row r="36" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="6">
         <v>19</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="294"/>
-      <c r="D36" s="294"/>
+      <c r="C36" s="277"/>
+      <c r="D36" s="277"/>
       <c r="E36" s="7"/>
-      <c r="F36" s="294"/>
-      <c r="G36" s="294"/>
+      <c r="F36" s="277"/>
+      <c r="G36" s="277"/>
       <c r="H36" s="7"/>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="294"/>
-      <c r="M36" s="295"/>
+      <c r="L36" s="277"/>
+      <c r="M36" s="278"/>
     </row>
     <row r="37" spans="1:13" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="6">
         <v>20</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="294"/>
-      <c r="D37" s="294"/>
+      <c r="C37" s="277"/>
+      <c r="D37" s="277"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="294"/>
-      <c r="G37" s="294"/>
+      <c r="F37" s="277"/>
+      <c r="G37" s="277"/>
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="294"/>
-      <c r="M37" s="295"/>
+      <c r="L37" s="277"/>
+      <c r="M37" s="278"/>
     </row>
     <row r="38" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A38" s="296" t="s">
+      <c r="A38" s="279" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="297"/>
-      <c r="C38" s="297"/>
-      <c r="D38" s="298"/>
-      <c r="E38" s="299"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="173"/>
+      <c r="B38" s="280"/>
+      <c r="C38" s="280"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="282"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="160"/>
     </row>
     <row r="39" spans="1:13" ht="17.100000000000001" customHeight="1">
-      <c r="A39" s="300" t="s">
+      <c r="A39" s="283" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="301"/>
-      <c r="C39" s="301"/>
-      <c r="D39" s="301"/>
-      <c r="E39" s="301"/>
-      <c r="F39" s="301"/>
-      <c r="G39" s="301"/>
-      <c r="H39" s="301"/>
-      <c r="I39" s="301"/>
-      <c r="J39" s="301"/>
-      <c r="K39" s="301"/>
-      <c r="L39" s="301"/>
-      <c r="M39" s="302"/>
+      <c r="B39" s="284"/>
+      <c r="C39" s="284"/>
+      <c r="D39" s="284"/>
+      <c r="E39" s="284"/>
+      <c r="F39" s="284"/>
+      <c r="G39" s="284"/>
+      <c r="H39" s="284"/>
+      <c r="I39" s="284"/>
+      <c r="J39" s="284"/>
+      <c r="K39" s="284"/>
+      <c r="L39" s="284"/>
+      <c r="M39" s="285"/>
     </row>
     <row r="40" spans="1:13" ht="13.5" customHeight="1">
       <c r="A40" s="8"/>
@@ -7894,20 +7713,20 @@
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A42" s="303" t="s">
+      <c r="A42" s="286" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="304"/>
-      <c r="C42" s="304"/>
-      <c r="D42" s="304"/>
-      <c r="E42" s="304"/>
-      <c r="F42" s="304"/>
-      <c r="G42" s="304"/>
-      <c r="H42" s="304"/>
-      <c r="I42" s="304"/>
-      <c r="J42" s="304"/>
-      <c r="K42" s="304"/>
-      <c r="L42" s="304"/>
+      <c r="B42" s="287"/>
+      <c r="C42" s="287"/>
+      <c r="D42" s="287"/>
+      <c r="E42" s="287"/>
+      <c r="F42" s="287"/>
+      <c r="G42" s="287"/>
+      <c r="H42" s="287"/>
+      <c r="I42" s="287"/>
+      <c r="J42" s="287"/>
+      <c r="K42" s="287"/>
+      <c r="L42" s="287"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1">
       <c r="A43" s="9"/>
@@ -7938,23 +7757,111 @@
       <c r="L44" s="10"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1">
-      <c r="A45" s="305" t="s">
+      <c r="A45" s="288" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="306"/>
-      <c r="C45" s="306"/>
-      <c r="D45" s="306"/>
-      <c r="E45" s="306"/>
-      <c r="F45" s="306"/>
-      <c r="G45" s="306"/>
-      <c r="H45" s="306"/>
-      <c r="I45" s="306"/>
-      <c r="J45" s="306"/>
-      <c r="K45" s="306"/>
-      <c r="L45" s="306"/>
+      <c r="B45" s="289"/>
+      <c r="C45" s="289"/>
+      <c r="D45" s="289"/>
+      <c r="E45" s="289"/>
+      <c r="F45" s="289"/>
+      <c r="G45" s="289"/>
+      <c r="H45" s="289"/>
+      <c r="I45" s="289"/>
+      <c r="J45" s="289"/>
+      <c r="K45" s="289"/>
+      <c r="L45" s="289"/>
     </row>
   </sheetData>
   <mergeCells count="112">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:M6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:M10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:M11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:M14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:M15"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="L30:M30"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="L37:M37"/>
@@ -7979,94 +7886,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="F32:G32"/>
     <mergeCell ref="L32:M32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:M15"/>
-    <mergeCell ref="A16:L16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:M12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:M14"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:M10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:M11"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:M6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:M7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:M8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:M5"/>
   </mergeCells>
   <phoneticPr fontId="38" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
